--- a/BackTest/2019-10-16 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-16 BackTest STRAT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>55</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-27.27272727272727</v>
+      </c>
       <c r="L12" t="n">
         <v>713.8</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>66</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-14.8936170212766</v>
+      </c>
       <c r="L13" t="n">
         <v>711.2</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>67</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>710.6</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>80</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-19.23076923076923</v>
+      </c>
       <c r="L15" t="n">
         <v>709.3</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>92</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>3.125</v>
+      </c>
       <c r="L16" t="n">
         <v>709.5</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>93</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>709.6</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>100</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>708.9</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>109</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>11.11111111111111</v>
+      </c>
       <c r="L19" t="n">
         <v>709.8</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>128</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>29.67032967032967</v>
+      </c>
       <c r="L20" t="n">
         <v>712.5</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>150</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-13.68421052631579</v>
+      </c>
       <c r="L21" t="n">
         <v>713</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>150</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-2.380952380952381</v>
+      </c>
       <c r="L22" t="n">
         <v>711.7</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>150</v>
       </c>
       <c r="K23" t="n">
-        <v>-18.66666666666667</v>
+        <v>-3.614457831325301</v>
       </c>
       <c r="L23" t="n">
         <v>711.5</v>
@@ -1466,7 +1488,7 @@
         <v>151</v>
       </c>
       <c r="K24" t="n">
-        <v>-6.060606060606061</v>
+        <v>15.49295774647887</v>
       </c>
       <c r="L24" t="n">
         <v>711.3</v>
@@ -1515,7 +1537,7 @@
         <v>163</v>
       </c>
       <c r="K25" t="n">
-        <v>7.246376811594203</v>
+        <v>15.49295774647887</v>
       </c>
       <c r="L25" t="n">
         <v>713.6</v>
@@ -1564,7 +1586,7 @@
         <v>164</v>
       </c>
       <c r="K26" t="n">
-        <v>10.29411764705882</v>
+        <v>18.30985915492958</v>
       </c>
       <c r="L26" t="n">
         <v>714.8</v>
@@ -1613,7 +1635,7 @@
         <v>177</v>
       </c>
       <c r="K27" t="n">
-        <v>0.6711409395973155</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L27" t="n">
         <v>714.8</v>
@@ -1662,7 +1684,7 @@
         <v>178</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.6711409395973155</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L28" t="n">
         <v>715.4</v>
@@ -1711,7 +1733,7 @@
         <v>178</v>
       </c>
       <c r="K29" t="n">
-        <v>4.225352112676056</v>
+        <v>-44</v>
       </c>
       <c r="L29" t="n">
         <v>715.1</v>
@@ -1760,7 +1782,7 @@
         <v>178</v>
       </c>
       <c r="K30" t="n">
-        <v>3.546099290780142</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>712.9</v>
@@ -1809,7 +1831,7 @@
         <v>178</v>
       </c>
       <c r="K31" t="n">
-        <v>3.546099290780142</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>712.9</v>
@@ -1860,7 +1882,7 @@
         <v>178</v>
       </c>
       <c r="K32" t="n">
-        <v>-10.56910569105691</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>712.9</v>
@@ -1911,7 +1933,7 @@
         <v>200</v>
       </c>
       <c r="K33" t="n">
-        <v>-17.91044776119403</v>
+        <v>-46.93877551020408</v>
       </c>
       <c r="L33" t="n">
         <v>710.7</v>
@@ -1962,7 +1984,7 @@
         <v>224</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.6369426751592357</v>
+        <v>-18.0327868852459</v>
       </c>
       <c r="L34" t="n">
         <v>710.8</v>
@@ -2013,7 +2035,7 @@
         <v>224</v>
       </c>
       <c r="K35" t="n">
-        <v>8.333333333333332</v>
+        <v>-20</v>
       </c>
       <c r="L35" t="n">
         <v>709.7</v>
@@ -2064,7 +2086,7 @@
         <v>225</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7518796992481203</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="L36" t="n">
         <v>708.6</v>
@@ -2115,7 +2137,7 @@
         <v>226</v>
       </c>
       <c r="K37" t="n">
-        <v>0.7518796992481203</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="L37" t="n">
         <v>708.7</v>
@@ -2166,7 +2188,7 @@
         <v>238</v>
       </c>
       <c r="K38" t="n">
-        <v>-2.898550724637681</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L38" t="n">
         <v>707.7</v>
@@ -2217,7 +2239,7 @@
         <v>241</v>
       </c>
       <c r="K39" t="n">
-        <v>-7.575757575757576</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L39" t="n">
         <v>707</v>
@@ -2268,7 +2290,7 @@
         <v>247</v>
       </c>
       <c r="K40" t="n">
-        <v>-29.41176470588236</v>
+        <v>-18.84057971014493</v>
       </c>
       <c r="L40" t="n">
         <v>705.7</v>
@@ -2319,7 +2341,7 @@
         <v>250</v>
       </c>
       <c r="K41" t="n">
-        <v>-10</v>
+        <v>-13.88888888888889</v>
       </c>
       <c r="L41" t="n">
         <v>704.7</v>
@@ -2370,7 +2392,7 @@
         <v>263</v>
       </c>
       <c r="K42" t="n">
-        <v>2.654867256637168</v>
+        <v>39.68253968253968</v>
       </c>
       <c r="L42" t="n">
         <v>705</v>
@@ -2421,7 +2443,7 @@
         <v>265</v>
       </c>
       <c r="K43" t="n">
-        <v>0.8695652173913043</v>
+        <v>-2.439024390243902</v>
       </c>
       <c r="L43" t="n">
         <v>707.3</v>
@@ -2472,7 +2494,7 @@
         <v>265</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>-2.439024390243902</v>
       </c>
       <c r="L44" t="n">
         <v>707.2</v>
@@ -2523,7 +2545,7 @@
         <v>273</v>
       </c>
       <c r="K45" t="n">
-        <v>-3.636363636363636</v>
+        <v>12.5</v>
       </c>
       <c r="L45" t="n">
         <v>707.9</v>
@@ -2574,7 +2596,7 @@
         <v>275</v>
       </c>
       <c r="K46" t="n">
-        <v>-2.702702702702703</v>
+        <v>18.36734693877551</v>
       </c>
       <c r="L46" t="n">
         <v>708.7</v>
@@ -2625,7 +2647,7 @@
         <v>285</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>23.40425531914894</v>
       </c>
       <c r="L47" t="n">
         <v>708.6</v>
@@ -2676,7 +2698,7 @@
         <v>296</v>
       </c>
       <c r="K48" t="n">
-        <v>-8.474576271186439</v>
+        <v>-5.454545454545454</v>
       </c>
       <c r="L48" t="n">
         <v>708.6</v>
@@ -2727,7 +2749,7 @@
         <v>298</v>
       </c>
       <c r="K49" t="n">
-        <v>-6.666666666666667</v>
+        <v>9.803921568627452</v>
       </c>
       <c r="L49" t="n">
         <v>708.5</v>
@@ -2778,7 +2800,7 @@
         <v>299</v>
       </c>
       <c r="K50" t="n">
-        <v>-7.43801652892562</v>
+        <v>2.040816326530612</v>
       </c>
       <c r="L50" t="n">
         <v>708.9</v>
@@ -2829,7 +2851,7 @@
         <v>300</v>
       </c>
       <c r="K51" t="n">
-        <v>-6.557377049180328</v>
+        <v>-29.72972972972973</v>
       </c>
       <c r="L51" t="n">
         <v>709.1</v>
@@ -2880,7 +2902,7 @@
         <v>309</v>
       </c>
       <c r="K52" t="n">
-        <v>0.7633587786259541</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>708.9</v>
@@ -2931,7 +2953,7 @@
         <v>309</v>
       </c>
       <c r="K53" t="n">
-        <v>21.10091743119266</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>708.9</v>
@@ -2982,7 +3004,7 @@
         <v>309</v>
       </c>
       <c r="K54" t="n">
-        <v>-1.176470588235294</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L54" t="n">
         <v>708.9</v>
@@ -3033,7 +3055,7 @@
         <v>317</v>
       </c>
       <c r="K55" t="n">
-        <v>7.526881720430108</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L55" t="n">
         <v>708.9</v>
@@ -3084,7 +3106,7 @@
         <v>317</v>
       </c>
       <c r="K56" t="n">
-        <v>6.521739130434782</v>
+        <v>25</v>
       </c>
       <c r="L56" t="n">
         <v>708.7</v>
@@ -3135,7 +3157,7 @@
         <v>318</v>
       </c>
       <c r="K57" t="n">
-        <v>8.695652173913043</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="L57" t="n">
         <v>709.6</v>
@@ -3186,7 +3208,7 @@
         <v>318</v>
       </c>
       <c r="K58" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="L58" t="n">
         <v>711.6</v>
@@ -3237,7 +3259,7 @@
         <v>318</v>
       </c>
       <c r="K59" t="n">
-        <v>22.07792207792208</v>
+        <v>100</v>
       </c>
       <c r="L59" t="n">
         <v>713.4</v>
@@ -3288,7 +3310,7 @@
         <v>337</v>
       </c>
       <c r="K60" t="n">
-        <v>4.444444444444445</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L60" t="n">
         <v>713.4</v>
@@ -3339,7 +3361,7 @@
         <v>350</v>
       </c>
       <c r="K61" t="n">
-        <v>-12</v>
+        <v>-56.09756097560976</v>
       </c>
       <c r="L61" t="n">
         <v>712</v>
@@ -3390,7 +3412,7 @@
         <v>354</v>
       </c>
       <c r="K62" t="n">
-        <v>-31.86813186813187</v>
+        <v>-60</v>
       </c>
       <c r="L62" t="n">
         <v>709.3</v>
@@ -3441,7 +3463,7 @@
         <v>365</v>
       </c>
       <c r="K63" t="n">
-        <v>-16</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L63" t="n">
         <v>707.7</v>
@@ -3492,7 +3514,7 @@
         <v>376</v>
       </c>
       <c r="K64" t="n">
-        <v>-24.32432432432433</v>
+        <v>-59.32203389830508</v>
       </c>
       <c r="L64" t="n">
         <v>705</v>
@@ -3543,7 +3565,7 @@
         <v>397</v>
       </c>
       <c r="K65" t="n">
-        <v>-11.29032258064516</v>
+        <v>-17.5</v>
       </c>
       <c r="L65" t="n">
         <v>703.6</v>
@@ -3594,7 +3616,7 @@
         <v>420</v>
       </c>
       <c r="K66" t="n">
-        <v>-26.89655172413793</v>
+        <v>-37.25490196078432</v>
       </c>
       <c r="L66" t="n">
         <v>699.9</v>
@@ -3645,7 +3667,7 @@
         <v>420</v>
       </c>
       <c r="K67" t="n">
-        <v>-21.48148148148148</v>
+        <v>-37.25490196078432</v>
       </c>
       <c r="L67" t="n">
         <v>696.1</v>
@@ -3696,7 +3718,7 @@
         <v>444</v>
       </c>
       <c r="K68" t="n">
-        <v>4.054054054054054</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L68" t="n">
         <v>694.7</v>
@@ -3747,7 +3769,7 @@
         <v>447</v>
       </c>
       <c r="K69" t="n">
-        <v>0.6711409395973155</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="L69" t="n">
         <v>693</v>
@@ -3798,7 +3820,7 @@
         <v>447</v>
       </c>
       <c r="K70" t="n">
-        <v>1.351351351351351</v>
+        <v>15.4639175257732</v>
       </c>
       <c r="L70" t="n">
         <v>693.2</v>
@@ -3849,7 +3871,7 @@
         <v>448</v>
       </c>
       <c r="K71" t="n">
-        <v>1.351351351351351</v>
+        <v>21.27659574468085</v>
       </c>
       <c r="L71" t="n">
         <v>694.8</v>
@@ -3900,7 +3922,7 @@
         <v>449</v>
       </c>
       <c r="K72" t="n">
-        <v>-4.285714285714286</v>
+        <v>11.9047619047619</v>
       </c>
       <c r="L72" t="n">
         <v>696.9</v>
@@ -3951,7 +3973,7 @@
         <v>457</v>
       </c>
       <c r="K73" t="n">
-        <v>-9.45945945945946</v>
+        <v>16.04938271604938</v>
       </c>
       <c r="L73" t="n">
         <v>697.1</v>
@@ -4002,7 +4024,7 @@
         <v>466</v>
       </c>
       <c r="K74" t="n">
-        <v>-3.184713375796179</v>
+        <v>1.449275362318841</v>
       </c>
       <c r="L74" t="n">
         <v>699.3</v>
@@ -4053,7 +4075,7 @@
         <v>469</v>
       </c>
       <c r="K75" t="n">
-        <v>-10.52631578947368</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L75" t="n">
         <v>699.1</v>
@@ -4104,7 +4126,7 @@
         <v>490</v>
       </c>
       <c r="K76" t="n">
-        <v>-21.38728323699422</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>699.1</v>
@@ -4155,7 +4177,7 @@
         <v>513</v>
       </c>
       <c r="K77" t="n">
-        <v>-7.692307692307693</v>
+        <v>-1.449275362318841</v>
       </c>
       <c r="L77" t="n">
         <v>701.4</v>
@@ -4206,7 +4228,7 @@
         <v>534</v>
       </c>
       <c r="K78" t="n">
-        <v>-16.66666666666666</v>
+        <v>-21.83908045977012</v>
       </c>
       <c r="L78" t="n">
         <v>699.2</v>
@@ -4257,7 +4279,7 @@
         <v>534</v>
       </c>
       <c r="K79" t="n">
-        <v>-16.66666666666666</v>
+        <v>-21.83908045977012</v>
       </c>
       <c r="L79" t="n">
         <v>697.3</v>
@@ -4308,7 +4330,7 @@
         <v>536</v>
       </c>
       <c r="K80" t="n">
-        <v>-9.547738693467336</v>
+        <v>-25</v>
       </c>
       <c r="L80" t="n">
         <v>695.2</v>
@@ -4359,7 +4381,7 @@
         <v>536</v>
       </c>
       <c r="K81" t="n">
-        <v>-3.225806451612903</v>
+        <v>-26.4367816091954</v>
       </c>
       <c r="L81" t="n">
         <v>693</v>
@@ -4410,7 +4432,7 @@
         <v>556</v>
       </c>
       <c r="K82" t="n">
-        <v>8.91089108910891</v>
+        <v>5.05050505050505</v>
       </c>
       <c r="L82" t="n">
         <v>692.7</v>
@@ -4461,7 +4483,7 @@
         <v>558</v>
       </c>
       <c r="K83" t="n">
-        <v>4.66321243523316</v>
+        <v>-2.173913043478261</v>
       </c>
       <c r="L83" t="n">
         <v>693.4</v>
@@ -4512,7 +4534,7 @@
         <v>576</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>-15.88785046728972</v>
       </c>
       <c r="L84" t="n">
         <v>691.4</v>
@@ -4563,7 +4585,7 @@
         <v>584</v>
       </c>
       <c r="K85" t="n">
-        <v>-5.88235294117647</v>
+        <v>12.76595744680851</v>
       </c>
       <c r="L85" t="n">
         <v>690.5</v>
@@ -4614,7 +4636,7 @@
         <v>585</v>
       </c>
       <c r="K86" t="n">
-        <v>7.878787878787878</v>
+        <v>-13.88888888888889</v>
       </c>
       <c r="L86" t="n">
         <v>691.8</v>
@@ -4665,7 +4687,7 @@
         <v>589</v>
       </c>
       <c r="K87" t="n">
-        <v>5.325443786982249</v>
+        <v>12.72727272727273</v>
       </c>
       <c r="L87" t="n">
         <v>690.4</v>
@@ -4716,7 +4738,7 @@
         <v>598</v>
       </c>
       <c r="K88" t="n">
-        <v>-15.58441558441558</v>
+        <v>-3.125</v>
       </c>
       <c r="L88" t="n">
         <v>690.2</v>
@@ -4767,7 +4789,7 @@
         <v>605</v>
       </c>
       <c r="K89" t="n">
-        <v>-8.860759493670885</v>
+        <v>10.14492753623188</v>
       </c>
       <c r="L89" t="n">
         <v>690.7</v>
@@ -4818,7 +4840,7 @@
         <v>607</v>
       </c>
       <c r="K90" t="n">
-        <v>-10</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="L90" t="n">
         <v>691.2</v>
@@ -4869,7 +4891,7 @@
         <v>607</v>
       </c>
       <c r="K91" t="n">
-        <v>-10.69182389937107</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L91" t="n">
         <v>691.7</v>
@@ -4920,7 +4942,7 @@
         <v>611</v>
       </c>
       <c r="K92" t="n">
-        <v>-8.641975308641975</v>
+        <v>-24.52830188679245</v>
       </c>
       <c r="L92" t="n">
         <v>690.6</v>
@@ -4971,7 +4993,7 @@
         <v>611</v>
       </c>
       <c r="K93" t="n">
-        <v>-3.896103896103896</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L93" t="n">
         <v>689.3</v>
@@ -5022,7 +5044,7 @@
         <v>611</v>
       </c>
       <c r="K94" t="n">
-        <v>-10.3448275862069</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L94" t="n">
         <v>689.8</v>
@@ -5073,7 +5095,7 @@
         <v>611</v>
       </c>
       <c r="K95" t="n">
-        <v>-8.450704225352112</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L95" t="n">
         <v>689.5</v>
@@ -5124,7 +5146,7 @@
         <v>617</v>
       </c>
       <c r="K96" t="n">
-        <v>2.362204724409449</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L96" t="n">
         <v>688.5</v>
@@ -5175,7 +5197,7 @@
         <v>619</v>
       </c>
       <c r="K97" t="n">
-        <v>-20.75471698113208</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L97" t="n">
         <v>687.7</v>
@@ -5226,7 +5248,7 @@
         <v>620</v>
       </c>
       <c r="K98" t="n">
-        <v>-2.325581395348837</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L98" t="n">
         <v>687.7</v>
@@ -5277,7 +5299,7 @@
         <v>621</v>
       </c>
       <c r="K99" t="n">
-        <v>-1.149425287356322</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L99" t="n">
         <v>687.1</v>
@@ -5328,7 +5350,7 @@
         <v>621</v>
       </c>
       <c r="K100" t="n">
-        <v>1.176470588235294</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L100" t="n">
         <v>686.7</v>
@@ -5379,7 +5401,7 @@
         <v>632</v>
       </c>
       <c r="K101" t="n">
-        <v>-10.41666666666667</v>
+        <v>-90.47619047619048</v>
       </c>
       <c r="L101" t="n">
         <v>685.2</v>
@@ -5430,7 +5452,7 @@
         <v>632</v>
       </c>
       <c r="K102" t="n">
-        <v>-39.47368421052632</v>
+        <v>-90.47619047619048</v>
       </c>
       <c r="L102" t="n">
         <v>683.3</v>
@@ -5481,7 +5503,7 @@
         <v>638</v>
       </c>
       <c r="K103" t="n">
-        <v>-32.5</v>
+        <v>-48.14814814814815</v>
       </c>
       <c r="L103" t="n">
         <v>682</v>
@@ -5532,7 +5554,7 @@
         <v>651</v>
       </c>
       <c r="K104" t="n">
-        <v>-28</v>
+        <v>-65</v>
       </c>
       <c r="L104" t="n">
         <v>679.4</v>
@@ -5583,7 +5605,7 @@
         <v>651</v>
       </c>
       <c r="K105" t="n">
-        <v>-43.28358208955223</v>
+        <v>-58.82352941176471</v>
       </c>
       <c r="L105" t="n">
         <v>676.8</v>
@@ -5634,7 +5656,7 @@
         <v>652</v>
       </c>
       <c r="K106" t="n">
-        <v>-43.28358208955223</v>
+        <v>-51.51515151515152</v>
       </c>
       <c r="L106" t="n">
         <v>674.9</v>
@@ -5685,7 +5707,7 @@
         <v>670</v>
       </c>
       <c r="K107" t="n">
-        <v>-8.641975308641975</v>
+        <v>4</v>
       </c>
       <c r="L107" t="n">
         <v>675</v>
@@ -5736,7 +5758,7 @@
         <v>686</v>
       </c>
       <c r="K108" t="n">
-        <v>-15.90909090909091</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L108" t="n">
         <v>673.6</v>
@@ -5787,7 +5809,7 @@
         <v>686</v>
       </c>
       <c r="K109" t="n">
-        <v>-25.92592592592592</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L109" t="n">
         <v>672.1</v>
@@ -5838,7 +5860,7 @@
         <v>686</v>
       </c>
       <c r="K110" t="n">
-        <v>-24.05063291139241</v>
+        <v>-7.407407407407407</v>
       </c>
       <c r="L110" t="n">
         <v>670.6</v>
@@ -5889,7 +5911,7 @@
         <v>686</v>
       </c>
       <c r="K111" t="n">
-        <v>-24.05063291139241</v>
+        <v>-7.407407407407407</v>
       </c>
       <c r="L111" t="n">
         <v>670.2</v>
@@ -5940,7 +5962,7 @@
         <v>686</v>
       </c>
       <c r="K112" t="n">
-        <v>-30.66666666666666</v>
+        <v>-20.83333333333334</v>
       </c>
       <c r="L112" t="n">
         <v>669.8</v>
@@ -5991,7 +6013,7 @@
         <v>687</v>
       </c>
       <c r="K113" t="n">
-        <v>-31.57894736842105</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L113" t="n">
         <v>668.7</v>
@@ -6042,7 +6064,7 @@
         <v>687</v>
       </c>
       <c r="K114" t="n">
-        <v>-31.57894736842105</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L114" t="n">
         <v>668.9</v>
@@ -6093,7 +6115,7 @@
         <v>687</v>
       </c>
       <c r="K115" t="n">
-        <v>-31.57894736842105</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L115" t="n">
         <v>669.1</v>
@@ -6144,7 +6166,7 @@
         <v>687</v>
       </c>
       <c r="K116" t="n">
-        <v>-25.71428571428571</v>
+        <v>-100</v>
       </c>
       <c r="L116" t="n">
         <v>669.2</v>
@@ -6195,7 +6217,7 @@
         <v>689</v>
       </c>
       <c r="K117" t="n">
-        <v>-25.71428571428571</v>
+        <v>-100</v>
       </c>
       <c r="L117" t="n">
         <v>667.3</v>
@@ -6246,7 +6268,7 @@
         <v>700</v>
       </c>
       <c r="K118" t="n">
-        <v>-7.5</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L118" t="n">
         <v>668.1</v>
@@ -6297,7 +6319,7 @@
         <v>703</v>
       </c>
       <c r="K119" t="n">
-        <v>-4.878048780487805</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L119" t="n">
         <v>669.2</v>
@@ -6348,7 +6370,7 @@
         <v>712</v>
       </c>
       <c r="K120" t="n">
-        <v>-14.28571428571428</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L120" t="n">
         <v>669.4</v>
@@ -6399,7 +6421,7 @@
         <v>727</v>
       </c>
       <c r="K121" t="n">
-        <v>13.68421052631579</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="L121" t="n">
         <v>671.1</v>
@@ -6450,7 +6472,7 @@
         <v>744</v>
       </c>
       <c r="K122" t="n">
-        <v>-3.571428571428571</v>
+        <v>1.754385964912281</v>
       </c>
       <c r="L122" t="n">
         <v>671.1</v>
@@ -6501,7 +6523,7 @@
         <v>755</v>
       </c>
       <c r="K123" t="n">
-        <v>0.8547008547008548</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L123" t="n">
         <v>672.3</v>
@@ -6552,7 +6574,7 @@
         <v>757</v>
       </c>
       <c r="K124" t="n">
-        <v>15.09433962264151</v>
+        <v>20</v>
       </c>
       <c r="L124" t="n">
         <v>673.7</v>
@@ -6603,7 +6625,7 @@
         <v>774</v>
       </c>
       <c r="K125" t="n">
-        <v>-0.8130081300813009</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L125" t="n">
         <v>673.4</v>
@@ -6654,7 +6676,7 @@
         <v>783</v>
       </c>
       <c r="K126" t="n">
-        <v>5.343511450381679</v>
+        <v>8.51063829787234</v>
       </c>
       <c r="L126" t="n">
         <v>674</v>
@@ -6705,7 +6727,7 @@
         <v>792</v>
       </c>
       <c r="K127" t="n">
-        <v>-16.39344262295082</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L127" t="n">
         <v>673.9</v>
@@ -6756,7 +6778,7 @@
         <v>792</v>
       </c>
       <c r="K128" t="n">
-        <v>-3.773584905660377</v>
+        <v>-16.85393258426966</v>
       </c>
       <c r="L128" t="n">
         <v>672.7</v>
@@ -6807,7 +6829,7 @@
         <v>795</v>
       </c>
       <c r="K129" t="n">
-        <v>-6.422018348623854</v>
+        <v>-10.8433734939759</v>
       </c>
       <c r="L129" t="n">
         <v>670.9</v>
@@ -6858,7 +6880,7 @@
         <v>797</v>
       </c>
       <c r="K130" t="n">
-        <v>-8.108108108108109</v>
+        <v>-37.14285714285715</v>
       </c>
       <c r="L130" t="n">
         <v>669.8</v>
@@ -6909,7 +6931,7 @@
         <v>805</v>
       </c>
       <c r="K131" t="n">
-        <v>-0.8403361344537815</v>
+        <v>-1.639344262295082</v>
       </c>
       <c r="L131" t="n">
         <v>668</v>
@@ -6960,7 +6982,7 @@
         <v>809</v>
       </c>
       <c r="K132" t="n">
-        <v>-4.065040650406504</v>
+        <v>-29.62962962962963</v>
       </c>
       <c r="L132" t="n">
         <v>667.5</v>
@@ -7011,7 +7033,7 @@
         <v>809</v>
       </c>
       <c r="K133" t="n">
-        <v>-3.278688524590164</v>
+        <v>-34.61538461538461</v>
       </c>
       <c r="L133" t="n">
         <v>665.9</v>
@@ -7062,7 +7084,7 @@
         <v>809</v>
       </c>
       <c r="K134" t="n">
-        <v>-3.278688524590164</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L134" t="n">
         <v>664.1</v>
@@ -7113,7 +7135,7 @@
         <v>817</v>
       </c>
       <c r="K135" t="n">
-        <v>3.076923076923077</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L135" t="n">
         <v>664.8</v>
@@ -7164,7 +7186,7 @@
         <v>817</v>
       </c>
       <c r="K136" t="n">
-        <v>3.076923076923077</v>
+        <v>28</v>
       </c>
       <c r="L136" t="n">
         <v>664.6</v>
@@ -7215,7 +7237,7 @@
         <v>826</v>
       </c>
       <c r="K137" t="n">
-        <v>-2.18978102189781</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L137" t="n">
         <v>664.4</v>
@@ -7266,7 +7288,7 @@
         <v>827</v>
       </c>
       <c r="K138" t="n">
-        <v>-10.23622047244094</v>
+        <v>6.25</v>
       </c>
       <c r="L138" t="n">
         <v>664.3</v>
@@ -7317,7 +7339,7 @@
         <v>831</v>
       </c>
       <c r="K139" t="n">
-        <v>-9.375</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L139" t="n">
         <v>664.9</v>
@@ -7368,7 +7390,7 @@
         <v>831</v>
       </c>
       <c r="K140" t="n">
-        <v>-2.521008403361344</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>665.7</v>
@@ -7419,7 +7441,7 @@
         <v>833</v>
       </c>
       <c r="K141" t="n">
-        <v>-18.86792452830189</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L141" t="n">
         <v>665.5</v>
@@ -7470,7 +7492,7 @@
         <v>834</v>
       </c>
       <c r="K142" t="n">
-        <v>-4.444444444444445</v>
+        <v>4</v>
       </c>
       <c r="L142" t="n">
         <v>665.6</v>
@@ -7521,7 +7543,7 @@
         <v>837</v>
       </c>
       <c r="K143" t="n">
-        <v>-14.63414634146341</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L143" t="n">
         <v>666</v>
@@ -7572,7 +7594,7 @@
         <v>837</v>
       </c>
       <c r="K144" t="n">
-        <v>-17.5</v>
+        <v>-20</v>
       </c>
       <c r="L144" t="n">
         <v>666.4</v>
@@ -7623,7 +7645,7 @@
         <v>837</v>
       </c>
       <c r="K145" t="n">
-        <v>4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L145" t="n">
         <v>666</v>
@@ -7674,7 +7696,7 @@
         <v>837</v>
       </c>
       <c r="K146" t="n">
-        <v>-11.11111111111111</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L146" t="n">
         <v>665.6</v>
@@ -7725,7 +7747,7 @@
         <v>858</v>
       </c>
       <c r="K147" t="n">
-        <v>36.36363636363637</v>
+        <v>80.64516129032258</v>
       </c>
       <c r="L147" t="n">
         <v>668.2</v>
@@ -7776,7 +7798,7 @@
         <v>858</v>
       </c>
       <c r="K148" t="n">
-        <v>36.36363636363637</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L148" t="n">
         <v>670.7</v>
@@ -7827,7 +7849,7 @@
         <v>858</v>
       </c>
       <c r="K149" t="n">
-        <v>42.85714285714285</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L149" t="n">
         <v>672.8</v>
@@ -7878,7 +7900,7 @@
         <v>860</v>
       </c>
       <c r="K150" t="n">
-        <v>49.2063492063492</v>
+        <v>92.5925925925926</v>
       </c>
       <c r="L150" t="n">
         <v>675.1</v>
@@ -7929,7 +7951,7 @@
         <v>860</v>
       </c>
       <c r="K151" t="n">
-        <v>41.81818181818181</v>
+        <v>100</v>
       </c>
       <c r="L151" t="n">
         <v>677.6</v>
@@ -7980,7 +8002,7 @@
         <v>864</v>
       </c>
       <c r="K152" t="n">
-        <v>56.36363636363636</v>
+        <v>100</v>
       </c>
       <c r="L152" t="n">
         <v>680.6</v>
@@ -8031,7 +8053,7 @@
         <v>864</v>
       </c>
       <c r="K153" t="n">
-        <v>56.36363636363636</v>
+        <v>100</v>
       </c>
       <c r="L153" t="n">
         <v>683.3</v>
@@ -8082,7 +8104,7 @@
         <v>870</v>
       </c>
       <c r="K154" t="n">
-        <v>60.65573770491803</v>
+        <v>100</v>
       </c>
       <c r="L154" t="n">
         <v>686.6</v>
@@ -8137,7 +8159,7 @@
         <v>870</v>
       </c>
       <c r="K155" t="n">
-        <v>54.71698113207547</v>
+        <v>100</v>
       </c>
       <c r="L155" t="n">
         <v>689.9</v>
@@ -8194,7 +8216,7 @@
         <v>883</v>
       </c>
       <c r="K156" t="n">
-        <v>63.63636363636363</v>
+        <v>100</v>
       </c>
       <c r="L156" t="n">
         <v>694.5</v>
@@ -8251,7 +8273,7 @@
         <v>883</v>
       </c>
       <c r="K157" t="n">
-        <v>89.47368421052632</v>
+        <v>100</v>
       </c>
       <c r="L157" t="n">
         <v>697</v>
@@ -8308,7 +8330,7 @@
         <v>883</v>
       </c>
       <c r="K158" t="n">
-        <v>89.28571428571429</v>
+        <v>100</v>
       </c>
       <c r="L158" t="n">
         <v>699.5</v>
@@ -8365,7 +8387,7 @@
         <v>897</v>
       </c>
       <c r="K159" t="n">
-        <v>90.90909090909091</v>
+        <v>100</v>
       </c>
       <c r="L159" t="n">
         <v>703.4</v>
@@ -8422,7 +8444,7 @@
         <v>897</v>
       </c>
       <c r="K160" t="n">
-        <v>90.90909090909091</v>
+        <v>100</v>
       </c>
       <c r="L160" t="n">
         <v>707.1</v>
@@ -8479,7 +8501,7 @@
         <v>900</v>
       </c>
       <c r="K161" t="n">
-        <v>97.01492537313433</v>
+        <v>100</v>
       </c>
       <c r="L161" t="n">
         <v>711.1</v>
@@ -8593,7 +8615,7 @@
         <v>909</v>
       </c>
       <c r="K163" t="n">
-        <v>75</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L163" t="n">
         <v>717.4</v>
@@ -8650,7 +8672,7 @@
         <v>929</v>
       </c>
       <c r="K164" t="n">
-        <v>36.95652173913043</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="L164" t="n">
         <v>717.5</v>
@@ -8701,7 +8723,7 @@
         <v>933</v>
       </c>
       <c r="K165" t="n">
-        <v>31.25</v>
+        <v>-32</v>
       </c>
       <c r="L165" t="n">
         <v>717.2</v>
@@ -8752,7 +8774,7 @@
         <v>940</v>
       </c>
       <c r="K166" t="n">
-        <v>22.33009708737864</v>
+        <v>-40.35087719298245</v>
       </c>
       <c r="L166" t="n">
         <v>714.9</v>
@@ -8803,7 +8825,7 @@
         <v>940</v>
       </c>
       <c r="K167" t="n">
-        <v>2.439024390243902</v>
+        <v>-40.35087719298245</v>
       </c>
       <c r="L167" t="n">
         <v>712.6</v>
@@ -8854,7 +8876,7 @@
         <v>946</v>
       </c>
       <c r="K168" t="n">
-        <v>-4.545454545454546</v>
+        <v>-87.75510204081633</v>
       </c>
       <c r="L168" t="n">
         <v>709.7</v>
@@ -8905,7 +8927,7 @@
         <v>947</v>
       </c>
       <c r="K169" t="n">
-        <v>-5.617977528089887</v>
+        <v>-88</v>
       </c>
       <c r="L169" t="n">
         <v>705.3</v>
@@ -8956,7 +8978,7 @@
         <v>948</v>
       </c>
       <c r="K170" t="n">
-        <v>-9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L170" t="n">
         <v>700.8</v>
@@ -9007,7 +9029,7 @@
         <v>949</v>
       </c>
       <c r="K171" t="n">
-        <v>-10.1123595505618</v>
+        <v>-100</v>
       </c>
       <c r="L171" t="n">
         <v>695.9</v>
@@ -9058,7 +9080,7 @@
         <v>951</v>
       </c>
       <c r="K172" t="n">
-        <v>-17.24137931034483</v>
+        <v>-100</v>
       </c>
       <c r="L172" t="n">
         <v>690.8</v>
@@ -9109,7 +9131,7 @@
         <v>960</v>
       </c>
       <c r="K173" t="n">
-        <v>-6.25</v>
+        <v>-41.93548387096774</v>
       </c>
       <c r="L173" t="n">
         <v>687.5</v>
@@ -9160,7 +9182,7 @@
         <v>961</v>
       </c>
       <c r="K174" t="n">
-        <v>-12.08791208791209</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L174" t="n">
         <v>686.3</v>
@@ -9211,7 +9233,7 @@
         <v>983</v>
       </c>
       <c r="K175" t="n">
-        <v>9.734513274336283</v>
+        <v>48.83720930232558</v>
       </c>
       <c r="L175" t="n">
         <v>687.7</v>
@@ -9262,7 +9284,7 @@
         <v>985</v>
       </c>
       <c r="K176" t="n">
-        <v>-3.92156862745098</v>
+        <v>42.22222222222222</v>
       </c>
       <c r="L176" t="n">
         <v>689.6</v>
@@ -9313,7 +9335,7 @@
         <v>985</v>
       </c>
       <c r="K177" t="n">
-        <v>-3.92156862745098</v>
+        <v>64.1025641025641</v>
       </c>
       <c r="L177" t="n">
         <v>691.5</v>
@@ -9364,7 +9386,7 @@
         <v>985</v>
       </c>
       <c r="K178" t="n">
-        <v>-3.92156862745098</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L178" t="n">
         <v>694</v>
@@ -9415,7 +9437,7 @@
         <v>985</v>
       </c>
       <c r="K179" t="n">
-        <v>-20.45454545454546</v>
+        <v>72.97297297297297</v>
       </c>
       <c r="L179" t="n">
         <v>696.6</v>
@@ -9466,7 +9488,7 @@
         <v>993</v>
       </c>
       <c r="K180" t="n">
-        <v>-27.08333333333333</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L180" t="n">
         <v>698.5</v>
@@ -9517,7 +9539,7 @@
         <v>994</v>
       </c>
       <c r="K181" t="n">
-        <v>-31.91489361702128</v>
+        <v>48.83720930232558</v>
       </c>
       <c r="L181" t="n">
         <v>700.4</v>
@@ -9568,7 +9590,7 @@
         <v>994</v>
       </c>
       <c r="K182" t="n">
-        <v>-31.91489361702128</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="L182" t="n">
         <v>702.5</v>
@@ -9619,7 +9641,7 @@
         <v>1006</v>
       </c>
       <c r="K183" t="n">
-        <v>-34.02061855670103</v>
+        <v>-2.222222222222222</v>
       </c>
       <c r="L183" t="n">
         <v>702.5</v>
@@ -9670,7 +9692,7 @@
         <v>1013</v>
       </c>
       <c r="K184" t="n">
-        <v>-7.142857142857142</v>
+        <v>-53.33333333333334</v>
       </c>
       <c r="L184" t="n">
         <v>703.1</v>
@@ -9721,7 +9743,7 @@
         <v>1022</v>
       </c>
       <c r="K185" t="n">
-        <v>7.865168539325842</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L185" t="n">
         <v>702.4</v>
@@ -9772,7 +9794,7 @@
         <v>1025</v>
       </c>
       <c r="K186" t="n">
-        <v>20</v>
+        <v>-5</v>
       </c>
       <c r="L186" t="n">
         <v>702.2</v>
@@ -9823,7 +9845,7 @@
         <v>1037</v>
       </c>
       <c r="K187" t="n">
-        <v>29.89690721649485</v>
+        <v>19.23076923076923</v>
       </c>
       <c r="L187" t="n">
         <v>703.2</v>
@@ -9874,7 +9896,7 @@
         <v>1038</v>
       </c>
       <c r="K188" t="n">
-        <v>39.1304347826087</v>
+        <v>20.75471698113208</v>
       </c>
       <c r="L188" t="n">
         <v>704.3</v>
@@ -9925,7 +9947,7 @@
         <v>1069</v>
       </c>
       <c r="K189" t="n">
-        <v>55.73770491803278</v>
+        <v>65.78947368421053</v>
       </c>
       <c r="L189" t="n">
         <v>708.5</v>
@@ -9976,7 +9998,7 @@
         <v>1077</v>
       </c>
       <c r="K190" t="n">
-        <v>59.68992248062015</v>
+        <v>71.08433734939759</v>
       </c>
       <c r="L190" t="n">
         <v>714.3</v>
@@ -10027,7 +10049,7 @@
         <v>1081</v>
       </c>
       <c r="K191" t="n">
-        <v>56.06060606060606</v>
+        <v>63.2183908045977</v>
       </c>
       <c r="L191" t="n">
         <v>719.8</v>
@@ -10078,7 +10100,7 @@
         <v>1097</v>
       </c>
       <c r="K192" t="n">
-        <v>41.0958904109589</v>
+        <v>56.04395604395604</v>
       </c>
       <c r="L192" t="n">
         <v>723.7</v>
@@ -10129,7 +10151,7 @@
         <v>1114</v>
       </c>
       <c r="K193" t="n">
-        <v>44.15584415584416</v>
+        <v>60.3960396039604</v>
       </c>
       <c r="L193" t="n">
         <v>730.5</v>
@@ -10180,7 +10202,7 @@
         <v>1142</v>
       </c>
       <c r="K194" t="n">
-        <v>21.54696132596685</v>
+        <v>20</v>
       </c>
       <c r="L194" t="n">
         <v>733.8</v>
@@ -10231,7 +10253,7 @@
         <v>1149</v>
       </c>
       <c r="K195" t="n">
-        <v>14.4578313253012</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L195" t="n">
         <v>736.9</v>
@@ -10282,7 +10304,7 @@
         <v>1182</v>
       </c>
       <c r="K196" t="n">
-        <v>-3.553299492385787</v>
+        <v>-11.72413793103448</v>
       </c>
       <c r="L196" t="n">
         <v>736.4</v>
@@ -10333,7 +10355,7 @@
         <v>1182</v>
       </c>
       <c r="K197" t="n">
-        <v>-3.553299492385787</v>
+        <v>-12.5</v>
       </c>
       <c r="L197" t="n">
         <v>734.7</v>
@@ -10384,7 +10406,7 @@
         <v>1196</v>
       </c>
       <c r="K198" t="n">
-        <v>-9.95260663507109</v>
+        <v>-49.60629921259843</v>
       </c>
       <c r="L198" t="n">
         <v>731.5</v>
@@ -10435,7 +10457,7 @@
         <v>1200</v>
       </c>
       <c r="K199" t="n">
-        <v>-7.906976744186046</v>
+        <v>-54.47154471544715</v>
       </c>
       <c r="L199" t="n">
         <v>725.6</v>
@@ -10486,7 +10508,7 @@
         <v>1212</v>
       </c>
       <c r="K200" t="n">
-        <v>1.36986301369863</v>
+        <v>-38.93129770992366</v>
       </c>
       <c r="L200" t="n">
         <v>720.1</v>
@@ -10537,7 +10559,7 @@
         <v>1218</v>
       </c>
       <c r="K201" t="n">
-        <v>4.464285714285714</v>
+        <v>-23.96694214876033</v>
       </c>
       <c r="L201" t="n">
         <v>715.6</v>
@@ -10588,7 +10610,7 @@
         <v>1228</v>
       </c>
       <c r="K202" t="n">
-        <v>0</v>
+        <v>-49.12280701754386</v>
       </c>
       <c r="L202" t="n">
         <v>711.7</v>
@@ -10639,7 +10661,7 @@
         <v>1256</v>
       </c>
       <c r="K203" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L203" t="n">
         <v>708.9</v>
@@ -10690,7 +10712,7 @@
         <v>1279</v>
       </c>
       <c r="K204" t="n">
-        <v>3.759398496240602</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L204" t="n">
         <v>706.6</v>
@@ -10741,7 +10763,7 @@
         <v>1288</v>
       </c>
       <c r="K205" t="n">
-        <v>3.759398496240602</v>
+        <v>11.32075471698113</v>
       </c>
       <c r="L205" t="n">
         <v>704.5</v>
@@ -10792,7 +10814,7 @@
         <v>1299</v>
       </c>
       <c r="K206" t="n">
-        <v>-1.45985401459854</v>
+        <v>0.8547008547008548</v>
       </c>
       <c r="L206" t="n">
         <v>704.6</v>
@@ -10843,7 +10865,7 @@
         <v>1300</v>
       </c>
       <c r="K207" t="n">
-        <v>-5.70342205323194</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L207" t="n">
         <v>704.8</v>
@@ -10894,7 +10916,7 @@
         <v>1301</v>
       </c>
       <c r="K208" t="n">
-        <v>-6.463878326996197</v>
+        <v>10.89108910891089</v>
       </c>
       <c r="L208" t="n">
         <v>706.3</v>
@@ -10945,7 +10967,7 @@
         <v>1301</v>
       </c>
       <c r="K209" t="n">
-        <v>-20.68965517241379</v>
+        <v>-1.123595505617978</v>
       </c>
       <c r="L209" t="n">
         <v>707.4</v>
@@ -10996,7 +11018,7 @@
         <v>1303</v>
       </c>
       <c r="K210" t="n">
-        <v>-23.89380530973451</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L210" t="n">
         <v>707.5</v>
@@ -11047,7 +11069,7 @@
         <v>1306</v>
       </c>
       <c r="K211" t="n">
-        <v>-23.55555555555555</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="L211" t="n">
         <v>706.7</v>
@@ -11098,7 +11120,7 @@
         <v>1320</v>
       </c>
       <c r="K212" t="n">
-        <v>-22.86995515695067</v>
+        <v>-62.5</v>
       </c>
       <c r="L212" t="n">
         <v>705.5</v>
@@ -11149,7 +11171,7 @@
         <v>1326</v>
       </c>
       <c r="K213" t="n">
-        <v>-34.90566037735849</v>
+        <v>-48.93617021276596</v>
       </c>
       <c r="L213" t="n">
         <v>700.9</v>
@@ -11200,7 +11222,7 @@
         <v>1326</v>
       </c>
       <c r="K214" t="n">
-        <v>-25</v>
+        <v>-84.21052631578947</v>
       </c>
       <c r="L214" t="n">
         <v>698.6</v>
@@ -11251,7 +11273,7 @@
         <v>1340</v>
       </c>
       <c r="K215" t="n">
-        <v>-20.41884816753927</v>
+        <v>-17.07317073170732</v>
       </c>
       <c r="L215" t="n">
         <v>696.8</v>
@@ -11302,7 +11324,7 @@
         <v>1344</v>
       </c>
       <c r="K216" t="n">
-        <v>-1.234567901234568</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L216" t="n">
         <v>696.5</v>
@@ -11353,7 +11375,7 @@
         <v>1344</v>
       </c>
       <c r="K217" t="n">
-        <v>-1.234567901234568</v>
+        <v>-6.976744186046512</v>
       </c>
       <c r="L217" t="n">
         <v>696.1</v>
@@ -11404,7 +11426,7 @@
         <v>1348</v>
       </c>
       <c r="K218" t="n">
-        <v>5.263157894736842</v>
+        <v>-14.8936170212766</v>
       </c>
       <c r="L218" t="n">
         <v>695.4</v>
@@ -11455,7 +11477,7 @@
         <v>1359</v>
       </c>
       <c r="K219" t="n">
-        <v>-4.40251572327044</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L219" t="n">
         <v>693.6</v>
@@ -11506,7 +11528,7 @@
         <v>1362</v>
       </c>
       <c r="K220" t="n">
-        <v>-14.66666666666667</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L220" t="n">
         <v>691.3</v>
@@ -11557,7 +11579,7 @@
         <v>1371</v>
       </c>
       <c r="K221" t="n">
-        <v>-24.18300653594771</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L221" t="n">
         <v>688.4</v>
@@ -11608,7 +11630,7 @@
         <v>1380</v>
       </c>
       <c r="K222" t="n">
-        <v>-11.84210526315789</v>
+        <v>0</v>
       </c>
       <c r="L222" t="n">
         <v>687.8</v>
@@ -11659,7 +11681,7 @@
         <v>1384</v>
       </c>
       <c r="K223" t="n">
-        <v>-32.8125</v>
+        <v>6.896551724137931</v>
       </c>
       <c r="L223" t="n">
         <v>688.2</v>
@@ -11710,7 +11732,7 @@
         <v>1398</v>
       </c>
       <c r="K224" t="n">
-        <v>-27.73109243697479</v>
+        <v>-41.37931034482759</v>
       </c>
       <c r="L224" t="n">
         <v>687.2</v>
@@ -11761,7 +11783,7 @@
         <v>1398</v>
       </c>
       <c r="K225" t="n">
-        <v>-38.18181818181819</v>
+        <v>-51.85185185185185</v>
       </c>
       <c r="L225" t="n">
         <v>684.8</v>
@@ -11812,7 +11834,7 @@
         <v>1416</v>
       </c>
       <c r="K226" t="n">
-        <v>-11.11111111111111</v>
+        <v>-13.88888888888889</v>
       </c>
       <c r="L226" t="n">
         <v>683.8</v>
@@ -11863,7 +11885,7 @@
         <v>1433</v>
       </c>
       <c r="K227" t="n">
-        <v>-23.30827067669173</v>
+        <v>-27.05882352941176</v>
       </c>
       <c r="L227" t="n">
         <v>681.1</v>
@@ -11914,7 +11936,7 @@
         <v>1442</v>
       </c>
       <c r="K228" t="n">
-        <v>-14.8936170212766</v>
+        <v>-3.614457831325301</v>
       </c>
       <c r="L228" t="n">
         <v>679.7</v>
@@ -11965,7 +11987,7 @@
         <v>1452</v>
       </c>
       <c r="K229" t="n">
-        <v>-20.52980132450331</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L229" t="n">
         <v>678.4</v>
@@ -12016,7 +12038,7 @@
         <v>1452</v>
       </c>
       <c r="K230" t="n">
-        <v>-22.14765100671141</v>
+        <v>-1.234567901234568</v>
       </c>
       <c r="L230" t="n">
         <v>677.4</v>
@@ -12067,7 +12089,7 @@
         <v>1452</v>
       </c>
       <c r="K231" t="n">
-        <v>-20.54794520547945</v>
+        <v>-13.88888888888889</v>
       </c>
       <c r="L231" t="n">
         <v>677.3</v>
@@ -12118,7 +12140,7 @@
         <v>1472</v>
       </c>
       <c r="K232" t="n">
-        <v>-23.68421052631579</v>
+        <v>-38.63636363636363</v>
       </c>
       <c r="L232" t="n">
         <v>674.3</v>
@@ -12169,7 +12191,7 @@
         <v>1492</v>
       </c>
       <c r="K233" t="n">
-        <v>-6.024096385542169</v>
+        <v>0</v>
       </c>
       <c r="L233" t="n">
         <v>672.9</v>
@@ -12220,7 +12242,7 @@
         <v>1499</v>
       </c>
       <c r="K234" t="n">
-        <v>-9.826589595375722</v>
+        <v>-6.930693069306932</v>
       </c>
       <c r="L234" t="n">
         <v>672.2</v>
@@ -12271,7 +12293,7 @@
         <v>1504</v>
       </c>
       <c r="K235" t="n">
-        <v>-21.95121951219512</v>
+        <v>-34.09090909090909</v>
       </c>
       <c r="L235" t="n">
         <v>671</v>
@@ -12322,7 +12344,7 @@
         <v>1507</v>
       </c>
       <c r="K236" t="n">
-        <v>-26.38036809815951</v>
+        <v>-21.62162162162162</v>
       </c>
       <c r="L236" t="n">
         <v>667.7</v>
@@ -12373,7 +12395,7 @@
         <v>1509</v>
       </c>
       <c r="K237" t="n">
-        <v>-24.84848484848485</v>
+        <v>-34.32835820895522</v>
       </c>
       <c r="L237" t="n">
         <v>666.3</v>
@@ -12424,7 +12446,7 @@
         <v>1511</v>
       </c>
       <c r="K238" t="n">
-        <v>-21.47239263803681</v>
+        <v>-18.64406779661017</v>
       </c>
       <c r="L238" t="n">
         <v>664.2</v>
@@ -12475,7 +12497,7 @@
         <v>1511</v>
       </c>
       <c r="K239" t="n">
-        <v>-15.78947368421053</v>
+        <v>-18.64406779661017</v>
       </c>
       <c r="L239" t="n">
         <v>663.1</v>
@@ -12577,7 +12599,7 @@
         <v>1519</v>
       </c>
       <c r="K241" t="n">
-        <v>-2.702702702702703</v>
+        <v>36.17021276595745</v>
       </c>
       <c r="L241" t="n">
         <v>662.1</v>
@@ -12628,7 +12650,7 @@
         <v>1533</v>
       </c>
       <c r="K242" t="n">
-        <v>0.6535947712418301</v>
+        <v>26.82926829268293</v>
       </c>
       <c r="L242" t="n">
         <v>665.2</v>
@@ -12679,7 +12701,7 @@
         <v>1558</v>
       </c>
       <c r="K243" t="n">
-        <v>12.64367816091954</v>
+        <v>72.88135593220339</v>
       </c>
       <c r="L243" t="n">
         <v>668.8</v>
@@ -12730,7 +12752,7 @@
         <v>1558</v>
       </c>
       <c r="K244" t="n">
-        <v>22.5</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="L244" t="n">
         <v>673.1</v>
@@ -12781,7 +12803,7 @@
         <v>1558</v>
       </c>
       <c r="K245" t="n">
-        <v>22.5</v>
+        <v>100</v>
       </c>
       <c r="L245" t="n">
         <v>677.9</v>
@@ -12832,7 +12854,7 @@
         <v>1562</v>
       </c>
       <c r="K246" t="n">
-        <v>15.06849315068493</v>
+        <v>100</v>
       </c>
       <c r="L246" t="n">
         <v>683.4</v>
@@ -12883,7 +12905,7 @@
         <v>1562</v>
       </c>
       <c r="K247" t="n">
-        <v>30.23255813953488</v>
+        <v>100</v>
       </c>
       <c r="L247" t="n">
         <v>688.7</v>
@@ -12934,7 +12956,7 @@
         <v>1566</v>
       </c>
       <c r="K248" t="n">
-        <v>20.96774193548387</v>
+        <v>85.45454545454545</v>
       </c>
       <c r="L248" t="n">
         <v>693.4</v>
@@ -12985,7 +13007,7 @@
         <v>1569</v>
       </c>
       <c r="K249" t="n">
-        <v>33.33333333333333</v>
+        <v>85.18518518518519</v>
       </c>
       <c r="L249" t="n">
         <v>698.4</v>
@@ -13036,7 +13058,7 @@
         <v>1582</v>
       </c>
       <c r="K250" t="n">
-        <v>20</v>
+        <v>46.03174603174603</v>
       </c>
       <c r="L250" t="n">
         <v>701.7</v>
@@ -13087,7 +13109,7 @@
         <v>1617</v>
       </c>
       <c r="K251" t="n">
-        <v>-5.454545454545454</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L251" t="n">
         <v>701.1</v>
@@ -13138,7 +13160,7 @@
         <v>1618</v>
       </c>
       <c r="K252" t="n">
-        <v>6.849315068493151</v>
+        <v>-76.66666666666667</v>
       </c>
       <c r="L252" t="n">
         <v>699</v>
@@ -13189,7 +13211,7 @@
         <v>1619</v>
       </c>
       <c r="K253" t="n">
-        <v>-7.086614173228346</v>
+        <v>-73.77049180327869</v>
       </c>
       <c r="L253" t="n">
         <v>694.5</v>
@@ -13240,7 +13262,7 @@
         <v>1635</v>
       </c>
       <c r="K254" t="n">
-        <v>10.29411764705882</v>
+        <v>-37.66233766233766</v>
       </c>
       <c r="L254" t="n">
         <v>691.6</v>
@@ -13291,7 +13313,7 @@
         <v>1640</v>
       </c>
       <c r="K255" t="n">
-        <v>10.29411764705882</v>
+        <v>-48.71794871794872</v>
       </c>
       <c r="L255" t="n">
         <v>688.2</v>
@@ -13342,7 +13364,7 @@
         <v>1663</v>
       </c>
       <c r="K256" t="n">
-        <v>25.64102564102564</v>
+        <v>-14.85148514851485</v>
       </c>
       <c r="L256" t="n">
         <v>686.7</v>

--- a/BackTest/2019-10-16 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-16 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S256"/>
+  <dimension ref="A1:M235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,18 +491,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J4" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J5" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-28</v>
-      </c>
-      <c r="J6" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-28</v>
-      </c>
-      <c r="J7" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-27</v>
-      </c>
-      <c r="J8" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-34</v>
-      </c>
-      <c r="J9" t="n">
-        <v>36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-33</v>
-      </c>
-      <c r="J10" t="n">
-        <v>37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-33</v>
-      </c>
-      <c r="J11" t="n">
-        <v>37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>715.3</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>55</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L12" t="n">
-        <v>713.8</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-26</v>
-      </c>
-      <c r="J13" t="n">
-        <v>66</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-14.8936170212766</v>
-      </c>
-      <c r="L13" t="n">
-        <v>711.2</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J14" t="n">
-        <v>67</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>710.6</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-38</v>
-      </c>
-      <c r="J15" t="n">
-        <v>80</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-19.23076923076923</v>
-      </c>
-      <c r="L15" t="n">
-        <v>709.3</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-26</v>
-      </c>
-      <c r="J16" t="n">
-        <v>92</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="L16" t="n">
-        <v>709.5</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-27</v>
-      </c>
-      <c r="J17" t="n">
-        <v>93</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>709.6</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-34</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>708.9</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J19" t="n">
-        <v>109</v>
-      </c>
-      <c r="K19" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L19" t="n">
-        <v>709.8</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>128</v>
-      </c>
-      <c r="K20" t="n">
-        <v>29.67032967032967</v>
-      </c>
-      <c r="L20" t="n">
-        <v>712.5</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-28</v>
-      </c>
-      <c r="J21" t="n">
-        <v>150</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-13.68421052631579</v>
-      </c>
-      <c r="L21" t="n">
-        <v>713</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>714.15</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-28</v>
-      </c>
-      <c r="J22" t="n">
-        <v>150</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-2.380952380952381</v>
-      </c>
-      <c r="L22" t="n">
-        <v>711.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>712.75</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-28</v>
-      </c>
-      <c r="J23" t="n">
-        <v>150</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-3.614457831325301</v>
-      </c>
-      <c r="L23" t="n">
-        <v>711.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>711.35</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-27</v>
-      </c>
-      <c r="J24" t="n">
-        <v>151</v>
-      </c>
-      <c r="K24" t="n">
-        <v>15.49295774647887</v>
-      </c>
-      <c r="L24" t="n">
-        <v>711.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>710.95</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J25" t="n">
-        <v>163</v>
-      </c>
-      <c r="K25" t="n">
-        <v>15.49295774647887</v>
-      </c>
-      <c r="L25" t="n">
-        <v>713.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>711.45</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-14</v>
-      </c>
-      <c r="J26" t="n">
-        <v>164</v>
-      </c>
-      <c r="K26" t="n">
-        <v>18.30985915492958</v>
-      </c>
-      <c r="L26" t="n">
-        <v>714.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>712.15</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-27</v>
-      </c>
-      <c r="J27" t="n">
-        <v>177</v>
-      </c>
-      <c r="K27" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L27" t="n">
-        <v>714.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>712.2</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-28</v>
-      </c>
-      <c r="J28" t="n">
-        <v>178</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-4.347826086956522</v>
-      </c>
-      <c r="L28" t="n">
-        <v>715.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>712.15</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-28</v>
-      </c>
-      <c r="J29" t="n">
-        <v>178</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-44</v>
-      </c>
-      <c r="L29" t="n">
-        <v>715.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>712.45</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-28</v>
-      </c>
-      <c r="J30" t="n">
-        <v>178</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>712.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>712.7</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-28</v>
-      </c>
-      <c r="J31" t="n">
-        <v>178</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>712.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>712.95</v>
-      </c>
-      <c r="N31" t="n">
-        <v>713.7333333333333</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-28</v>
-      </c>
-      <c r="J32" t="n">
-        <v>178</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>712.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>712.3</v>
-      </c>
-      <c r="N32" t="n">
-        <v>712.8</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J33" t="n">
-        <v>200</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-46.93877551020408</v>
-      </c>
-      <c r="L33" t="n">
-        <v>710.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>711.1</v>
-      </c>
-      <c r="N33" t="n">
-        <v>711.1333333333333</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-26</v>
-      </c>
-      <c r="J34" t="n">
-        <v>224</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-18.0327868852459</v>
-      </c>
-      <c r="L34" t="n">
-        <v>710.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>711.05</v>
-      </c>
-      <c r="N34" t="n">
-        <v>710.9</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-26</v>
-      </c>
-      <c r="J35" t="n">
-        <v>224</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L35" t="n">
-        <v>709.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>711.65</v>
-      </c>
-      <c r="N35" t="n">
-        <v>710.8666666666667</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J36" t="n">
-        <v>225</v>
-      </c>
-      <c r="K36" t="n">
-        <v>4.166666666666666</v>
-      </c>
-      <c r="L36" t="n">
-        <v>708.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>711.7</v>
-      </c>
-      <c r="N36" t="n">
-        <v>710.9666666666667</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-26</v>
-      </c>
-      <c r="J37" t="n">
-        <v>226</v>
-      </c>
-      <c r="K37" t="n">
-        <v>4.166666666666666</v>
-      </c>
-      <c r="L37" t="n">
-        <v>708.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>711.75</v>
-      </c>
-      <c r="N37" t="n">
-        <v>711.0333333333333</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-38</v>
-      </c>
-      <c r="J38" t="n">
-        <v>238</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L38" t="n">
-        <v>707.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>711.55</v>
-      </c>
-      <c r="N38" t="n">
-        <v>710.6666666666666</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J39" t="n">
-        <v>241</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L39" t="n">
-        <v>707</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>711.05</v>
-      </c>
-      <c r="N39" t="n">
-        <v>710.6333333333333</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-41</v>
-      </c>
-      <c r="J40" t="n">
-        <v>247</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-18.84057971014493</v>
-      </c>
-      <c r="L40" t="n">
-        <v>705.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>709.3</v>
-      </c>
-      <c r="N40" t="n">
-        <v>710.3666666666667</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-38</v>
-      </c>
-      <c r="J41" t="n">
-        <v>250</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-13.88888888888889</v>
-      </c>
-      <c r="L41" t="n">
-        <v>704.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>708.8</v>
-      </c>
-      <c r="N41" t="n">
-        <v>710.2</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J42" t="n">
-        <v>263</v>
-      </c>
-      <c r="K42" t="n">
-        <v>39.68253968253968</v>
-      </c>
-      <c r="L42" t="n">
-        <v>705</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>708.95</v>
-      </c>
-      <c r="N42" t="n">
-        <v>709.8666666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-27</v>
-      </c>
-      <c r="J43" t="n">
-        <v>265</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-2.439024390243902</v>
-      </c>
-      <c r="L43" t="n">
-        <v>707.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>709</v>
-      </c>
-      <c r="N43" t="n">
-        <v>709.8333333333334</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-27</v>
-      </c>
-      <c r="J44" t="n">
-        <v>265</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-2.439024390243902</v>
-      </c>
-      <c r="L44" t="n">
-        <v>707.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>709</v>
-      </c>
-      <c r="N44" t="n">
-        <v>709.7666666666667</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J45" t="n">
-        <v>273</v>
-      </c>
-      <c r="K45" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L45" t="n">
-        <v>707.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>708.8</v>
-      </c>
-      <c r="N45" t="n">
-        <v>710.4</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-17</v>
-      </c>
-      <c r="J46" t="n">
-        <v>275</v>
-      </c>
-      <c r="K46" t="n">
-        <v>18.36734693877551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>708.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>708.65</v>
-      </c>
-      <c r="N46" t="n">
-        <v>710.7</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-27</v>
-      </c>
-      <c r="J47" t="n">
-        <v>285</v>
-      </c>
-      <c r="K47" t="n">
-        <v>23.40425531914894</v>
-      </c>
-      <c r="L47" t="n">
-        <v>708.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>708.65</v>
-      </c>
-      <c r="N47" t="n">
-        <v>710.7</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-38</v>
-      </c>
-      <c r="J48" t="n">
-        <v>296</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-5.454545454545454</v>
-      </c>
-      <c r="L48" t="n">
-        <v>708.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>708.15</v>
-      </c>
-      <c r="N48" t="n">
-        <v>710.5666666666667</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-36</v>
-      </c>
-      <c r="J49" t="n">
-        <v>298</v>
-      </c>
-      <c r="K49" t="n">
-        <v>9.803921568627452</v>
-      </c>
-      <c r="L49" t="n">
-        <v>708.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>707.75</v>
-      </c>
-      <c r="N49" t="n">
-        <v>710.2</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-37</v>
-      </c>
-      <c r="J50" t="n">
-        <v>299</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2.040816326530612</v>
-      </c>
-      <c r="L50" t="n">
-        <v>708.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>707.3</v>
-      </c>
-      <c r="N50" t="n">
-        <v>709.1666666666666</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-36</v>
-      </c>
-      <c r="J51" t="n">
-        <v>300</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-29.72972972972973</v>
-      </c>
-      <c r="L51" t="n">
-        <v>709.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>706.9</v>
-      </c>
-      <c r="N51" t="n">
-        <v>708.9</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-27</v>
-      </c>
-      <c r="J52" t="n">
-        <v>309</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>708.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>706.95</v>
-      </c>
-      <c r="N52" t="n">
-        <v>708.9333333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-27</v>
-      </c>
-      <c r="J53" t="n">
-        <v>309</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>708.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>708.1</v>
-      </c>
-      <c r="N53" t="n">
-        <v>708.9666666666667</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-27</v>
-      </c>
-      <c r="J54" t="n">
-        <v>309</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L54" t="n">
-        <v>708.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>708.05</v>
-      </c>
-      <c r="N54" t="n">
-        <v>708.9666666666667</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J55" t="n">
-        <v>317</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-4.761904761904762</v>
-      </c>
-      <c r="L55" t="n">
-        <v>708.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>708.4</v>
-      </c>
-      <c r="N55" t="n">
-        <v>708.8333333333334</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J56" t="n">
-        <v>317</v>
-      </c>
-      <c r="K56" t="n">
-        <v>25</v>
-      </c>
-      <c r="L56" t="n">
-        <v>708.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>708.7</v>
-      </c>
-      <c r="N56" t="n">
-        <v>708.6666666666666</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-18</v>
-      </c>
-      <c r="J57" t="n">
-        <v>318</v>
-      </c>
-      <c r="K57" t="n">
-        <v>90.90909090909091</v>
-      </c>
-      <c r="L57" t="n">
-        <v>709.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>709.1</v>
-      </c>
-      <c r="N57" t="n">
-        <v>708.9666666666667</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-18</v>
-      </c>
-      <c r="J58" t="n">
-        <v>318</v>
-      </c>
-      <c r="K58" t="n">
-        <v>90</v>
-      </c>
-      <c r="L58" t="n">
-        <v>711.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>710.1</v>
-      </c>
-      <c r="N58" t="n">
-        <v>709.3</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2449,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-18</v>
-      </c>
-      <c r="J59" t="n">
-        <v>318</v>
-      </c>
-      <c r="K59" t="n">
-        <v>100</v>
-      </c>
-      <c r="L59" t="n">
-        <v>713.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>710.95</v>
-      </c>
-      <c r="N59" t="n">
-        <v>709.6333333333333</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-37</v>
-      </c>
-      <c r="J60" t="n">
-        <v>337</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-2.702702702702703</v>
-      </c>
-      <c r="L60" t="n">
-        <v>713.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>711.15</v>
-      </c>
-      <c r="N60" t="n">
-        <v>709.3333333333334</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J61" t="n">
-        <v>350</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-56.09756097560976</v>
-      </c>
-      <c r="L61" t="n">
-        <v>712</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>710.55</v>
-      </c>
-      <c r="N61" t="n">
-        <v>708.6</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2554,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-54</v>
-      </c>
-      <c r="J62" t="n">
-        <v>354</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L62" t="n">
-        <v>709.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>709.1</v>
-      </c>
-      <c r="N62" t="n">
-        <v>707.7333333333333</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2589,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-43</v>
-      </c>
-      <c r="J63" t="n">
-        <v>365</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-28.57142857142857</v>
-      </c>
-      <c r="L63" t="n">
-        <v>707.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>708.3</v>
-      </c>
-      <c r="N63" t="n">
-        <v>707.9666666666667</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2624,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-54</v>
-      </c>
-      <c r="J64" t="n">
-        <v>376</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-59.32203389830508</v>
-      </c>
-      <c r="L64" t="n">
-        <v>705</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>706.95</v>
-      </c>
-      <c r="N64" t="n">
-        <v>707.0333333333333</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2659,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-33</v>
-      </c>
-      <c r="J65" t="n">
-        <v>397</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-17.5</v>
-      </c>
-      <c r="L65" t="n">
-        <v>703.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>706.25</v>
-      </c>
-      <c r="N65" t="n">
-        <v>706.8</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2694,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-56</v>
-      </c>
-      <c r="J66" t="n">
-        <v>420</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-37.25490196078432</v>
-      </c>
-      <c r="L66" t="n">
-        <v>699.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>704.3</v>
-      </c>
-      <c r="N66" t="n">
-        <v>705.7666666666667</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2729,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-56</v>
-      </c>
-      <c r="J67" t="n">
-        <v>420</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-37.25490196078432</v>
-      </c>
-      <c r="L67" t="n">
-        <v>696.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>702.85</v>
-      </c>
-      <c r="N67" t="n">
-        <v>704.7666666666667</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +2764,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-32</v>
-      </c>
-      <c r="J68" t="n">
-        <v>444</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L68" t="n">
-        <v>694.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>703.15</v>
-      </c>
-      <c r="N68" t="n">
-        <v>704.9666666666667</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +2799,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J69" t="n">
-        <v>447</v>
-      </c>
-      <c r="K69" t="n">
-        <v>1.818181818181818</v>
-      </c>
-      <c r="L69" t="n">
-        <v>693</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>703.2</v>
-      </c>
-      <c r="N69" t="n">
-        <v>704.9666666666667</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +2834,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J70" t="n">
-        <v>447</v>
-      </c>
-      <c r="K70" t="n">
-        <v>15.4639175257732</v>
-      </c>
-      <c r="L70" t="n">
-        <v>693.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>703.3</v>
-      </c>
-      <c r="N70" t="n">
-        <v>705.1666666666666</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +2869,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-34</v>
-      </c>
-      <c r="J71" t="n">
-        <v>448</v>
-      </c>
-      <c r="K71" t="n">
-        <v>21.27659574468085</v>
-      </c>
-      <c r="L71" t="n">
-        <v>694.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>703.4</v>
-      </c>
-      <c r="N71" t="n">
-        <v>705.3</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +2904,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-33</v>
-      </c>
-      <c r="J72" t="n">
-        <v>449</v>
-      </c>
-      <c r="K72" t="n">
-        <v>11.9047619047619</v>
-      </c>
-      <c r="L72" t="n">
-        <v>696.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>703.1</v>
-      </c>
-      <c r="N72" t="n">
-        <v>705.0333333333333</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +2939,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-41</v>
-      </c>
-      <c r="J73" t="n">
-        <v>457</v>
-      </c>
-      <c r="K73" t="n">
-        <v>16.04938271604938</v>
-      </c>
-      <c r="L73" t="n">
-        <v>697.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>702.4</v>
-      </c>
-      <c r="N73" t="n">
-        <v>704.5666666666667</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +2974,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-32</v>
-      </c>
-      <c r="J74" t="n">
-        <v>466</v>
-      </c>
-      <c r="K74" t="n">
-        <v>1.449275362318841</v>
-      </c>
-      <c r="L74" t="n">
-        <v>699.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>702.15</v>
-      </c>
-      <c r="N74" t="n">
-        <v>704.4</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3009,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J75" t="n">
-        <v>469</v>
-      </c>
-      <c r="K75" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L75" t="n">
-        <v>699.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>701.35</v>
-      </c>
-      <c r="N75" t="n">
-        <v>703.8666666666667</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3044,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-56</v>
-      </c>
-      <c r="J76" t="n">
-        <v>490</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>699.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>699.5</v>
-      </c>
-      <c r="N76" t="n">
-        <v>702.5666666666667</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3079,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-33</v>
-      </c>
-      <c r="J77" t="n">
-        <v>513</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-1.449275362318841</v>
-      </c>
-      <c r="L77" t="n">
-        <v>701.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>698.75</v>
-      </c>
-      <c r="N77" t="n">
-        <v>702.3666666666667</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3114,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-54</v>
-      </c>
-      <c r="J78" t="n">
-        <v>534</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-21.83908045977012</v>
-      </c>
-      <c r="L78" t="n">
-        <v>699.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>696.95</v>
-      </c>
-      <c r="N78" t="n">
-        <v>701.8333333333334</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3149,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-54</v>
-      </c>
-      <c r="J79" t="n">
-        <v>534</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-21.83908045977012</v>
-      </c>
-      <c r="L79" t="n">
-        <v>697.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>695.15</v>
-      </c>
-      <c r="N79" t="n">
-        <v>701.2333333333333</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3184,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-56</v>
-      </c>
-      <c r="J80" t="n">
-        <v>536</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L80" t="n">
-        <v>695.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>694.2</v>
-      </c>
-      <c r="N80" t="n">
-        <v>700.6</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3219,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-56</v>
-      </c>
-      <c r="J81" t="n">
-        <v>536</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-26.4367816091954</v>
-      </c>
-      <c r="L81" t="n">
-        <v>693</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>693.9</v>
-      </c>
-      <c r="N81" t="n">
-        <v>699.9333333333333</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3254,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-36</v>
-      </c>
-      <c r="J82" t="n">
-        <v>556</v>
-      </c>
-      <c r="K82" t="n">
-        <v>5.05050505050505</v>
-      </c>
-      <c r="L82" t="n">
-        <v>692.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>694.8</v>
-      </c>
-      <c r="N82" t="n">
-        <v>699.6333333333333</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3289,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-34</v>
-      </c>
-      <c r="J83" t="n">
-        <v>558</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-2.173913043478261</v>
-      </c>
-      <c r="L83" t="n">
-        <v>693.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>695.25</v>
-      </c>
-      <c r="N83" t="n">
-        <v>699.4</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3324,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-52</v>
-      </c>
-      <c r="J84" t="n">
-        <v>576</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-15.88785046728972</v>
-      </c>
-      <c r="L84" t="n">
-        <v>691.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>695.35</v>
-      </c>
-      <c r="N84" t="n">
-        <v>698.5666666666667</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3359,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-44</v>
-      </c>
-      <c r="J85" t="n">
-        <v>584</v>
-      </c>
-      <c r="K85" t="n">
-        <v>12.76595744680851</v>
-      </c>
-      <c r="L85" t="n">
-        <v>690.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>694.8</v>
-      </c>
-      <c r="N85" t="n">
-        <v>697.7333333333333</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3394,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-43</v>
-      </c>
-      <c r="J86" t="n">
-        <v>585</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-13.88888888888889</v>
-      </c>
-      <c r="L86" t="n">
-        <v>691.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>695.45</v>
-      </c>
-      <c r="N86" t="n">
-        <v>696.9333333333333</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3429,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-47</v>
-      </c>
-      <c r="J87" t="n">
-        <v>589</v>
-      </c>
-      <c r="K87" t="n">
-        <v>12.72727272727273</v>
-      </c>
-      <c r="L87" t="n">
-        <v>690.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="N87" t="n">
-        <v>695.9666666666667</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3464,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-56</v>
-      </c>
-      <c r="J88" t="n">
-        <v>598</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-3.125</v>
-      </c>
-      <c r="L88" t="n">
-        <v>690.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>694.7</v>
-      </c>
-      <c r="N88" t="n">
-        <v>694.7</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3499,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>-49</v>
-      </c>
-      <c r="J89" t="n">
-        <v>605</v>
-      </c>
-      <c r="K89" t="n">
-        <v>10.14492753623188</v>
-      </c>
-      <c r="L89" t="n">
-        <v>690.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>694</v>
-      </c>
-      <c r="N89" t="n">
-        <v>693.6666666666666</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3534,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>-51</v>
-      </c>
-      <c r="J90" t="n">
-        <v>607</v>
-      </c>
-      <c r="K90" t="n">
-        <v>7.042253521126761</v>
-      </c>
-      <c r="L90" t="n">
-        <v>691.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>693.2</v>
-      </c>
-      <c r="N90" t="n">
-        <v>693.2</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3569,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-51</v>
-      </c>
-      <c r="J91" t="n">
-        <v>607</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-29.41176470588236</v>
-      </c>
-      <c r="L91" t="n">
-        <v>691.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>692.35</v>
-      </c>
-      <c r="N91" t="n">
-        <v>693.1666666666666</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3604,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-47</v>
-      </c>
-      <c r="J92" t="n">
-        <v>611</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-24.52830188679245</v>
-      </c>
-      <c r="L92" t="n">
-        <v>690.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>691.65</v>
-      </c>
-      <c r="N92" t="n">
-        <v>693.4</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3639,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-47</v>
-      </c>
-      <c r="J93" t="n">
-        <v>611</v>
-      </c>
-      <c r="K93" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L93" t="n">
-        <v>689.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>691.35</v>
-      </c>
-      <c r="N93" t="n">
-        <v>693.2666666666667</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +3674,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-47</v>
-      </c>
-      <c r="J94" t="n">
-        <v>611</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L94" t="n">
-        <v>689.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>690.6</v>
-      </c>
-      <c r="N94" t="n">
-        <v>693.5</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +3709,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>-47</v>
-      </c>
-      <c r="J95" t="n">
-        <v>611</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-15.38461538461539</v>
-      </c>
-      <c r="L95" t="n">
-        <v>689.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>690</v>
-      </c>
-      <c r="N95" t="n">
-        <v>693.0333333333333</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +3744,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-53</v>
-      </c>
-      <c r="J96" t="n">
-        <v>617</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-21.42857142857143</v>
-      </c>
-      <c r="L96" t="n">
-        <v>688.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>690.15</v>
-      </c>
-      <c r="N96" t="n">
-        <v>693.1333333333333</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +3779,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-55</v>
-      </c>
-      <c r="J97" t="n">
-        <v>619</v>
-      </c>
-      <c r="K97" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L97" t="n">
-        <v>687.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>689.05</v>
-      </c>
-      <c r="N97" t="n">
-        <v>693.1666666666666</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +3814,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-56</v>
-      </c>
-      <c r="J98" t="n">
-        <v>620</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-46.66666666666666</v>
-      </c>
-      <c r="L98" t="n">
-        <v>687.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>688.95</v>
-      </c>
-      <c r="N98" t="n">
-        <v>692.3666666666667</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +3849,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-55</v>
-      </c>
-      <c r="J99" t="n">
-        <v>621</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-28.57142857142857</v>
-      </c>
-      <c r="L99" t="n">
-        <v>687.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>688.9</v>
-      </c>
-      <c r="N99" t="n">
-        <v>691.7</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +3884,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-55</v>
-      </c>
-      <c r="J100" t="n">
-        <v>621</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-28.57142857142857</v>
-      </c>
-      <c r="L100" t="n">
-        <v>686.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>688.95</v>
-      </c>
-      <c r="N100" t="n">
-        <v>691.0333333333333</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +3919,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-66</v>
-      </c>
-      <c r="J101" t="n">
-        <v>632</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-90.47619047619048</v>
-      </c>
-      <c r="L101" t="n">
-        <v>685.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>688.45</v>
-      </c>
-      <c r="N101" t="n">
-        <v>689.9666666666667</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +3954,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-66</v>
-      </c>
-      <c r="J102" t="n">
-        <v>632</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-90.47619047619048</v>
-      </c>
-      <c r="L102" t="n">
-        <v>683.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>686.95</v>
-      </c>
-      <c r="N102" t="n">
-        <v>688.8666666666667</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +3989,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-60</v>
-      </c>
-      <c r="J103" t="n">
-        <v>638</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-48.14814814814815</v>
-      </c>
-      <c r="L103" t="n">
-        <v>682</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>685.65</v>
-      </c>
-      <c r="N103" t="n">
-        <v>688.2333333333333</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4024,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-73</v>
-      </c>
-      <c r="J104" t="n">
-        <v>651</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-65</v>
-      </c>
-      <c r="L104" t="n">
-        <v>679.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>684.6</v>
-      </c>
-      <c r="N104" t="n">
-        <v>686.8666666666667</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4059,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-73</v>
-      </c>
-      <c r="J105" t="n">
-        <v>651</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-58.82352941176471</v>
-      </c>
-      <c r="L105" t="n">
-        <v>676.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>683.15</v>
-      </c>
-      <c r="N105" t="n">
-        <v>685.6</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4094,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-72</v>
-      </c>
-      <c r="J106" t="n">
-        <v>652</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-51.51515151515152</v>
-      </c>
-      <c r="L106" t="n">
-        <v>674.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>681.7</v>
-      </c>
-      <c r="N106" t="n">
-        <v>685.0666666666667</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4129,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>-54</v>
-      </c>
-      <c r="J107" t="n">
-        <v>670</v>
-      </c>
-      <c r="K107" t="n">
-        <v>4</v>
-      </c>
-      <c r="L107" t="n">
-        <v>675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>681.35</v>
-      </c>
-      <c r="N107" t="n">
-        <v>684.3666666666667</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4164,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>-70</v>
-      </c>
-      <c r="J108" t="n">
-        <v>686</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L108" t="n">
-        <v>673.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>680.65</v>
-      </c>
-      <c r="N108" t="n">
-        <v>683.8333333333334</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4199,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>-70</v>
-      </c>
-      <c r="J109" t="n">
-        <v>686</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L109" t="n">
-        <v>672.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>679.6</v>
-      </c>
-      <c r="N109" t="n">
-        <v>683.3</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4234,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>-70</v>
-      </c>
-      <c r="J110" t="n">
-        <v>686</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-7.407407407407407</v>
-      </c>
-      <c r="L110" t="n">
-        <v>670.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>678.65</v>
-      </c>
-      <c r="N110" t="n">
-        <v>682.8333333333334</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4269,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>-70</v>
-      </c>
-      <c r="J111" t="n">
-        <v>686</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-7.407407407407407</v>
-      </c>
-      <c r="L111" t="n">
-        <v>670.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>677.7</v>
-      </c>
-      <c r="N111" t="n">
-        <v>682.3666666666667</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5953,31 +4301,19 @@
         <v>690.4333333333333</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>686</v>
+        <v>668</v>
       </c>
       <c r="K112" t="n">
-        <v>-20.83333333333334</v>
-      </c>
-      <c r="L112" t="n">
-        <v>669.8</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>676.55</v>
-      </c>
-      <c r="N112" t="n">
-        <v>681.2333333333333</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6004,31 +4340,23 @@
         <v>689.7</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>687</v>
+        <v>668</v>
       </c>
       <c r="K113" t="n">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="L113" t="n">
-        <v>668.7</v>
+        <v>668</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M113" t="n">
-        <v>675.35</v>
-      </c>
-      <c r="N113" t="n">
-        <v>680</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6055,31 +4383,23 @@
         <v>688.9666666666667</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="K114" t="n">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="L114" t="n">
-        <v>668.9</v>
+        <v>668</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M114" t="n">
-        <v>674.15</v>
-      </c>
-      <c r="N114" t="n">
-        <v>679.3666666666667</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6106,31 +4426,23 @@
         <v>688.1</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="K115" t="n">
-        <v>2.857142857142857</v>
-      </c>
-      <c r="L115" t="n">
-        <v>669.1</v>
+        <v>668</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M115" t="n">
-        <v>672.95</v>
-      </c>
-      <c r="N115" t="n">
-        <v>678.4666666666667</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6157,31 +4469,23 @@
         <v>687.2333333333333</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="K116" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L116" t="n">
-        <v>669.2</v>
+        <v>668</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M116" t="n">
-        <v>672.05</v>
-      </c>
-      <c r="N116" t="n">
-        <v>677.5333333333333</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6208,31 +4512,23 @@
         <v>686.3166666666667</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>689</v>
+        <v>667</v>
       </c>
       <c r="K117" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L117" t="n">
-        <v>667.3</v>
+        <v>668</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M117" t="n">
-        <v>671.15</v>
-      </c>
-      <c r="N117" t="n">
-        <v>676.6666666666666</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6259,31 +4555,23 @@
         <v>685.5833333333334</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>-62</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>700</v>
+        <v>676</v>
       </c>
       <c r="K118" t="n">
-        <v>57.14285714285714</v>
-      </c>
-      <c r="L118" t="n">
-        <v>668.1</v>
+        <v>668</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M118" t="n">
-        <v>670.85</v>
-      </c>
-      <c r="N118" t="n">
-        <v>676.4666666666667</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6310,31 +4598,23 @@
         <v>684.9</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>-59</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>703</v>
+        <v>675</v>
       </c>
       <c r="K119" t="n">
-        <v>64.70588235294117</v>
-      </c>
-      <c r="L119" t="n">
-        <v>669.2</v>
+        <v>668</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M119" t="n">
-        <v>670.65</v>
-      </c>
-      <c r="N119" t="n">
-        <v>676.1333333333333</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6361,31 +4641,23 @@
         <v>684.3833333333333</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>-68</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>712</v>
+        <v>679</v>
       </c>
       <c r="K120" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L120" t="n">
-        <v>669.4</v>
+        <v>668</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M120" t="n">
-        <v>670</v>
-      </c>
-      <c r="N120" t="n">
-        <v>675.5666666666667</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6412,31 +4684,23 @@
         <v>684.3333333333334</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>-53</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>727</v>
+        <v>685</v>
       </c>
       <c r="K121" t="n">
-        <v>41.46341463414634</v>
-      </c>
-      <c r="L121" t="n">
-        <v>671.1</v>
+        <v>668</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M121" t="n">
-        <v>670.65</v>
-      </c>
-      <c r="N121" t="n">
-        <v>675.5</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6463,31 +4727,23 @@
         <v>684.0666666666667</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>744</v>
+        <v>669</v>
       </c>
       <c r="K122" t="n">
-        <v>1.754385964912281</v>
-      </c>
-      <c r="L122" t="n">
-        <v>671.1</v>
+        <v>668</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M122" t="n">
-        <v>670.45</v>
-      </c>
-      <c r="N122" t="n">
-        <v>674.7333333333333</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6514,31 +4770,23 @@
         <v>683.8</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>-59</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>755</v>
+        <v>679</v>
       </c>
       <c r="K123" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L123" t="n">
-        <v>672.3</v>
+        <v>668</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M123" t="n">
-        <v>670.5</v>
-      </c>
-      <c r="N123" t="n">
-        <v>674.3333333333334</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6565,31 +4813,23 @@
         <v>683.75</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>-57</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>757</v>
+        <v>681</v>
       </c>
       <c r="K124" t="n">
-        <v>20</v>
-      </c>
-      <c r="L124" t="n">
-        <v>673.7</v>
+        <v>668</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M124" t="n">
-        <v>671.3</v>
-      </c>
-      <c r="N124" t="n">
-        <v>674</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6616,31 +4856,23 @@
         <v>683.0666666666667</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>-74</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>774</v>
+        <v>666</v>
       </c>
       <c r="K125" t="n">
-        <v>-3.448275862068965</v>
-      </c>
-      <c r="L125" t="n">
-        <v>673.4</v>
+        <v>668</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M125" t="n">
-        <v>671.25</v>
-      </c>
-      <c r="N125" t="n">
-        <v>673.1</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,28 +4902,18 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>-65</v>
-      </c>
-      <c r="J126" t="n">
-        <v>783</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>8.51063829787234</v>
-      </c>
-      <c r="L126" t="n">
-        <v>674</v>
+        <v>668</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M126" t="n">
-        <v>671.6</v>
-      </c>
-      <c r="N126" t="n">
-        <v>672.7</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6718,31 +4940,23 @@
         <v>682.6166666666667</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>-74</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>792</v>
+        <v>665</v>
       </c>
       <c r="K127" t="n">
-        <v>-13.04347826086956</v>
-      </c>
-      <c r="L127" t="n">
-        <v>673.9</v>
+        <v>668</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M127" t="n">
-        <v>670.6</v>
-      </c>
-      <c r="N127" t="n">
-        <v>672.0666666666667</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6769,31 +4983,23 @@
         <v>681.9166666666666</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>-74</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>792</v>
+        <v>664</v>
       </c>
       <c r="K128" t="n">
-        <v>-16.85393258426966</v>
-      </c>
-      <c r="L128" t="n">
-        <v>672.7</v>
+        <v>668</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M128" t="n">
-        <v>670.4</v>
-      </c>
-      <c r="N128" t="n">
-        <v>671.4666666666667</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6820,31 +5026,23 @@
         <v>681.2166666666667</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>-77</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>795</v>
+        <v>661</v>
       </c>
       <c r="K129" t="n">
-        <v>-10.8433734939759</v>
-      </c>
-      <c r="L129" t="n">
-        <v>670.9</v>
+        <v>668</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M129" t="n">
-        <v>670.05</v>
-      </c>
-      <c r="N129" t="n">
-        <v>670.7333333333333</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6871,31 +5069,23 @@
         <v>680.4833333333333</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>-79</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>797</v>
+        <v>660</v>
       </c>
       <c r="K130" t="n">
-        <v>-37.14285714285715</v>
-      </c>
-      <c r="L130" t="n">
-        <v>669.8</v>
+        <v>668</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M130" t="n">
-        <v>669.6</v>
-      </c>
-      <c r="N130" t="n">
-        <v>669.9333333333333</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6922,31 +5112,23 @@
         <v>679.8666666666667</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>805</v>
+        <v>655</v>
       </c>
       <c r="K131" t="n">
-        <v>-1.639344262295082</v>
-      </c>
-      <c r="L131" t="n">
-        <v>668</v>
+        <v>668</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M131" t="n">
-        <v>669.55</v>
-      </c>
-      <c r="N131" t="n">
-        <v>669.7666666666667</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6973,31 +5155,23 @@
         <v>679.1666666666666</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>809</v>
+        <v>663</v>
       </c>
       <c r="K132" t="n">
-        <v>-29.62962962962963</v>
-      </c>
-      <c r="L132" t="n">
-        <v>667.5</v>
+        <v>668</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M132" t="n">
-        <v>669.3</v>
-      </c>
-      <c r="N132" t="n">
-        <v>669.4666666666667</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7024,31 +5198,23 @@
         <v>678.6</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>809</v>
+        <v>663</v>
       </c>
       <c r="K133" t="n">
-        <v>-34.61538461538461</v>
-      </c>
-      <c r="L133" t="n">
-        <v>665.9</v>
+        <v>668</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M133" t="n">
-        <v>669.1</v>
-      </c>
-      <c r="N133" t="n">
-        <v>668.9666666666667</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7075,31 +5241,23 @@
         <v>677.8833333333333</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>809</v>
+        <v>663</v>
       </c>
       <c r="K134" t="n">
-        <v>-2.857142857142857</v>
-      </c>
-      <c r="L134" t="n">
-        <v>664.1</v>
+        <v>668</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M134" t="n">
-        <v>668.9</v>
-      </c>
-      <c r="N134" t="n">
-        <v>668.9</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7126,31 +5284,23 @@
         <v>677.35</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
-        <v>-67</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>817</v>
+        <v>669</v>
       </c>
       <c r="K135" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L135" t="n">
-        <v>664.8</v>
+        <v>668</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M135" t="n">
-        <v>669.1</v>
-      </c>
-      <c r="N135" t="n">
-        <v>669.1</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7177,31 +5327,23 @@
         <v>677.1666666666666</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
-        <v>-67</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>817</v>
+        <v>671</v>
       </c>
       <c r="K136" t="n">
-        <v>28</v>
-      </c>
-      <c r="L136" t="n">
-        <v>664.6</v>
+        <v>668</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M136" t="n">
-        <v>669.3</v>
-      </c>
-      <c r="N136" t="n">
-        <v>669.2666666666667</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7228,31 +5370,23 @@
         <v>676.45</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
-        <v>-76</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>826</v>
+        <v>662</v>
       </c>
       <c r="K137" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L137" t="n">
-        <v>664.4</v>
+        <v>668</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M137" t="n">
-        <v>669.15</v>
-      </c>
-      <c r="N137" t="n">
-        <v>668.5333333333333</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7279,31 +5413,23 @@
         <v>676.1</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>827</v>
+        <v>664</v>
       </c>
       <c r="K138" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="L138" t="n">
-        <v>664.3</v>
+        <v>668</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M138" t="n">
-        <v>668.5</v>
-      </c>
-      <c r="N138" t="n">
-        <v>668.3666666666667</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7330,31 +5456,23 @@
         <v>675.8166666666667</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>831</v>
+        <v>666</v>
       </c>
       <c r="K139" t="n">
-        <v>23.52941176470588</v>
-      </c>
-      <c r="L139" t="n">
-        <v>664.9</v>
+        <v>668</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M139" t="n">
-        <v>667.9</v>
-      </c>
-      <c r="N139" t="n">
-        <v>668.3333333333334</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7381,31 +5499,23 @@
         <v>675.5666666666667</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>831</v>
+        <v>667</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
-      </c>
-      <c r="L140" t="n">
-        <v>665.7</v>
+        <v>668</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M140" t="n">
-        <v>667.75</v>
-      </c>
-      <c r="N140" t="n">
-        <v>668.3</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7432,31 +5542,23 @@
         <v>675.2833333333333</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>833</v>
+        <v>665</v>
       </c>
       <c r="K141" t="n">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="L141" t="n">
-        <v>665.5</v>
+        <v>668</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M141" t="n">
-        <v>666.75</v>
-      </c>
-      <c r="N141" t="n">
-        <v>668.2</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7483,31 +5585,23 @@
         <v>674.65</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
-        <v>-74</v>
+        <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>834</v>
+        <v>664</v>
       </c>
       <c r="K142" t="n">
-        <v>4</v>
-      </c>
-      <c r="L142" t="n">
-        <v>665.6</v>
+        <v>668</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M142" t="n">
-        <v>666.55</v>
-      </c>
-      <c r="N142" t="n">
-        <v>668.0666666666667</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7534,31 +5628,23 @@
         <v>674.0333333333333</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>837</v>
+        <v>667</v>
       </c>
       <c r="K143" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L143" t="n">
-        <v>666</v>
+        <v>668</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M143" t="n">
-        <v>665.95</v>
-      </c>
-      <c r="N143" t="n">
-        <v>668.0666666666667</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7585,31 +5671,23 @@
         <v>673.7166666666667</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>837</v>
+        <v>667</v>
       </c>
       <c r="K144" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L144" t="n">
-        <v>666.4</v>
+        <v>668</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M144" t="n">
-        <v>665.25</v>
-      </c>
-      <c r="N144" t="n">
-        <v>668.0666666666667</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7636,31 +5714,23 @@
         <v>673.2666666666667</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>837</v>
+        <v>668</v>
       </c>
       <c r="K145" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L145" t="n">
-        <v>666</v>
+        <v>668</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M145" t="n">
-        <v>665.4</v>
-      </c>
-      <c r="N145" t="n">
-        <v>668.0666666666667</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7687,31 +5757,23 @@
         <v>672.8</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>837</v>
+        <v>667</v>
       </c>
       <c r="K146" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L146" t="n">
-        <v>665.6</v>
+        <v>668</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M146" t="n">
-        <v>665.1</v>
-      </c>
-      <c r="N146" t="n">
-        <v>668.0666666666667</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7738,31 +5800,23 @@
         <v>672.75</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>858</v>
+        <v>674</v>
       </c>
       <c r="K147" t="n">
-        <v>80.64516129032258</v>
-      </c>
-      <c r="L147" t="n">
-        <v>668.2</v>
+        <v>668</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M147" t="n">
-        <v>666.3</v>
-      </c>
-      <c r="N147" t="n">
-        <v>668.8333333333334</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7789,31 +5843,23 @@
         <v>672.85</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>858</v>
+        <v>688</v>
       </c>
       <c r="K148" t="n">
-        <v>77.77777777777779</v>
-      </c>
-      <c r="L148" t="n">
-        <v>670.7</v>
+        <v>668</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M148" t="n">
-        <v>667.5</v>
-      </c>
-      <c r="N148" t="n">
-        <v>669.2333333333333</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7840,31 +5886,23 @@
         <v>672.8333333333334</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>858</v>
+        <v>688</v>
       </c>
       <c r="K149" t="n">
-        <v>77.77777777777779</v>
-      </c>
-      <c r="L149" t="n">
-        <v>672.8</v>
+        <v>668</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M149" t="n">
-        <v>668.85</v>
-      </c>
-      <c r="N149" t="n">
-        <v>669.5333333333333</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7891,31 +5929,23 @@
         <v>672.8833333333333</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
-        <v>-48</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>860</v>
+        <v>688</v>
       </c>
       <c r="K150" t="n">
-        <v>92.5925925925926</v>
-      </c>
-      <c r="L150" t="n">
-        <v>675.1</v>
+        <v>668</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M150" t="n">
-        <v>670.4</v>
-      </c>
-      <c r="N150" t="n">
-        <v>670.2</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7942,31 +5972,23 @@
         <v>672.9333333333333</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
-        <v>-48</v>
+        <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>860</v>
+        <v>690</v>
       </c>
       <c r="K151" t="n">
-        <v>100</v>
-      </c>
-      <c r="L151" t="n">
-        <v>677.6</v>
+        <v>668</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M151" t="n">
-        <v>671.55</v>
-      </c>
-      <c r="N151" t="n">
-        <v>670.3666666666667</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7996,28 +6018,18 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>-44</v>
-      </c>
-      <c r="J152" t="n">
-        <v>864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>100</v>
-      </c>
-      <c r="L152" t="n">
-        <v>680.6</v>
+        <v>668</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M152" t="n">
-        <v>673.1</v>
-      </c>
-      <c r="N152" t="n">
-        <v>671.2333333333333</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8047,28 +6059,18 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>-44</v>
-      </c>
-      <c r="J153" t="n">
-        <v>864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>100</v>
-      </c>
-      <c r="L153" t="n">
-        <v>683.3</v>
+        <v>668</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M153" t="n">
-        <v>674.65</v>
-      </c>
-      <c r="N153" t="n">
-        <v>671.7333333333333</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8095,35 +6097,21 @@
         <v>673.1833333333333</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>-38</v>
-      </c>
-      <c r="J154" t="n">
-        <v>870</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>100</v>
-      </c>
-      <c r="L154" t="n">
-        <v>686.6</v>
+        <v>668</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M154" t="n">
-        <v>676.5</v>
-      </c>
-      <c r="N154" t="n">
-        <v>672.3666666666667</v>
-      </c>
-      <c r="O154" t="n">
-        <v>694</v>
-      </c>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="n">
-        <v>694</v>
-      </c>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8153,34 +6141,18 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>-38</v>
-      </c>
-      <c r="J155" t="n">
-        <v>870</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>100</v>
-      </c>
-      <c r="L155" t="n">
-        <v>689.9</v>
+        <v>668</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M155" t="n">
-        <v>677.95</v>
-      </c>
-      <c r="N155" t="n">
-        <v>673.5666666666667</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q155" t="n">
-        <v>694</v>
-      </c>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8210,34 +6182,18 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J156" t="n">
-        <v>883</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>100</v>
-      </c>
-      <c r="L156" t="n">
-        <v>694.5</v>
+        <v>668</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M156" t="n">
-        <v>680.05</v>
-      </c>
-      <c r="N156" t="n">
-        <v>674.9</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q156" t="n">
-        <v>694</v>
-      </c>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8267,34 +6223,18 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J157" t="n">
-        <v>883</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>100</v>
-      </c>
-      <c r="L157" t="n">
-        <v>697</v>
+        <v>668</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M157" t="n">
-        <v>682.6</v>
-      </c>
-      <c r="N157" t="n">
-        <v>676.5333333333333</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q157" t="n">
-        <v>694</v>
-      </c>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8324,34 +6264,18 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J158" t="n">
-        <v>883</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>100</v>
-      </c>
-      <c r="L158" t="n">
-        <v>699.5</v>
+        <v>668</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M158" t="n">
-        <v>685.1</v>
-      </c>
-      <c r="N158" t="n">
-        <v>678.1666666666666</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q158" t="n">
-        <v>694</v>
-      </c>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8381,34 +6305,18 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J159" t="n">
-        <v>897</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>100</v>
-      </c>
-      <c r="L159" t="n">
-        <v>703.4</v>
+        <v>668</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M159" t="n">
-        <v>688.1</v>
-      </c>
-      <c r="N159" t="n">
-        <v>680.3666666666667</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q159" t="n">
-        <v>694</v>
-      </c>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8438,34 +6346,18 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J160" t="n">
-        <v>897</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>100</v>
-      </c>
-      <c r="L160" t="n">
-        <v>707.1</v>
+        <v>668</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M160" t="n">
-        <v>691.1</v>
-      </c>
-      <c r="N160" t="n">
-        <v>682.6333333333333</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q160" t="n">
-        <v>694</v>
-      </c>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8495,34 +6387,18 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J161" t="n">
-        <v>900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>100</v>
-      </c>
-      <c r="L161" t="n">
-        <v>711.1</v>
+        <v>668</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M161" t="n">
-        <v>694.35</v>
-      </c>
-      <c r="N161" t="n">
-        <v>684.7333333333333</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q161" t="n">
-        <v>694</v>
-      </c>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8552,34 +6428,18 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J162" t="n">
-        <v>900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>100</v>
-      </c>
-      <c r="L162" t="n">
-        <v>714.7</v>
+        <v>668</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M162" t="n">
-        <v>697.65</v>
-      </c>
-      <c r="N162" t="n">
-        <v>686.9666666666667</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q162" t="n">
-        <v>694</v>
-      </c>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8609,34 +6469,18 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>-17</v>
-      </c>
-      <c r="J163" t="n">
-        <v>909</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>53.84615384615385</v>
-      </c>
-      <c r="L163" t="n">
-        <v>717.4</v>
+        <v>668</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M163" t="n">
-        <v>700.35</v>
-      </c>
-      <c r="N163" t="n">
-        <v>688.9</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q163" t="n">
-        <v>694</v>
-      </c>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8666,28 +6510,18 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>-37</v>
-      </c>
-      <c r="J164" t="n">
-        <v>929</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>1.694915254237288</v>
-      </c>
-      <c r="L164" t="n">
-        <v>717.5</v>
+        <v>668</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M164" t="n">
-        <v>702.05</v>
-      </c>
-      <c r="N164" t="n">
-        <v>690.1666666666666</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8717,28 +6551,18 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>-41</v>
-      </c>
-      <c r="J165" t="n">
-        <v>933</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>-32</v>
-      </c>
-      <c r="L165" t="n">
-        <v>717.2</v>
+        <v>668</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M165" t="n">
-        <v>703.55</v>
-      </c>
-      <c r="N165" t="n">
-        <v>691.0333333333333</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8768,28 +6592,18 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>-48</v>
-      </c>
-      <c r="J166" t="n">
-        <v>940</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>-40.35087719298245</v>
-      </c>
-      <c r="L166" t="n">
-        <v>714.9</v>
+        <v>668</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M166" t="n">
-        <v>704.7</v>
-      </c>
-      <c r="N166" t="n">
-        <v>691.6666666666666</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8819,28 +6633,18 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>-48</v>
-      </c>
-      <c r="J167" t="n">
-        <v>940</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>-40.35087719298245</v>
-      </c>
-      <c r="L167" t="n">
-        <v>712.6</v>
+        <v>668</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M167" t="n">
-        <v>704.8</v>
-      </c>
-      <c r="N167" t="n">
-        <v>692.6</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8870,28 +6674,18 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>-54</v>
-      </c>
-      <c r="J168" t="n">
-        <v>946</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>-87.75510204081633</v>
-      </c>
-      <c r="L168" t="n">
-        <v>709.7</v>
+        <v>668</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M168" t="n">
-        <v>704.6</v>
-      </c>
-      <c r="N168" t="n">
-        <v>693.3</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8921,28 +6715,18 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>-55</v>
-      </c>
-      <c r="J169" t="n">
-        <v>947</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>-88</v>
-      </c>
-      <c r="L169" t="n">
-        <v>705.3</v>
+        <v>668</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M169" t="n">
-        <v>704.35</v>
-      </c>
-      <c r="N169" t="n">
-        <v>693.8333333333334</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8972,28 +6756,18 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>-56</v>
-      </c>
-      <c r="J170" t="n">
-        <v>948</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L170" t="n">
-        <v>700.8</v>
+        <v>668</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M170" t="n">
-        <v>703.95</v>
-      </c>
-      <c r="N170" t="n">
-        <v>694.3333333333334</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9023,28 +6797,18 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>-57</v>
-      </c>
-      <c r="J171" t="n">
-        <v>949</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L171" t="n">
-        <v>695.9</v>
+        <v>668</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M171" t="n">
-        <v>703.5</v>
-      </c>
-      <c r="N171" t="n">
-        <v>694.8666666666667</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9074,28 +6838,18 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>-59</v>
-      </c>
-      <c r="J172" t="n">
-        <v>951</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L172" t="n">
-        <v>690.8</v>
+        <v>668</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M172" t="n">
-        <v>702.75</v>
-      </c>
-      <c r="N172" t="n">
-        <v>695.3666666666667</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9125,28 +6879,18 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J173" t="n">
-        <v>960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>-41.93548387096774</v>
-      </c>
-      <c r="L173" t="n">
-        <v>687.5</v>
+        <v>668</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M173" t="n">
-        <v>702.45</v>
-      </c>
-      <c r="N173" t="n">
-        <v>696.0666666666667</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9176,28 +6920,18 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>-49</v>
-      </c>
-      <c r="J174" t="n">
-        <v>961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>-28.57142857142857</v>
-      </c>
-      <c r="L174" t="n">
-        <v>686.3</v>
+        <v>668</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M174" t="n">
-        <v>701.9</v>
-      </c>
-      <c r="N174" t="n">
-        <v>696.8</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9227,28 +6961,18 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>-27</v>
-      </c>
-      <c r="J175" t="n">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>48.83720930232558</v>
-      </c>
-      <c r="L175" t="n">
-        <v>687.7</v>
+        <v>668</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M175" t="n">
-        <v>702.45</v>
-      </c>
-      <c r="N175" t="n">
-        <v>698.2666666666667</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9278,28 +7002,18 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>-29</v>
-      </c>
-      <c r="J176" t="n">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>42.22222222222222</v>
-      </c>
-      <c r="L176" t="n">
-        <v>689.6</v>
+        <v>668</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M176" t="n">
-        <v>702.25</v>
-      </c>
-      <c r="N176" t="n">
-        <v>699.6666666666666</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9329,28 +7043,18 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>-29</v>
-      </c>
-      <c r="J177" t="n">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>64.1025641025641</v>
-      </c>
-      <c r="L177" t="n">
-        <v>691.5</v>
+        <v>668</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M177" t="n">
-        <v>702.05</v>
-      </c>
-      <c r="N177" t="n">
-        <v>700.3666666666667</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9380,28 +7084,18 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>-29</v>
-      </c>
-      <c r="J178" t="n">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>68.42105263157895</v>
-      </c>
-      <c r="L178" t="n">
-        <v>694</v>
+        <v>668</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M178" t="n">
-        <v>701.85</v>
-      </c>
-      <c r="N178" t="n">
-        <v>701.0666666666667</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9431,28 +7125,18 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>-29</v>
-      </c>
-      <c r="J179" t="n">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>72.97297297297297</v>
-      </c>
-      <c r="L179" t="n">
-        <v>696.6</v>
+        <v>668</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M179" t="n">
-        <v>700.95</v>
-      </c>
-      <c r="N179" t="n">
-        <v>701.7666666666667</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9482,28 +7166,18 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>-37</v>
-      </c>
-      <c r="J180" t="n">
-        <v>993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L180" t="n">
-        <v>698.5</v>
+        <v>668</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M180" t="n">
-        <v>699.65</v>
-      </c>
-      <c r="N180" t="n">
-        <v>702.1333333333333</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9533,28 +7207,18 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>-38</v>
-      </c>
-      <c r="J181" t="n">
-        <v>994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>48.83720930232558</v>
-      </c>
-      <c r="L181" t="n">
-        <v>700.4</v>
+        <v>668</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M181" t="n">
-        <v>698.15</v>
-      </c>
-      <c r="N181" t="n">
-        <v>702.4666666666667</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9584,28 +7248,18 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>-38</v>
-      </c>
-      <c r="J182" t="n">
-        <v>994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>35.29411764705883</v>
-      </c>
-      <c r="L182" t="n">
-        <v>702.5</v>
+        <v>668</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M182" t="n">
-        <v>696.65</v>
-      </c>
-      <c r="N182" t="n">
-        <v>702.6666666666666</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9635,28 +7289,18 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J183" t="n">
-        <v>1006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>-2.222222222222222</v>
-      </c>
-      <c r="L183" t="n">
-        <v>702.5</v>
+        <v>668</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M183" t="n">
-        <v>695</v>
-      </c>
-      <c r="N183" t="n">
-        <v>702.4666666666667</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9686,28 +7330,18 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>-43</v>
-      </c>
-      <c r="J184" t="n">
-        <v>1013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>-53.33333333333334</v>
-      </c>
-      <c r="L184" t="n">
-        <v>703.1</v>
+        <v>668</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M184" t="n">
-        <v>694.7</v>
-      </c>
-      <c r="N184" t="n">
-        <v>702.3</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9737,28 +7371,18 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>-34</v>
-      </c>
-      <c r="J185" t="n">
-        <v>1022</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>-13.51351351351351</v>
-      </c>
-      <c r="L185" t="n">
-        <v>702.4</v>
+        <v>668</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M185" t="n">
-        <v>695.05</v>
-      </c>
-      <c r="N185" t="n">
-        <v>702.4333333333333</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9788,28 +7412,18 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>-31</v>
-      </c>
-      <c r="J186" t="n">
-        <v>1025</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>-5</v>
-      </c>
-      <c r="L186" t="n">
-        <v>702.2</v>
+        <v>668</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M186" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="N186" t="n">
-        <v>702.2333333333333</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9839,28 +7453,18 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J187" t="n">
-        <v>1037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>19.23076923076923</v>
-      </c>
-      <c r="L187" t="n">
-        <v>703.2</v>
+        <v>668</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M187" t="n">
-        <v>697.35</v>
-      </c>
-      <c r="N187" t="n">
-        <v>702.4333333333333</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9890,28 +7494,18 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>-18</v>
-      </c>
-      <c r="J188" t="n">
-        <v>1038</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>20.75471698113208</v>
-      </c>
-      <c r="L188" t="n">
-        <v>704.3</v>
+        <v>668</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M188" t="n">
-        <v>699.15</v>
-      </c>
-      <c r="N188" t="n">
-        <v>702.6666666666666</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9941,28 +7535,18 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>13</v>
-      </c>
-      <c r="J189" t="n">
-        <v>1069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>65.78947368421053</v>
-      </c>
-      <c r="L189" t="n">
-        <v>708.5</v>
+        <v>668</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M189" t="n">
-        <v>702.55</v>
-      </c>
-      <c r="N189" t="n">
-        <v>703.4666666666667</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9992,28 +7576,18 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>21</v>
-      </c>
-      <c r="J190" t="n">
-        <v>1077</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>71.08433734939759</v>
-      </c>
-      <c r="L190" t="n">
-        <v>714.3</v>
+        <v>668</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M190" t="n">
-        <v>706.4</v>
-      </c>
-      <c r="N190" t="n">
-        <v>704.5333333333333</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10043,28 +7617,18 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>17</v>
-      </c>
-      <c r="J191" t="n">
-        <v>1081</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>63.2183908045977</v>
-      </c>
-      <c r="L191" t="n">
-        <v>719.8</v>
+        <v>668</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M191" t="n">
-        <v>710.1</v>
-      </c>
-      <c r="N191" t="n">
-        <v>705.3666666666667</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10094,28 +7658,18 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
-      </c>
-      <c r="J192" t="n">
-        <v>1097</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>56.04395604395604</v>
-      </c>
-      <c r="L192" t="n">
-        <v>723.7</v>
+        <v>668</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M192" t="n">
-        <v>713.1</v>
-      </c>
-      <c r="N192" t="n">
-        <v>705.6666666666666</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10145,28 +7699,18 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>18</v>
-      </c>
-      <c r="J193" t="n">
-        <v>1114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>60.3960396039604</v>
-      </c>
-      <c r="L193" t="n">
-        <v>730.5</v>
+        <v>668</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M193" t="n">
-        <v>716.5</v>
-      </c>
-      <c r="N193" t="n">
-        <v>706.8333333333334</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10196,28 +7740,18 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J194" t="n">
-        <v>1142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>20</v>
-      </c>
-      <c r="L194" t="n">
-        <v>733.8</v>
+        <v>668</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M194" t="n">
-        <v>718.45</v>
-      </c>
-      <c r="N194" t="n">
-        <v>707.7333333333333</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10247,28 +7781,18 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J195" t="n">
-        <v>1149</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>22.58064516129032</v>
-      </c>
-      <c r="L195" t="n">
-        <v>736.9</v>
+        <v>668</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M195" t="n">
-        <v>719.65</v>
-      </c>
-      <c r="N195" t="n">
-        <v>709</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10298,28 +7822,18 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>-36</v>
-      </c>
-      <c r="J196" t="n">
-        <v>1182</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>-11.72413793103448</v>
-      </c>
-      <c r="L196" t="n">
-        <v>736.4</v>
+        <v>668</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M196" t="n">
-        <v>719.3</v>
-      </c>
-      <c r="N196" t="n">
-        <v>709.4</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10349,28 +7863,18 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>-36</v>
-      </c>
-      <c r="J197" t="n">
-        <v>1182</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L197" t="n">
-        <v>734.7</v>
+        <v>668</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M197" t="n">
-        <v>718.95</v>
-      </c>
-      <c r="N197" t="n">
-        <v>709.8</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10400,28 +7904,18 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J198" t="n">
-        <v>1196</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>-49.60629921259843</v>
-      </c>
-      <c r="L198" t="n">
-        <v>731.5</v>
+        <v>668</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M198" t="n">
-        <v>717.9</v>
-      </c>
-      <c r="N198" t="n">
-        <v>709.9333333333333</v>
-      </c>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10451,29 +7945,19 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>-46</v>
-      </c>
-      <c r="J199" t="n">
-        <v>1200</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>-54.47154471544715</v>
-      </c>
-      <c r="L199" t="n">
-        <v>725.6</v>
+        <v>668</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M199" t="n">
-        <v>717.05</v>
-      </c>
-      <c r="N199" t="n">
-        <v>710.2333333333333</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="n">
-        <v>1</v>
+        <v>1.030928143712575</v>
       </c>
     </row>
     <row r="200">
@@ -10502,28 +7986,12 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>-34</v>
-      </c>
-      <c r="J200" t="n">
-        <v>1212</v>
-      </c>
-      <c r="K200" t="n">
-        <v>-38.93129770992366</v>
-      </c>
-      <c r="L200" t="n">
-        <v>720.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
-        <v>717.2</v>
-      </c>
-      <c r="N200" t="n">
-        <v>710.9666666666667</v>
-      </c>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10553,28 +8021,12 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>-28</v>
-      </c>
-      <c r="J201" t="n">
-        <v>1218</v>
-      </c>
-      <c r="K201" t="n">
-        <v>-23.96694214876033</v>
-      </c>
-      <c r="L201" t="n">
-        <v>715.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
-        <v>717.7</v>
-      </c>
-      <c r="N201" t="n">
-        <v>711.9333333333333</v>
-      </c>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10604,28 +8056,12 @@
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>-38</v>
-      </c>
-      <c r="J202" t="n">
-        <v>1228</v>
-      </c>
-      <c r="K202" t="n">
-        <v>-49.12280701754386</v>
-      </c>
-      <c r="L202" t="n">
-        <v>711.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
-        <v>717.7</v>
-      </c>
-      <c r="N202" t="n">
-        <v>712.6333333333333</v>
-      </c>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10655,28 +8091,12 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J203" t="n">
-        <v>1256</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0</v>
-      </c>
-      <c r="L203" t="n">
-        <v>708.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
-        <v>719.7</v>
-      </c>
-      <c r="N203" t="n">
-        <v>713.9666666666667</v>
-      </c>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10706,28 +8126,12 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>-33</v>
-      </c>
-      <c r="J204" t="n">
-        <v>1279</v>
-      </c>
-      <c r="K204" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L204" t="n">
-        <v>706.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
-        <v>720.2</v>
-      </c>
-      <c r="N204" t="n">
-        <v>714.5</v>
-      </c>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10757,28 +8161,12 @@
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>-24</v>
-      </c>
-      <c r="J205" t="n">
-        <v>1288</v>
-      </c>
-      <c r="K205" t="n">
-        <v>11.32075471698113</v>
-      </c>
-      <c r="L205" t="n">
-        <v>704.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
-        <v>720.7</v>
-      </c>
-      <c r="N205" t="n">
-        <v>714.6</v>
-      </c>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
-      <c r="S205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10808,28 +8196,12 @@
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J206" t="n">
-        <v>1299</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.8547008547008548</v>
-      </c>
-      <c r="L206" t="n">
-        <v>704.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
-        <v>720.5</v>
-      </c>
-      <c r="N206" t="n">
-        <v>714.4</v>
-      </c>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10859,28 +8231,12 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>-34</v>
-      </c>
-      <c r="J207" t="n">
-        <v>1300</v>
-      </c>
-      <c r="K207" t="n">
-        <v>15.38461538461539</v>
-      </c>
-      <c r="L207" t="n">
-        <v>704.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
-        <v>719.75</v>
-      </c>
-      <c r="N207" t="n">
-        <v>714.2333333333333</v>
-      </c>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
-      <c r="S207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10910,28 +8266,12 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J208" t="n">
-        <v>1301</v>
-      </c>
-      <c r="K208" t="n">
-        <v>10.89108910891089</v>
-      </c>
-      <c r="L208" t="n">
-        <v>706.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
-        <v>718.9</v>
-      </c>
-      <c r="N208" t="n">
-        <v>714.0333333333333</v>
-      </c>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10961,28 +8301,12 @@
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J209" t="n">
-        <v>1301</v>
-      </c>
-      <c r="K209" t="n">
-        <v>-1.123595505617978</v>
-      </c>
-      <c r="L209" t="n">
-        <v>707.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
-        <v>716.5</v>
-      </c>
-      <c r="N209" t="n">
-        <v>713.8333333333334</v>
-      </c>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
-      <c r="S209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11012,28 +8336,12 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>-33</v>
-      </c>
-      <c r="J210" t="n">
-        <v>1303</v>
-      </c>
-      <c r="K210" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L210" t="n">
-        <v>707.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
-        <v>713.8</v>
-      </c>
-      <c r="N210" t="n">
-        <v>713.9666666666667</v>
-      </c>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
-      <c r="S210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11063,28 +8371,12 @@
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>-36</v>
-      </c>
-      <c r="J211" t="n">
-        <v>1306</v>
-      </c>
-      <c r="K211" t="n">
-        <v>2.564102564102564</v>
-      </c>
-      <c r="L211" t="n">
-        <v>706.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
-        <v>711.15</v>
-      </c>
-      <c r="N211" t="n">
-        <v>714.0333333333333</v>
-      </c>
-      <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
-      <c r="Q211" t="inlineStr"/>
-      <c r="R211" t="inlineStr"/>
-      <c r="S211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11114,28 +8406,12 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J212" t="n">
-        <v>1320</v>
-      </c>
-      <c r="K212" t="n">
-        <v>-62.5</v>
-      </c>
-      <c r="L212" t="n">
-        <v>705.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
-        <v>708.6</v>
-      </c>
-      <c r="N212" t="n">
-        <v>713.6333333333333</v>
-      </c>
-      <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
-      <c r="Q212" t="inlineStr"/>
-      <c r="R212" t="inlineStr"/>
-      <c r="S212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11165,28 +8441,12 @@
         <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>-56</v>
-      </c>
-      <c r="J213" t="n">
-        <v>1326</v>
-      </c>
-      <c r="K213" t="n">
-        <v>-48.93617021276596</v>
-      </c>
-      <c r="L213" t="n">
-        <v>700.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
-        <v>704.9</v>
-      </c>
-      <c r="N213" t="n">
-        <v>713.4333333333333</v>
-      </c>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr"/>
-      <c r="R213" t="inlineStr"/>
-      <c r="S213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11216,28 +8476,12 @@
         <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>-56</v>
-      </c>
-      <c r="J214" t="n">
-        <v>1326</v>
-      </c>
-      <c r="K214" t="n">
-        <v>-84.21052631578947</v>
-      </c>
-      <c r="L214" t="n">
-        <v>698.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
-        <v>702.6</v>
-      </c>
-      <c r="N214" t="n">
-        <v>713</v>
-      </c>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
-      <c r="S214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11267,28 +8511,12 @@
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>-42</v>
-      </c>
-      <c r="J215" t="n">
-        <v>1340</v>
-      </c>
-      <c r="K215" t="n">
-        <v>-17.07317073170732</v>
-      </c>
-      <c r="L215" t="n">
-        <v>696.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
-        <v>700.65</v>
-      </c>
-      <c r="N215" t="n">
-        <v>712.7333333333333</v>
-      </c>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
-      <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="inlineStr"/>
-      <c r="S215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11318,28 +8546,12 @@
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>-38</v>
-      </c>
-      <c r="J216" t="n">
-        <v>1344</v>
-      </c>
-      <c r="K216" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L216" t="n">
-        <v>696.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
-        <v>700.55</v>
-      </c>
-      <c r="N216" t="n">
-        <v>712.5</v>
-      </c>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
-      <c r="Q216" t="inlineStr"/>
-      <c r="R216" t="inlineStr"/>
-      <c r="S216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11369,28 +8581,12 @@
         <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>-38</v>
-      </c>
-      <c r="J217" t="n">
-        <v>1344</v>
-      </c>
-      <c r="K217" t="n">
-        <v>-6.976744186046512</v>
-      </c>
-      <c r="L217" t="n">
-        <v>696.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
-        <v>700.45</v>
-      </c>
-      <c r="N217" t="n">
-        <v>711.8666666666667</v>
-      </c>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
-      <c r="Q217" t="inlineStr"/>
-      <c r="R217" t="inlineStr"/>
-      <c r="S217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11420,28 +8616,12 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>-42</v>
-      </c>
-      <c r="J218" t="n">
-        <v>1348</v>
-      </c>
-      <c r="K218" t="n">
-        <v>-14.8936170212766</v>
-      </c>
-      <c r="L218" t="n">
-        <v>695.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
-        <v>700.85</v>
-      </c>
-      <c r="N218" t="n">
-        <v>711.0666666666667</v>
-      </c>
-      <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr"/>
-      <c r="Q218" t="inlineStr"/>
-      <c r="R218" t="inlineStr"/>
-      <c r="S218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11471,28 +8651,12 @@
         <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>-53</v>
-      </c>
-      <c r="J219" t="n">
-        <v>1359</v>
-      </c>
-      <c r="K219" t="n">
-        <v>-35.71428571428572</v>
-      </c>
-      <c r="L219" t="n">
-        <v>693.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
-        <v>700.5</v>
-      </c>
-      <c r="N219" t="n">
-        <v>708.8666666666667</v>
-      </c>
-      <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr"/>
-      <c r="Q219" t="inlineStr"/>
-      <c r="R219" t="inlineStr"/>
-      <c r="S219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11522,28 +8686,12 @@
         <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>-56</v>
-      </c>
-      <c r="J220" t="n">
-        <v>1362</v>
-      </c>
-      <c r="K220" t="n">
-        <v>-35.71428571428572</v>
-      </c>
-      <c r="L220" t="n">
-        <v>691.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
-        <v>699.4</v>
-      </c>
-      <c r="N220" t="n">
-        <v>706.3</v>
-      </c>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
-      <c r="Q220" t="inlineStr"/>
-      <c r="R220" t="inlineStr"/>
-      <c r="S220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11573,28 +8721,12 @@
         <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>-65</v>
-      </c>
-      <c r="J221" t="n">
-        <v>1371</v>
-      </c>
-      <c r="K221" t="n">
-        <v>-29.41176470588236</v>
-      </c>
-      <c r="L221" t="n">
-        <v>688.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
-        <v>697.55</v>
-      </c>
-      <c r="N221" t="n">
-        <v>703.5666666666667</v>
-      </c>
-      <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr"/>
-      <c r="Q221" t="inlineStr"/>
-      <c r="R221" t="inlineStr"/>
-      <c r="S221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11624,28 +8756,12 @@
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>-56</v>
-      </c>
-      <c r="J222" t="n">
-        <v>1380</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0</v>
-      </c>
-      <c r="L222" t="n">
-        <v>687.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
-        <v>696.65</v>
-      </c>
-      <c r="N222" t="n">
-        <v>701.6666666666666</v>
-      </c>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
-      <c r="Q222" t="inlineStr"/>
-      <c r="R222" t="inlineStr"/>
-      <c r="S222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11675,28 +8791,12 @@
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>-52</v>
-      </c>
-      <c r="J223" t="n">
-        <v>1384</v>
-      </c>
-      <c r="K223" t="n">
-        <v>6.896551724137931</v>
-      </c>
-      <c r="L223" t="n">
-        <v>688.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
-        <v>694.55</v>
-      </c>
-      <c r="N223" t="n">
-        <v>699.3333333333334</v>
-      </c>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
-      <c r="Q223" t="inlineStr"/>
-      <c r="R223" t="inlineStr"/>
-      <c r="S223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11726,28 +8826,12 @@
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>-66</v>
-      </c>
-      <c r="J224" t="n">
-        <v>1398</v>
-      </c>
-      <c r="K224" t="n">
-        <v>-41.37931034482759</v>
-      </c>
-      <c r="L224" t="n">
-        <v>687.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
-        <v>692.9</v>
-      </c>
-      <c r="N224" t="n">
-        <v>697.4666666666667</v>
-      </c>
-      <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr"/>
-      <c r="Q224" t="inlineStr"/>
-      <c r="R224" t="inlineStr"/>
-      <c r="S224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11777,28 +8861,12 @@
         <v>0</v>
       </c>
       <c r="I225" t="n">
-        <v>-66</v>
-      </c>
-      <c r="J225" t="n">
-        <v>1398</v>
-      </c>
-      <c r="K225" t="n">
-        <v>-51.85185185185185</v>
-      </c>
-      <c r="L225" t="n">
-        <v>684.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
-        <v>690.8</v>
-      </c>
-      <c r="N225" t="n">
-        <v>695.3666666666667</v>
-      </c>
-      <c r="O225" t="inlineStr"/>
-      <c r="P225" t="inlineStr"/>
-      <c r="Q225" t="inlineStr"/>
-      <c r="R225" t="inlineStr"/>
-      <c r="S225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11828,28 +8896,12 @@
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>-48</v>
-      </c>
-      <c r="J226" t="n">
-        <v>1416</v>
-      </c>
-      <c r="K226" t="n">
-        <v>-13.88888888888889</v>
-      </c>
-      <c r="L226" t="n">
-        <v>683.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
-        <v>690.15</v>
-      </c>
-      <c r="N226" t="n">
-        <v>694.9666666666667</v>
-      </c>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr"/>
-      <c r="Q226" t="inlineStr"/>
-      <c r="R226" t="inlineStr"/>
-      <c r="S226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11879,28 +8931,12 @@
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>-65</v>
-      </c>
-      <c r="J227" t="n">
-        <v>1433</v>
-      </c>
-      <c r="K227" t="n">
-        <v>-27.05882352941176</v>
-      </c>
-      <c r="L227" t="n">
-        <v>681.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
-        <v>688.6</v>
-      </c>
-      <c r="N227" t="n">
-        <v>694</v>
-      </c>
-      <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr"/>
-      <c r="Q227" t="inlineStr"/>
-      <c r="R227" t="inlineStr"/>
-      <c r="S227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11930,28 +8966,12 @@
         <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>-56</v>
-      </c>
-      <c r="J228" t="n">
-        <v>1442</v>
-      </c>
-      <c r="K228" t="n">
-        <v>-3.614457831325301</v>
-      </c>
-      <c r="L228" t="n">
-        <v>679.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
-        <v>687.55</v>
-      </c>
-      <c r="N228" t="n">
-        <v>693.8</v>
-      </c>
-      <c r="O228" t="inlineStr"/>
-      <c r="P228" t="inlineStr"/>
-      <c r="Q228" t="inlineStr"/>
-      <c r="R228" t="inlineStr"/>
-      <c r="S228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11981,28 +9001,12 @@
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>-66</v>
-      </c>
-      <c r="J229" t="n">
-        <v>1452</v>
-      </c>
-      <c r="K229" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L229" t="n">
-        <v>678.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
-        <v>686</v>
-      </c>
-      <c r="N229" t="n">
-        <v>693.1333333333333</v>
-      </c>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
-      <c r="Q229" t="inlineStr"/>
-      <c r="R229" t="inlineStr"/>
-      <c r="S229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12032,28 +9036,12 @@
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>-66</v>
-      </c>
-      <c r="J230" t="n">
-        <v>1452</v>
-      </c>
-      <c r="K230" t="n">
-        <v>-1.234567901234568</v>
-      </c>
-      <c r="L230" t="n">
-        <v>677.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
-        <v>684.35</v>
-      </c>
-      <c r="N230" t="n">
-        <v>692.0666666666667</v>
-      </c>
-      <c r="O230" t="inlineStr"/>
-      <c r="P230" t="inlineStr"/>
-      <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="inlineStr"/>
-      <c r="S230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12083,28 +9071,12 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>-66</v>
-      </c>
-      <c r="J231" t="n">
-        <v>1452</v>
-      </c>
-      <c r="K231" t="n">
-        <v>-13.88888888888889</v>
-      </c>
-      <c r="L231" t="n">
-        <v>677.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
-        <v>682.85</v>
-      </c>
-      <c r="N231" t="n">
-        <v>690.8</v>
-      </c>
-      <c r="O231" t="inlineStr"/>
-      <c r="P231" t="inlineStr"/>
-      <c r="Q231" t="inlineStr"/>
-      <c r="R231" t="inlineStr"/>
-      <c r="S231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12134,28 +9106,12 @@
         <v>0</v>
       </c>
       <c r="I232" t="n">
-        <v>-86</v>
-      </c>
-      <c r="J232" t="n">
-        <v>1472</v>
-      </c>
-      <c r="K232" t="n">
-        <v>-38.63636363636363</v>
-      </c>
-      <c r="L232" t="n">
-        <v>674.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
-        <v>681.05</v>
-      </c>
-      <c r="N232" t="n">
-        <v>689.2</v>
-      </c>
-      <c r="O232" t="inlineStr"/>
-      <c r="P232" t="inlineStr"/>
-      <c r="Q232" t="inlineStr"/>
-      <c r="R232" t="inlineStr"/>
-      <c r="S232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12185,28 +9141,12 @@
         <v>0</v>
       </c>
       <c r="I233" t="n">
-        <v>-66</v>
-      </c>
-      <c r="J233" t="n">
-        <v>1492</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0</v>
-      </c>
-      <c r="L233" t="n">
-        <v>672.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
-        <v>680.55</v>
-      </c>
-      <c r="N233" t="n">
-        <v>687.3333333333334</v>
-      </c>
-      <c r="O233" t="inlineStr"/>
-      <c r="P233" t="inlineStr"/>
-      <c r="Q233" t="inlineStr"/>
-      <c r="R233" t="inlineStr"/>
-      <c r="S233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12236,28 +9176,12 @@
         <v>0</v>
       </c>
       <c r="I234" t="n">
-        <v>-73</v>
-      </c>
-      <c r="J234" t="n">
-        <v>1499</v>
-      </c>
-      <c r="K234" t="n">
-        <v>-6.930693069306932</v>
-      </c>
-      <c r="L234" t="n">
-        <v>672.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
-        <v>679.7</v>
-      </c>
-      <c r="N234" t="n">
-        <v>686</v>
-      </c>
-      <c r="O234" t="inlineStr"/>
-      <c r="P234" t="inlineStr"/>
-      <c r="Q234" t="inlineStr"/>
-      <c r="R234" t="inlineStr"/>
-      <c r="S234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12287,1099 +9211,12 @@
         <v>0</v>
       </c>
       <c r="I235" t="n">
-        <v>-78</v>
-      </c>
-      <c r="J235" t="n">
-        <v>1504</v>
-      </c>
-      <c r="K235" t="n">
-        <v>-34.09090909090909</v>
-      </c>
-      <c r="L235" t="n">
-        <v>671</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
-        <v>677.9</v>
-      </c>
-      <c r="N235" t="n">
-        <v>684.2</v>
-      </c>
-      <c r="O235" t="inlineStr"/>
-      <c r="P235" t="inlineStr"/>
-      <c r="Q235" t="inlineStr"/>
-      <c r="R235" t="inlineStr"/>
-      <c r="S235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>659</v>
-      </c>
-      <c r="C236" t="n">
-        <v>657</v>
-      </c>
-      <c r="D236" t="n">
-        <v>659</v>
-      </c>
-      <c r="E236" t="n">
-        <v>657</v>
-      </c>
-      <c r="F236" t="n">
-        <v>1449.6316</v>
-      </c>
-      <c r="G236" t="n">
-        <v>698.5333333333333</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>-81</v>
-      </c>
-      <c r="J236" t="n">
-        <v>1507</v>
-      </c>
-      <c r="K236" t="n">
-        <v>-21.62162162162162</v>
-      </c>
-      <c r="L236" t="n">
-        <v>667.7</v>
-      </c>
-      <c r="M236" t="n">
-        <v>675.75</v>
-      </c>
-      <c r="N236" t="n">
-        <v>682.6666666666666</v>
-      </c>
-      <c r="O236" t="inlineStr"/>
-      <c r="P236" t="inlineStr"/>
-      <c r="Q236" t="inlineStr"/>
-      <c r="R236" t="inlineStr"/>
-      <c r="S236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>659</v>
-      </c>
-      <c r="C237" t="n">
-        <v>659</v>
-      </c>
-      <c r="D237" t="n">
-        <v>659</v>
-      </c>
-      <c r="E237" t="n">
-        <v>659</v>
-      </c>
-      <c r="F237" t="n">
-        <v>241.718</v>
-      </c>
-      <c r="G237" t="n">
-        <v>697.7</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>-79</v>
-      </c>
-      <c r="J237" t="n">
-        <v>1509</v>
-      </c>
-      <c r="K237" t="n">
-        <v>-34.32835820895522</v>
-      </c>
-      <c r="L237" t="n">
-        <v>666.3</v>
-      </c>
-      <c r="M237" t="n">
-        <v>673.7</v>
-      </c>
-      <c r="N237" t="n">
-        <v>681.1666666666666</v>
-      </c>
-      <c r="O237" t="inlineStr"/>
-      <c r="P237" t="inlineStr"/>
-      <c r="Q237" t="inlineStr"/>
-      <c r="R237" t="inlineStr"/>
-      <c r="S237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>660</v>
-      </c>
-      <c r="C238" t="n">
-        <v>661</v>
-      </c>
-      <c r="D238" t="n">
-        <v>661</v>
-      </c>
-      <c r="E238" t="n">
-        <v>660</v>
-      </c>
-      <c r="F238" t="n">
-        <v>1881.5075</v>
-      </c>
-      <c r="G238" t="n">
-        <v>696.9</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>-77</v>
-      </c>
-      <c r="J238" t="n">
-        <v>1511</v>
-      </c>
-      <c r="K238" t="n">
-        <v>-18.64406779661017</v>
-      </c>
-      <c r="L238" t="n">
-        <v>664.2</v>
-      </c>
-      <c r="M238" t="n">
-        <v>671.95</v>
-      </c>
-      <c r="N238" t="n">
-        <v>679.7666666666667</v>
-      </c>
-      <c r="O238" t="inlineStr"/>
-      <c r="P238" t="inlineStr"/>
-      <c r="Q238" t="inlineStr"/>
-      <c r="R238" t="inlineStr"/>
-      <c r="S238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>661</v>
-      </c>
-      <c r="C239" t="n">
-        <v>661</v>
-      </c>
-      <c r="D239" t="n">
-        <v>661</v>
-      </c>
-      <c r="E239" t="n">
-        <v>661</v>
-      </c>
-      <c r="F239" t="n">
-        <v>59.4911</v>
-      </c>
-      <c r="G239" t="n">
-        <v>696.1</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>-77</v>
-      </c>
-      <c r="J239" t="n">
-        <v>1511</v>
-      </c>
-      <c r="K239" t="n">
-        <v>-18.64406779661017</v>
-      </c>
-      <c r="L239" t="n">
-        <v>663.1</v>
-      </c>
-      <c r="M239" t="n">
-        <v>670.75</v>
-      </c>
-      <c r="N239" t="n">
-        <v>678.3666666666667</v>
-      </c>
-      <c r="O239" t="inlineStr"/>
-      <c r="P239" t="inlineStr"/>
-      <c r="Q239" t="inlineStr"/>
-      <c r="R239" t="inlineStr"/>
-      <c r="S239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>665</v>
-      </c>
-      <c r="C240" t="n">
-        <v>665</v>
-      </c>
-      <c r="D240" t="n">
-        <v>665</v>
-      </c>
-      <c r="E240" t="n">
-        <v>665</v>
-      </c>
-      <c r="F240" t="n">
-        <v>4.0433</v>
-      </c>
-      <c r="G240" t="n">
-        <v>695.5</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>-73</v>
-      </c>
-      <c r="J240" t="n">
-        <v>1515</v>
-      </c>
-      <c r="K240" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L240" t="n">
-        <v>662.4</v>
-      </c>
-      <c r="M240" t="n">
-        <v>669.9</v>
-      </c>
-      <c r="N240" t="n">
-        <v>677.0333333333333</v>
-      </c>
-      <c r="O240" t="inlineStr"/>
-      <c r="P240" t="inlineStr"/>
-      <c r="Q240" t="inlineStr"/>
-      <c r="R240" t="inlineStr"/>
-      <c r="S240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>668</v>
-      </c>
-      <c r="C241" t="n">
-        <v>669</v>
-      </c>
-      <c r="D241" t="n">
-        <v>669</v>
-      </c>
-      <c r="E241" t="n">
-        <v>668</v>
-      </c>
-      <c r="F241" t="n">
-        <v>588.914</v>
-      </c>
-      <c r="G241" t="n">
-        <v>694.9833333333333</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>-69</v>
-      </c>
-      <c r="J241" t="n">
-        <v>1519</v>
-      </c>
-      <c r="K241" t="n">
-        <v>36.17021276595745</v>
-      </c>
-      <c r="L241" t="n">
-        <v>662.1</v>
-      </c>
-      <c r="M241" t="n">
-        <v>669.7</v>
-      </c>
-      <c r="N241" t="n">
-        <v>675.9333333333333</v>
-      </c>
-      <c r="O241" t="inlineStr"/>
-      <c r="P241" t="inlineStr"/>
-      <c r="Q241" t="inlineStr"/>
-      <c r="R241" t="inlineStr"/>
-      <c r="S241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>672</v>
-      </c>
-      <c r="C242" t="n">
-        <v>683</v>
-      </c>
-      <c r="D242" t="n">
-        <v>683</v>
-      </c>
-      <c r="E242" t="n">
-        <v>672</v>
-      </c>
-      <c r="F242" t="n">
-        <v>338.7724</v>
-      </c>
-      <c r="G242" t="n">
-        <v>694.7</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>-55</v>
-      </c>
-      <c r="J242" t="n">
-        <v>1533</v>
-      </c>
-      <c r="K242" t="n">
-        <v>26.82926829268293</v>
-      </c>
-      <c r="L242" t="n">
-        <v>665.2</v>
-      </c>
-      <c r="M242" t="n">
-        <v>669.75</v>
-      </c>
-      <c r="N242" t="n">
-        <v>675.7666666666667</v>
-      </c>
-      <c r="O242" t="inlineStr"/>
-      <c r="P242" t="inlineStr"/>
-      <c r="Q242" t="inlineStr"/>
-      <c r="R242" t="inlineStr"/>
-      <c r="S242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>684</v>
-      </c>
-      <c r="C243" t="n">
-        <v>708</v>
-      </c>
-      <c r="D243" t="n">
-        <v>708</v>
-      </c>
-      <c r="E243" t="n">
-        <v>684</v>
-      </c>
-      <c r="F243" t="n">
-        <v>1016.0998</v>
-      </c>
-      <c r="G243" t="n">
-        <v>695.0333333333333</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J243" t="n">
-        <v>1558</v>
-      </c>
-      <c r="K243" t="n">
-        <v>72.88135593220339</v>
-      </c>
-      <c r="L243" t="n">
-        <v>668.8</v>
-      </c>
-      <c r="M243" t="n">
-        <v>670.85</v>
-      </c>
-      <c r="N243" t="n">
-        <v>676.6333333333333</v>
-      </c>
-      <c r="O243" t="inlineStr"/>
-      <c r="P243" t="inlineStr"/>
-      <c r="Q243" t="inlineStr"/>
-      <c r="R243" t="inlineStr"/>
-      <c r="S243" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>707</v>
-      </c>
-      <c r="C244" t="n">
-        <v>708</v>
-      </c>
-      <c r="D244" t="n">
-        <v>708</v>
-      </c>
-      <c r="E244" t="n">
-        <v>707</v>
-      </c>
-      <c r="F244" t="n">
-        <v>465.1578</v>
-      </c>
-      <c r="G244" t="n">
-        <v>695.25</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J244" t="n">
-        <v>1558</v>
-      </c>
-      <c r="K244" t="n">
-        <v>88.88888888888889</v>
-      </c>
-      <c r="L244" t="n">
-        <v>673.1</v>
-      </c>
-      <c r="M244" t="n">
-        <v>672.65</v>
-      </c>
-      <c r="N244" t="n">
-        <v>677.5</v>
-      </c>
-      <c r="O244" t="inlineStr"/>
-      <c r="P244" t="inlineStr"/>
-      <c r="Q244" t="inlineStr"/>
-      <c r="R244" t="inlineStr"/>
-      <c r="S244" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>707</v>
-      </c>
-      <c r="C245" t="n">
-        <v>708</v>
-      </c>
-      <c r="D245" t="n">
-        <v>709</v>
-      </c>
-      <c r="E245" t="n">
-        <v>707</v>
-      </c>
-      <c r="F245" t="n">
-        <v>1290.8347</v>
-      </c>
-      <c r="G245" t="n">
-        <v>695.3166666666667</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J245" t="n">
-        <v>1558</v>
-      </c>
-      <c r="K245" t="n">
-        <v>100</v>
-      </c>
-      <c r="L245" t="n">
-        <v>677.9</v>
-      </c>
-      <c r="M245" t="n">
-        <v>674.45</v>
-      </c>
-      <c r="N245" t="n">
-        <v>677.9</v>
-      </c>
-      <c r="O245" t="inlineStr"/>
-      <c r="P245" t="inlineStr"/>
-      <c r="Q245" t="inlineStr"/>
-      <c r="R245" t="inlineStr"/>
-      <c r="S245" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>712</v>
-      </c>
-      <c r="C246" t="n">
-        <v>712</v>
-      </c>
-      <c r="D246" t="n">
-        <v>712</v>
-      </c>
-      <c r="E246" t="n">
-        <v>712</v>
-      </c>
-      <c r="F246" t="n">
-        <v>53.441</v>
-      </c>
-      <c r="G246" t="n">
-        <v>695.4</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>-26</v>
-      </c>
-      <c r="J246" t="n">
-        <v>1562</v>
-      </c>
-      <c r="K246" t="n">
-        <v>100</v>
-      </c>
-      <c r="L246" t="n">
-        <v>683.4</v>
-      </c>
-      <c r="M246" t="n">
-        <v>675.55</v>
-      </c>
-      <c r="N246" t="n">
-        <v>678.3</v>
-      </c>
-      <c r="O246" t="inlineStr"/>
-      <c r="P246" t="inlineStr"/>
-      <c r="Q246" t="inlineStr"/>
-      <c r="R246" t="inlineStr"/>
-      <c r="S246" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>712</v>
-      </c>
-      <c r="C247" t="n">
-        <v>712</v>
-      </c>
-      <c r="D247" t="n">
-        <v>712</v>
-      </c>
-      <c r="E247" t="n">
-        <v>712</v>
-      </c>
-      <c r="F247" t="n">
-        <v>57.9214</v>
-      </c>
-      <c r="G247" t="n">
-        <v>695.2833333333333</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>-26</v>
-      </c>
-      <c r="J247" t="n">
-        <v>1562</v>
-      </c>
-      <c r="K247" t="n">
-        <v>100</v>
-      </c>
-      <c r="L247" t="n">
-        <v>688.7</v>
-      </c>
-      <c r="M247" t="n">
-        <v>677.5</v>
-      </c>
-      <c r="N247" t="n">
-        <v>678.7</v>
-      </c>
-      <c r="O247" t="inlineStr"/>
-      <c r="P247" t="inlineStr"/>
-      <c r="Q247" t="inlineStr"/>
-      <c r="R247" t="inlineStr"/>
-      <c r="S247" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>712</v>
-      </c>
-      <c r="C248" t="n">
-        <v>708</v>
-      </c>
-      <c r="D248" t="n">
-        <v>712</v>
-      </c>
-      <c r="E248" t="n">
-        <v>708</v>
-      </c>
-      <c r="F248" t="n">
-        <v>232.0055</v>
-      </c>
-      <c r="G248" t="n">
-        <v>695.0833333333334</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J248" t="n">
-        <v>1566</v>
-      </c>
-      <c r="K248" t="n">
-        <v>85.45454545454545</v>
-      </c>
-      <c r="L248" t="n">
-        <v>693.4</v>
-      </c>
-      <c r="M248" t="n">
-        <v>678.8</v>
-      </c>
-      <c r="N248" t="n">
-        <v>679.1</v>
-      </c>
-      <c r="O248" t="inlineStr"/>
-      <c r="P248" t="inlineStr"/>
-      <c r="Q248" t="inlineStr"/>
-      <c r="R248" t="inlineStr"/>
-      <c r="S248" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>711</v>
-      </c>
-      <c r="C249" t="n">
-        <v>711</v>
-      </c>
-      <c r="D249" t="n">
-        <v>711</v>
-      </c>
-      <c r="E249" t="n">
-        <v>711</v>
-      </c>
-      <c r="F249" t="n">
-        <v>1</v>
-      </c>
-      <c r="G249" t="n">
-        <v>694.4166666666666</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>-27</v>
-      </c>
-      <c r="J249" t="n">
-        <v>1569</v>
-      </c>
-      <c r="K249" t="n">
-        <v>85.18518518518519</v>
-      </c>
-      <c r="L249" t="n">
-        <v>698.4</v>
-      </c>
-      <c r="M249" t="n">
-        <v>680.75</v>
-      </c>
-      <c r="N249" t="n">
-        <v>679.9666666666667</v>
-      </c>
-      <c r="O249" t="inlineStr"/>
-      <c r="P249" t="inlineStr"/>
-      <c r="Q249" t="inlineStr"/>
-      <c r="R249" t="inlineStr"/>
-      <c r="S249" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>690</v>
-      </c>
-      <c r="C250" t="n">
-        <v>698</v>
-      </c>
-      <c r="D250" t="n">
-        <v>698</v>
-      </c>
-      <c r="E250" t="n">
-        <v>661</v>
-      </c>
-      <c r="F250" t="n">
-        <v>1731.5675</v>
-      </c>
-      <c r="G250" t="n">
-        <v>693.4</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>-40</v>
-      </c>
-      <c r="J250" t="n">
-        <v>1582</v>
-      </c>
-      <c r="K250" t="n">
-        <v>46.03174603174603</v>
-      </c>
-      <c r="L250" t="n">
-        <v>701.7</v>
-      </c>
-      <c r="M250" t="n">
-        <v>682.05</v>
-      </c>
-      <c r="N250" t="n">
-        <v>680.5</v>
-      </c>
-      <c r="O250" t="inlineStr"/>
-      <c r="P250" t="inlineStr"/>
-      <c r="Q250" t="inlineStr"/>
-      <c r="R250" t="inlineStr"/>
-      <c r="S250" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>663</v>
-      </c>
-      <c r="C251" t="n">
-        <v>663</v>
-      </c>
-      <c r="D251" t="n">
-        <v>663</v>
-      </c>
-      <c r="E251" t="n">
-        <v>663</v>
-      </c>
-      <c r="F251" t="n">
-        <v>155.6141</v>
-      </c>
-      <c r="G251" t="n">
-        <v>691.8666666666667</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>-75</v>
-      </c>
-      <c r="J251" t="n">
-        <v>1617</v>
-      </c>
-      <c r="K251" t="n">
-        <v>-23.80952380952381</v>
-      </c>
-      <c r="L251" t="n">
-        <v>701.1</v>
-      </c>
-      <c r="M251" t="n">
-        <v>681.6</v>
-      </c>
-      <c r="N251" t="n">
-        <v>680.1666666666666</v>
-      </c>
-      <c r="O251" t="inlineStr"/>
-      <c r="P251" t="inlineStr"/>
-      <c r="Q251" t="inlineStr"/>
-      <c r="R251" t="inlineStr"/>
-      <c r="S251" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>662</v>
-      </c>
-      <c r="C252" t="n">
-        <v>662</v>
-      </c>
-      <c r="D252" t="n">
-        <v>662</v>
-      </c>
-      <c r="E252" t="n">
-        <v>662</v>
-      </c>
-      <c r="F252" t="n">
-        <v>148.632</v>
-      </c>
-      <c r="G252" t="n">
-        <v>690.5833333333334</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>-76</v>
-      </c>
-      <c r="J252" t="n">
-        <v>1618</v>
-      </c>
-      <c r="K252" t="n">
-        <v>-76.66666666666667</v>
-      </c>
-      <c r="L252" t="n">
-        <v>699</v>
-      </c>
-      <c r="M252" t="n">
-        <v>682.1</v>
-      </c>
-      <c r="N252" t="n">
-        <v>679.5</v>
-      </c>
-      <c r="O252" t="inlineStr"/>
-      <c r="P252" t="inlineStr"/>
-      <c r="Q252" t="inlineStr"/>
-      <c r="R252" t="inlineStr"/>
-      <c r="S252" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>663</v>
-      </c>
-      <c r="C253" t="n">
-        <v>663</v>
-      </c>
-      <c r="D253" t="n">
-        <v>663</v>
-      </c>
-      <c r="E253" t="n">
-        <v>663</v>
-      </c>
-      <c r="F253" t="n">
-        <v>1375.7996</v>
-      </c>
-      <c r="G253" t="n">
-        <v>689.0333333333333</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>-75</v>
-      </c>
-      <c r="J253" t="n">
-        <v>1619</v>
-      </c>
-      <c r="K253" t="n">
-        <v>-73.77049180327869</v>
-      </c>
-      <c r="L253" t="n">
-        <v>694.5</v>
-      </c>
-      <c r="M253" t="n">
-        <v>681.65</v>
-      </c>
-      <c r="N253" t="n">
-        <v>678.7333333333333</v>
-      </c>
-      <c r="O253" t="inlineStr"/>
-      <c r="P253" t="inlineStr"/>
-      <c r="Q253" t="inlineStr"/>
-      <c r="R253" t="inlineStr"/>
-      <c r="S253" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>669</v>
-      </c>
-      <c r="C254" t="n">
-        <v>679</v>
-      </c>
-      <c r="D254" t="n">
-        <v>682</v>
-      </c>
-      <c r="E254" t="n">
-        <v>669</v>
-      </c>
-      <c r="F254" t="n">
-        <v>3</v>
-      </c>
-      <c r="G254" t="n">
-        <v>688.2166666666667</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>-59</v>
-      </c>
-      <c r="J254" t="n">
-        <v>1635</v>
-      </c>
-      <c r="K254" t="n">
-        <v>-37.66233766233766</v>
-      </c>
-      <c r="L254" t="n">
-        <v>691.6</v>
-      </c>
-      <c r="M254" t="n">
-        <v>682.35</v>
-      </c>
-      <c r="N254" t="n">
-        <v>678.9666666666667</v>
-      </c>
-      <c r="O254" t="inlineStr"/>
-      <c r="P254" t="inlineStr"/>
-      <c r="Q254" t="inlineStr"/>
-      <c r="R254" t="inlineStr"/>
-      <c r="S254" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>674</v>
-      </c>
-      <c r="C255" t="n">
-        <v>674</v>
-      </c>
-      <c r="D255" t="n">
-        <v>674</v>
-      </c>
-      <c r="E255" t="n">
-        <v>674</v>
-      </c>
-      <c r="F255" t="n">
-        <v>27.0905</v>
-      </c>
-      <c r="G255" t="n">
-        <v>687.2</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>-64</v>
-      </c>
-      <c r="J255" t="n">
-        <v>1640</v>
-      </c>
-      <c r="K255" t="n">
-        <v>-48.71794871794872</v>
-      </c>
-      <c r="L255" t="n">
-        <v>688.2</v>
-      </c>
-      <c r="M255" t="n">
-        <v>683.05</v>
-      </c>
-      <c r="N255" t="n">
-        <v>679.0333333333333</v>
-      </c>
-      <c r="O255" t="inlineStr"/>
-      <c r="P255" t="inlineStr"/>
-      <c r="Q255" t="inlineStr"/>
-      <c r="R255" t="inlineStr"/>
-      <c r="S255" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>679</v>
-      </c>
-      <c r="C256" t="n">
-        <v>697</v>
-      </c>
-      <c r="D256" t="n">
-        <v>697</v>
-      </c>
-      <c r="E256" t="n">
-        <v>679</v>
-      </c>
-      <c r="F256" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="G256" t="n">
-        <v>687.1166666666667</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>-41</v>
-      </c>
-      <c r="J256" t="n">
-        <v>1663</v>
-      </c>
-      <c r="K256" t="n">
-        <v>-14.85148514851485</v>
-      </c>
-      <c r="L256" t="n">
-        <v>686.7</v>
-      </c>
-      <c r="M256" t="n">
-        <v>685.05</v>
-      </c>
-      <c r="N256" t="n">
-        <v>679.2666666666667</v>
-      </c>
-      <c r="O256" t="inlineStr"/>
-      <c r="P256" t="inlineStr"/>
-      <c r="Q256" t="inlineStr"/>
-      <c r="R256" t="inlineStr"/>
-      <c r="S256" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-16 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-16 BackTest STRAT.xlsx
@@ -4091,13 +4091,17 @@
         <v>693.8166666666667</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>665</v>
+      </c>
+      <c r="K106" t="n">
+        <v>665</v>
+      </c>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
@@ -4126,14 +4130,22 @@
         <v>693.3666666666667</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>666</v>
+      </c>
+      <c r="K107" t="n">
+        <v>665</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4161,14 +4173,22 @@
         <v>692.8333333333334</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>684</v>
+      </c>
+      <c r="K108" t="n">
+        <v>665</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4301,17 +4321,13 @@
         <v>690.4333333333333</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>668</v>
-      </c>
-      <c r="K112" t="n">
-        <v>668</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
@@ -4340,409 +4356,359 @@
         <v>689.7</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>667</v>
+      </c>
+      <c r="C114" t="n">
+        <v>667</v>
+      </c>
+      <c r="D114" t="n">
+        <v>667</v>
+      </c>
+      <c r="E114" t="n">
+        <v>667</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1381.1914</v>
+      </c>
+      <c r="G114" t="n">
+        <v>688.9666666666667</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>667</v>
+      </c>
+      <c r="C115" t="n">
+        <v>667</v>
+      </c>
+      <c r="D115" t="n">
+        <v>667</v>
+      </c>
+      <c r="E115" t="n">
+        <v>667</v>
+      </c>
+      <c r="F115" t="n">
+        <v>360</v>
+      </c>
+      <c r="G115" t="n">
+        <v>688.1</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>667</v>
+      </c>
+      <c r="C116" t="n">
+        <v>667</v>
+      </c>
+      <c r="D116" t="n">
+        <v>667</v>
+      </c>
+      <c r="E116" t="n">
+        <v>667</v>
+      </c>
+      <c r="F116" t="n">
+        <v>463.7999</v>
+      </c>
+      <c r="G116" t="n">
+        <v>687.2333333333333</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>667</v>
+      </c>
+      <c r="C117" t="n">
+        <v>665</v>
+      </c>
+      <c r="D117" t="n">
+        <v>667</v>
+      </c>
+      <c r="E117" t="n">
+        <v>665</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1472.4449</v>
+      </c>
+      <c r="G117" t="n">
+        <v>686.3166666666667</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>676</v>
+      </c>
+      <c r="C118" t="n">
+        <v>676</v>
+      </c>
+      <c r="D118" t="n">
+        <v>676</v>
+      </c>
+      <c r="E118" t="n">
+        <v>676</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" t="n">
+        <v>685.5833333333334</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>665</v>
+      </c>
+      <c r="K118" t="n">
+        <v>665</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>675</v>
+      </c>
+      <c r="C119" t="n">
+        <v>679</v>
+      </c>
+      <c r="D119" t="n">
+        <v>684</v>
+      </c>
+      <c r="E119" t="n">
+        <v>675</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1267.5367</v>
+      </c>
+      <c r="G119" t="n">
+        <v>684.9</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>676</v>
+      </c>
+      <c r="K119" t="n">
+        <v>665</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>679</v>
+      </c>
+      <c r="C120" t="n">
+        <v>670</v>
+      </c>
+      <c r="D120" t="n">
+        <v>679</v>
+      </c>
+      <c r="E120" t="n">
+        <v>670</v>
+      </c>
+      <c r="F120" t="n">
+        <v>765.596</v>
+      </c>
+      <c r="G120" t="n">
+        <v>684.3833333333333</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>679</v>
+      </c>
+      <c r="K120" t="n">
+        <v>665</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>685</v>
+      </c>
+      <c r="C121" t="n">
+        <v>685</v>
+      </c>
+      <c r="D121" t="n">
+        <v>685</v>
+      </c>
+      <c r="E121" t="n">
+        <v>685</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" t="n">
+        <v>684.3333333333334</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>670</v>
+      </c>
+      <c r="K121" t="n">
+        <v>670</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>669</v>
+      </c>
+      <c r="C122" t="n">
         <v>668</v>
       </c>
-      <c r="K113" t="n">
+      <c r="D122" t="n">
+        <v>669</v>
+      </c>
+      <c r="E122" t="n">
         <v>668</v>
       </c>
-      <c r="L113" t="inlineStr">
+      <c r="F122" t="n">
+        <v>77.583</v>
+      </c>
+      <c r="G122" t="n">
+        <v>684.0666666666667</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>670</v>
+      </c>
+      <c r="L122" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>667</v>
-      </c>
-      <c r="C114" t="n">
-        <v>667</v>
-      </c>
-      <c r="D114" t="n">
-        <v>667</v>
-      </c>
-      <c r="E114" t="n">
-        <v>667</v>
-      </c>
-      <c r="F114" t="n">
-        <v>1381.1914</v>
-      </c>
-      <c r="G114" t="n">
-        <v>688.9666666666667</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>667</v>
-      </c>
-      <c r="K114" t="n">
-        <v>668</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>667</v>
-      </c>
-      <c r="C115" t="n">
-        <v>667</v>
-      </c>
-      <c r="D115" t="n">
-        <v>667</v>
-      </c>
-      <c r="E115" t="n">
-        <v>667</v>
-      </c>
-      <c r="F115" t="n">
-        <v>360</v>
-      </c>
-      <c r="G115" t="n">
-        <v>688.1</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>667</v>
-      </c>
-      <c r="K115" t="n">
-        <v>668</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>667</v>
-      </c>
-      <c r="C116" t="n">
-        <v>667</v>
-      </c>
-      <c r="D116" t="n">
-        <v>667</v>
-      </c>
-      <c r="E116" t="n">
-        <v>667</v>
-      </c>
-      <c r="F116" t="n">
-        <v>463.7999</v>
-      </c>
-      <c r="G116" t="n">
-        <v>687.2333333333333</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>667</v>
-      </c>
-      <c r="K116" t="n">
-        <v>668</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>667</v>
-      </c>
-      <c r="C117" t="n">
-        <v>665</v>
-      </c>
-      <c r="D117" t="n">
-        <v>667</v>
-      </c>
-      <c r="E117" t="n">
-        <v>665</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1472.4449</v>
-      </c>
-      <c r="G117" t="n">
-        <v>686.3166666666667</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>667</v>
-      </c>
-      <c r="K117" t="n">
-        <v>668</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>676</v>
-      </c>
-      <c r="C118" t="n">
-        <v>676</v>
-      </c>
-      <c r="D118" t="n">
-        <v>676</v>
-      </c>
-      <c r="E118" t="n">
-        <v>676</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1</v>
-      </c>
-      <c r="G118" t="n">
-        <v>685.5833333333334</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>676</v>
-      </c>
-      <c r="K118" t="n">
-        <v>668</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>675</v>
-      </c>
-      <c r="C119" t="n">
-        <v>679</v>
-      </c>
-      <c r="D119" t="n">
-        <v>684</v>
-      </c>
-      <c r="E119" t="n">
-        <v>675</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1267.5367</v>
-      </c>
-      <c r="G119" t="n">
-        <v>684.9</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>675</v>
-      </c>
-      <c r="K119" t="n">
-        <v>668</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>679</v>
-      </c>
-      <c r="C120" t="n">
-        <v>670</v>
-      </c>
-      <c r="D120" t="n">
-        <v>679</v>
-      </c>
-      <c r="E120" t="n">
-        <v>670</v>
-      </c>
-      <c r="F120" t="n">
-        <v>765.596</v>
-      </c>
-      <c r="G120" t="n">
-        <v>684.3833333333333</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>679</v>
-      </c>
-      <c r="K120" t="n">
-        <v>668</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>685</v>
-      </c>
-      <c r="C121" t="n">
-        <v>685</v>
-      </c>
-      <c r="D121" t="n">
-        <v>685</v>
-      </c>
-      <c r="E121" t="n">
-        <v>685</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1</v>
-      </c>
-      <c r="G121" t="n">
-        <v>684.3333333333334</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>685</v>
-      </c>
-      <c r="K121" t="n">
-        <v>668</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>669</v>
-      </c>
-      <c r="C122" t="n">
-        <v>668</v>
-      </c>
-      <c r="D122" t="n">
-        <v>669</v>
-      </c>
-      <c r="E122" t="n">
-        <v>668</v>
-      </c>
-      <c r="F122" t="n">
-        <v>77.583</v>
-      </c>
-      <c r="G122" t="n">
-        <v>684.0666666666667</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>669</v>
-      </c>
-      <c r="K122" t="n">
-        <v>668</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4770,16 +4736,14 @@
         <v>683.8</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>679</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -4813,16 +4777,14 @@
         <v>683.75</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>681</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -4856,16 +4818,14 @@
         <v>683.0666666666667</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>666</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -4906,7 +4866,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -4940,16 +4900,14 @@
         <v>682.6166666666667</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>665</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -4983,16 +4941,14 @@
         <v>681.9166666666666</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>664</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5026,16 +4982,14 @@
         <v>681.2166666666667</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>661</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5069,16 +5023,14 @@
         <v>680.4833333333333</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>660</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5112,16 +5064,14 @@
         <v>679.8666666666667</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>655</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5155,16 +5105,14 @@
         <v>679.1666666666666</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>663</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5198,16 +5146,14 @@
         <v>678.6</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>663</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5241,16 +5187,14 @@
         <v>677.8833333333333</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>663</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5284,16 +5228,14 @@
         <v>677.35</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>669</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5327,16 +5269,14 @@
         <v>677.1666666666666</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>671</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5370,16 +5310,14 @@
         <v>676.45</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>662</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5413,16 +5351,14 @@
         <v>676.1</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>664</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5456,16 +5392,14 @@
         <v>675.8166666666667</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>666</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5499,16 +5433,14 @@
         <v>675.5666666666667</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>667</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5542,16 +5474,14 @@
         <v>675.2833333333333</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>665</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5585,16 +5515,14 @@
         <v>674.65</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>664</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5628,16 +5556,14 @@
         <v>674.0333333333333</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>667</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5671,16 +5597,14 @@
         <v>673.7166666666667</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>667</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5714,16 +5638,14 @@
         <v>673.2666666666667</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>668</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -5757,16 +5679,14 @@
         <v>672.8</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>667</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -5800,16 +5720,14 @@
         <v>672.75</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>674</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -5843,16 +5761,14 @@
         <v>672.85</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>688</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -5886,16 +5802,14 @@
         <v>672.8333333333334</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>688</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -5929,16 +5843,14 @@
         <v>672.8833333333333</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>688</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -5972,16 +5884,14 @@
         <v>672.9333333333333</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>690</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6022,7 +5932,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6063,7 +5973,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6104,7 +6014,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6145,7 +6055,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6186,7 +6096,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6227,7 +6137,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6268,7 +6178,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6309,7 +6219,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6350,7 +6260,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6391,7 +6301,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6432,7 +6342,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6473,7 +6383,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6514,7 +6424,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6555,7 +6465,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6596,7 +6506,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6637,7 +6547,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6678,7 +6588,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6719,7 +6629,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -6760,7 +6670,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -6801,7 +6711,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -6842,7 +6752,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -6883,7 +6793,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -6924,7 +6834,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -6965,7 +6875,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -7006,7 +6916,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -7047,7 +6957,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -7088,7 +6998,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -7129,7 +7039,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -7170,7 +7080,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -7211,7 +7121,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -7252,7 +7162,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -7293,7 +7203,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -7334,7 +7244,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -7375,7 +7285,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -7416,7 +7326,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -7457,7 +7367,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -7498,7 +7408,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -7539,7 +7449,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -7580,7 +7490,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -7621,7 +7531,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -7658,19 +7568,19 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>1</v>
+        <v>1.097985074626866</v>
       </c>
     </row>
     <row r="193">
@@ -7702,14 +7612,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>668</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7743,14 +7647,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>668</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7784,14 +7682,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>668</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7825,14 +7717,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>668</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7866,14 +7752,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>668</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7907,14 +7787,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>668</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7945,19 +7819,13 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>668</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
-        <v>1.030928143712575</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -9173,14 +9041,20 @@
         <v>700.25</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>672</v>
+      </c>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9208,14 +9082,20 @@
         <v>699.4</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>665</v>
+      </c>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-16 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-16 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M235"/>
+  <dimension ref="A1:M236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="C2" t="n">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="D2" t="n">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E2" t="n">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F2" t="n">
-        <v>530.7121</v>
+        <v>201.1929</v>
       </c>
       <c r="G2" t="n">
-        <v>760.0666666666667</v>
+        <v>760.5666666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C3" t="n">
         <v>738</v>
@@ -477,13 +477,13 @@
         <v>738</v>
       </c>
       <c r="E3" t="n">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F3" t="n">
-        <v>107.2553</v>
+        <v>530.7121</v>
       </c>
       <c r="G3" t="n">
-        <v>759.55</v>
+        <v>760.0666666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>720</v>
+        <v>738</v>
       </c>
       <c r="C4" t="n">
-        <v>719</v>
+        <v>738</v>
       </c>
       <c r="D4" t="n">
-        <v>720</v>
+        <v>738</v>
       </c>
       <c r="E4" t="n">
-        <v>719</v>
+        <v>738</v>
       </c>
       <c r="F4" t="n">
-        <v>88.9742</v>
+        <v>107.2553</v>
       </c>
       <c r="G4" t="n">
-        <v>759.3166666666667</v>
+        <v>759.55</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>720</v>
       </c>
       <c r="C5" t="n">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="D5" t="n">
         <v>720</v>
       </c>
       <c r="E5" t="n">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="F5" t="n">
-        <v>10497.4652</v>
+        <v>88.9742</v>
       </c>
       <c r="G5" t="n">
-        <v>758.55</v>
+        <v>759.3166666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="C6" t="n">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="D6" t="n">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="E6" t="n">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F6" t="n">
-        <v>1731.4911</v>
+        <v>10497.4652</v>
       </c>
       <c r="G6" t="n">
-        <v>757.6</v>
+        <v>758.55</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>710</v>
       </c>
       <c r="F7" t="n">
-        <v>763.1187</v>
+        <v>1731.4911</v>
       </c>
       <c r="G7" t="n">
-        <v>756.65</v>
+        <v>757.6</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C8" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D8" t="n">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E8" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F8" t="n">
-        <v>759.615</v>
+        <v>763.1187</v>
       </c>
       <c r="G8" t="n">
-        <v>755.7166666666667</v>
+        <v>756.65</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C9" t="n">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="D9" t="n">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="E9" t="n">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="F9" t="n">
-        <v>1442.5984</v>
+        <v>759.615</v>
       </c>
       <c r="G9" t="n">
-        <v>754.6666666666666</v>
+        <v>755.7166666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>710</v>
+      </c>
+      <c r="C10" t="n">
         <v>704</v>
       </c>
-      <c r="C10" t="n">
-        <v>705</v>
-      </c>
       <c r="D10" t="n">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="E10" t="n">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="F10" t="n">
-        <v>7707.244</v>
+        <v>1442.5984</v>
       </c>
       <c r="G10" t="n">
-        <v>753.6333333333333</v>
+        <v>754.6666666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C11" t="n">
         <v>705</v>
@@ -757,13 +757,13 @@
         <v>705</v>
       </c>
       <c r="E11" t="n">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F11" t="n">
-        <v>958.0863000000001</v>
+        <v>7707.244</v>
       </c>
       <c r="G11" t="n">
-        <v>752.5</v>
+        <v>753.6333333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C12" t="n">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="D12" t="n">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="E12" t="n">
         <v>705</v>
       </c>
       <c r="F12" t="n">
-        <v>6046.1439</v>
+        <v>958.0863000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>751.6666666666666</v>
+        <v>752.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C13" t="n">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="D13" t="n">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="E13" t="n">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="F13" t="n">
-        <v>1192.0575</v>
+        <v>6046.1439</v>
       </c>
       <c r="G13" t="n">
-        <v>750.5</v>
+        <v>751.6666666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>711</v>
       </c>
       <c r="C14" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D14" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E14" t="n">
         <v>711</v>
       </c>
       <c r="F14" t="n">
-        <v>3389.0143</v>
+        <v>1192.0575</v>
       </c>
       <c r="G14" t="n">
-        <v>749.4833333333333</v>
+        <v>750.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C15" t="n">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="D15" t="n">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E15" t="n">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="F15" t="n">
-        <v>846.846</v>
+        <v>3389.0143</v>
       </c>
       <c r="G15" t="n">
-        <v>748.2666666666667</v>
+        <v>749.4833333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>712</v>
       </c>
       <c r="C16" t="n">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="D16" t="n">
         <v>712</v>
       </c>
       <c r="E16" t="n">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>846.846</v>
       </c>
       <c r="G16" t="n">
-        <v>747.4333333333333</v>
+        <v>748.2666666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="C17" t="n">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D17" t="n">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E17" t="n">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="F17" t="n">
-        <v>413.7934</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>746.55</v>
+        <v>747.4333333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>705</v>
+      </c>
+      <c r="C18" t="n">
         <v>711</v>
-      </c>
-      <c r="C18" t="n">
-        <v>704</v>
       </c>
       <c r="D18" t="n">
         <v>711</v>
       </c>
       <c r="E18" t="n">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F18" t="n">
-        <v>648.3526000000001</v>
+        <v>413.7934</v>
       </c>
       <c r="G18" t="n">
-        <v>745.5</v>
+        <v>746.55</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C19" t="n">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D19" t="n">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E19" t="n">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="F19" t="n">
-        <v>561.6813</v>
+        <v>648.3526000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>744.5833333333334</v>
+        <v>745.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C20" t="n">
-        <v>732</v>
+        <v>713</v>
       </c>
       <c r="D20" t="n">
-        <v>732</v>
+        <v>713</v>
       </c>
       <c r="E20" t="n">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F20" t="n">
-        <v>2848.0926</v>
+        <v>561.6813</v>
       </c>
       <c r="G20" t="n">
-        <v>743.9666666666667</v>
+        <v>744.5833333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="C21" t="n">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="D21" t="n">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="E21" t="n">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="F21" t="n">
-        <v>106.8549</v>
+        <v>2848.0926</v>
       </c>
       <c r="G21" t="n">
-        <v>742.9833333333333</v>
+        <v>743.9666666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C22" t="n">
         <v>710</v>
@@ -1142,13 +1142,13 @@
         <v>710</v>
       </c>
       <c r="E22" t="n">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F22" t="n">
-        <v>3048.7594</v>
+        <v>106.8549</v>
       </c>
       <c r="G22" t="n">
-        <v>742</v>
+        <v>742.9833333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C23" t="n">
         <v>710</v>
       </c>
       <c r="D23" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E23" t="n">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F23" t="n">
-        <v>3087.7414</v>
+        <v>3048.7594</v>
       </c>
       <c r="G23" t="n">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C24" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D24" t="n">
         <v>711</v>
       </c>
       <c r="E24" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F24" t="n">
-        <v>77.9747</v>
+        <v>3087.7414</v>
       </c>
       <c r="G24" t="n">
-        <v>740.0166666666667</v>
+        <v>741</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="C25" t="n">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="D25" t="n">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="E25" t="n">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="F25" t="n">
-        <v>631.9930000000001</v>
+        <v>77.9747</v>
       </c>
       <c r="G25" t="n">
-        <v>739.2333333333333</v>
+        <v>740.0166666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C26" t="n">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D26" t="n">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E26" t="n">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F26" t="n">
-        <v>47.6183</v>
+        <v>631.9930000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>738.45</v>
+        <v>739.2333333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="C27" t="n">
-        <v>711</v>
+        <v>724</v>
       </c>
       <c r="D27" t="n">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="E27" t="n">
-        <v>711</v>
+        <v>724</v>
       </c>
       <c r="F27" t="n">
-        <v>2204.2916</v>
+        <v>47.6183</v>
       </c>
       <c r="G27" t="n">
-        <v>737.3333333333334</v>
+        <v>738.45</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C28" t="n">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D28" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E28" t="n">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F28" t="n">
-        <v>2045.7984</v>
+        <v>2204.2916</v>
       </c>
       <c r="G28" t="n">
-        <v>736.15</v>
+        <v>737.3333333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C29" t="n">
         <v>710</v>
       </c>
       <c r="D29" t="n">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="E29" t="n">
         <v>710</v>
       </c>
       <c r="F29" t="n">
-        <v>321.3601</v>
+        <v>2045.7984</v>
       </c>
       <c r="G29" t="n">
-        <v>735.1666666666666</v>
+        <v>736.15</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C30" t="n">
         <v>710</v>
       </c>
       <c r="D30" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E30" t="n">
         <v>710</v>
       </c>
       <c r="F30" t="n">
-        <v>1675.7407</v>
+        <v>321.3601</v>
       </c>
       <c r="G30" t="n">
-        <v>734.2333333333333</v>
+        <v>735.1666666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C31" t="n">
         <v>710</v>
       </c>
       <c r="D31" t="n">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E31" t="n">
         <v>710</v>
       </c>
       <c r="F31" t="n">
-        <v>11.7907</v>
+        <v>1675.7407</v>
       </c>
       <c r="G31" t="n">
-        <v>732.9166666666666</v>
+        <v>734.2333333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>710</v>
       </c>
       <c r="F32" t="n">
-        <v>990.045</v>
+        <v>11.7907</v>
       </c>
       <c r="G32" t="n">
-        <v>731.6</v>
+        <v>732.9166666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>710</v>
       </c>
       <c r="C33" t="n">
-        <v>688</v>
+        <v>710</v>
       </c>
       <c r="D33" t="n">
         <v>710</v>
       </c>
       <c r="E33" t="n">
-        <v>688</v>
+        <v>710</v>
       </c>
       <c r="F33" t="n">
-        <v>3104.0539</v>
+        <v>990.045</v>
       </c>
       <c r="G33" t="n">
-        <v>730.1666666666666</v>
+        <v>731.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C34" t="n">
-        <v>712</v>
+        <v>688</v>
       </c>
       <c r="D34" t="n">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E34" t="n">
-        <v>712</v>
+        <v>688</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>3104.0539</v>
       </c>
       <c r="G34" t="n">
-        <v>729.2666666666667</v>
+        <v>730.1666666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>712</v>
       </c>
       <c r="F35" t="n">
-        <v>1191.1947</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>728.0166666666667</v>
+        <v>729.2666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C36" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D36" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E36" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F36" t="n">
-        <v>497.4796</v>
+        <v>1191.1947</v>
       </c>
       <c r="G36" t="n">
-        <v>726.85</v>
+        <v>728.0166666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>713</v>
       </c>
       <c r="C37" t="n">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D37" t="n">
         <v>713</v>
       </c>
       <c r="E37" t="n">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F37" t="n">
-        <v>1524.5273</v>
+        <v>497.4796</v>
       </c>
       <c r="G37" t="n">
-        <v>725.8</v>
+        <v>726.85</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="C38" t="n">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="D38" t="n">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="E38" t="n">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="F38" t="n">
-        <v>613.3971</v>
+        <v>1524.5273</v>
       </c>
       <c r="G38" t="n">
-        <v>724.55</v>
+        <v>725.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C39" t="n">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D39" t="n">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E39" t="n">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F39" t="n">
-        <v>26.9959</v>
+        <v>613.3971</v>
       </c>
       <c r="G39" t="n">
-        <v>723.6</v>
+        <v>724.55</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C40" t="n">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="D40" t="n">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="E40" t="n">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="F40" t="n">
-        <v>2475.8788</v>
+        <v>26.9959</v>
       </c>
       <c r="G40" t="n">
-        <v>722.6833333333333</v>
+        <v>723.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C41" t="n">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D41" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E41" t="n">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="F41" t="n">
-        <v>115.1864</v>
+        <v>2475.8788</v>
       </c>
       <c r="G41" t="n">
-        <v>721.6833333333333</v>
+        <v>722.6833333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="C42" t="n">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="D42" t="n">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="E42" t="n">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>115.1864</v>
       </c>
       <c r="G42" t="n">
-        <v>721.3166666666667</v>
+        <v>721.6833333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C43" t="n">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D43" t="n">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="E43" t="n">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F43" t="n">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>720.4166666666666</v>
+        <v>721.3166666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>711</v>
       </c>
       <c r="F44" t="n">
-        <v>0.462</v>
+        <v>81</v>
       </c>
       <c r="G44" t="n">
-        <v>719.4166666666666</v>
+        <v>720.4166666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="C45" t="n">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="D45" t="n">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="E45" t="n">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="F45" t="n">
-        <v>1.0268</v>
+        <v>0.462</v>
       </c>
       <c r="G45" t="n">
-        <v>719.0333333333333</v>
+        <v>719.4166666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>719</v>
       </c>
       <c r="C46" t="n">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D46" t="n">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E46" t="n">
         <v>719</v>
       </c>
       <c r="F46" t="n">
-        <v>573.2474999999999</v>
+        <v>1.0268</v>
       </c>
       <c r="G46" t="n">
-        <v>718.7166666666667</v>
+        <v>719.0333333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="C47" t="n">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="D47" t="n">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="E47" t="n">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="F47" t="n">
-        <v>1.262</v>
+        <v>573.2474999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>718.2333333333333</v>
+        <v>718.7166666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="C48" t="n">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="D48" t="n">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="E48" t="n">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="F48" t="n">
-        <v>751.3378</v>
+        <v>1.262</v>
       </c>
       <c r="G48" t="n">
-        <v>717.0333333333333</v>
+        <v>718.2333333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C49" t="n">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D49" t="n">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="E49" t="n">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F49" t="n">
-        <v>97.4529</v>
+        <v>751.3378</v>
       </c>
       <c r="G49" t="n">
-        <v>716.2833333333333</v>
+        <v>717.0333333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C50" t="n">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D50" t="n">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E50" t="n">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F50" t="n">
-        <v>476.0128</v>
+        <v>97.4529</v>
       </c>
       <c r="G50" t="n">
-        <v>715.6833333333333</v>
+        <v>716.2833333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,19 +2151,19 @@
         <v>701</v>
       </c>
       <c r="C51" t="n">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D51" t="n">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E51" t="n">
         <v>701</v>
       </c>
       <c r="F51" t="n">
-        <v>783.6581</v>
+        <v>476.0128</v>
       </c>
       <c r="G51" t="n">
-        <v>715.0333333333333</v>
+        <v>715.6833333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="C52" t="n">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D52" t="n">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="E52" t="n">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="F52" t="n">
-        <v>15</v>
+        <v>783.6581</v>
       </c>
       <c r="G52" t="n">
-        <v>714.2333333333333</v>
+        <v>715.0333333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C53" t="n">
         <v>711</v>
@@ -2227,13 +2227,13 @@
         <v>711</v>
       </c>
       <c r="E53" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F53" t="n">
-        <v>214.9857</v>
+        <v>15</v>
       </c>
       <c r="G53" t="n">
-        <v>713.75</v>
+        <v>714.2333333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>711</v>
       </c>
       <c r="F54" t="n">
-        <v>9.975</v>
+        <v>214.9857</v>
       </c>
       <c r="G54" t="n">
-        <v>713.0333333333333</v>
+        <v>713.75</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="C55" t="n">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="D55" t="n">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="E55" t="n">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>9.975</v>
       </c>
       <c r="G55" t="n">
-        <v>712.7166666666667</v>
+        <v>713.0333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>719</v>
       </c>
       <c r="F56" t="n">
-        <v>200.6588</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>712.4</v>
+        <v>712.7166666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C57" t="n">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D57" t="n">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E57" t="n">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F57" t="n">
-        <v>752.6999</v>
+        <v>200.6588</v>
       </c>
       <c r="G57" t="n">
-        <v>712.3833333333333</v>
+        <v>712.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>720</v>
       </c>
       <c r="F58" t="n">
-        <v>186.0364</v>
+        <v>752.6999</v>
       </c>
       <c r="G58" t="n">
-        <v>712.35</v>
+        <v>712.3833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>720</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>186.0364</v>
       </c>
       <c r="G59" t="n">
-        <v>712.4166666666666</v>
+        <v>712.35</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="C60" t="n">
-        <v>701</v>
+        <v>720</v>
       </c>
       <c r="D60" t="n">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="E60" t="n">
-        <v>701</v>
+        <v>720</v>
       </c>
       <c r="F60" t="n">
-        <v>4784.0507</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>711.8833333333333</v>
+        <v>712.4166666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>697</v>
+        <v>711</v>
       </c>
       <c r="C61" t="n">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="D61" t="n">
-        <v>697</v>
+        <v>711</v>
       </c>
       <c r="E61" t="n">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F61" t="n">
-        <v>3872.4002</v>
+        <v>4784.0507</v>
       </c>
       <c r="G61" t="n">
-        <v>711.1666666666666</v>
+        <v>711.8833333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="C62" t="n">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="D62" t="n">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="E62" t="n">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="F62" t="n">
-        <v>321.3158</v>
+        <v>3872.4002</v>
       </c>
       <c r="G62" t="n">
-        <v>710.2666666666667</v>
+        <v>711.1666666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="C63" t="n">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="D63" t="n">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="E63" t="n">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="F63" t="n">
-        <v>2010.0561</v>
+        <v>321.3158</v>
       </c>
       <c r="G63" t="n">
-        <v>709.55</v>
+        <v>710.2666666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>692</v>
+      </c>
+      <c r="C64" t="n">
         <v>695</v>
       </c>
-      <c r="C64" t="n">
-        <v>684</v>
-      </c>
       <c r="D64" t="n">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="E64" t="n">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="F64" t="n">
-        <v>5373.4826</v>
+        <v>2010.0561</v>
       </c>
       <c r="G64" t="n">
-        <v>708.9666666666667</v>
+        <v>709.55</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C65" t="n">
-        <v>705</v>
+        <v>684</v>
       </c>
       <c r="D65" t="n">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E65" t="n">
-        <v>705</v>
+        <v>684</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>5373.4826</v>
       </c>
       <c r="G65" t="n">
-        <v>708.8333333333334</v>
+        <v>708.9666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>688</v>
+        <v>705</v>
       </c>
       <c r="C66" t="n">
-        <v>682</v>
+        <v>705</v>
       </c>
       <c r="D66" t="n">
-        <v>688</v>
+        <v>705</v>
       </c>
       <c r="E66" t="n">
-        <v>682</v>
+        <v>705</v>
       </c>
       <c r="F66" t="n">
-        <v>9694.890799999999</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>708.3666666666667</v>
+        <v>708.8333333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="C67" t="n">
         <v>682</v>
       </c>
       <c r="D67" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="E67" t="n">
         <v>682</v>
       </c>
       <c r="F67" t="n">
-        <v>408.7266</v>
+        <v>9694.890799999999</v>
       </c>
       <c r="G67" t="n">
-        <v>707.9</v>
+        <v>708.3666666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="C68" t="n">
-        <v>706</v>
+        <v>682</v>
       </c>
       <c r="D68" t="n">
-        <v>706</v>
+        <v>682</v>
       </c>
       <c r="E68" t="n">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="F68" t="n">
-        <v>138.2394</v>
+        <v>408.7266</v>
       </c>
       <c r="G68" t="n">
-        <v>707.8166666666667</v>
+        <v>707.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C69" t="n">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="D69" t="n">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="E69" t="n">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F69" t="n">
-        <v>216.9985</v>
+        <v>138.2394</v>
       </c>
       <c r="G69" t="n">
-        <v>707.8</v>
+        <v>707.8166666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>703</v>
       </c>
       <c r="F70" t="n">
-        <v>367.8</v>
+        <v>216.9985</v>
       </c>
       <c r="G70" t="n">
-        <v>707.7666666666667</v>
+        <v>707.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C71" t="n">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D71" t="n">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E71" t="n">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F71" t="n">
-        <v>98.6769</v>
+        <v>367.8</v>
       </c>
       <c r="G71" t="n">
-        <v>707.75</v>
+        <v>707.7666666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2886,19 +2886,19 @@
         <v>704</v>
       </c>
       <c r="C72" t="n">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D72" t="n">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E72" t="n">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="F72" t="n">
-        <v>19.2704</v>
+        <v>98.6769</v>
       </c>
       <c r="G72" t="n">
-        <v>707.45</v>
+        <v>707.75</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="C73" t="n">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="D73" t="n">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="E73" t="n">
         <v>697</v>
       </c>
       <c r="F73" t="n">
-        <v>216.456</v>
+        <v>19.2704</v>
       </c>
       <c r="G73" t="n">
-        <v>707.2</v>
+        <v>707.45</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="C74" t="n">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="D74" t="n">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="E74" t="n">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>216.456</v>
       </c>
       <c r="G74" t="n">
-        <v>707.0833333333334</v>
+        <v>707.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C75" t="n">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="D75" t="n">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="E75" t="n">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="F75" t="n">
-        <v>166.5</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>707.1333333333333</v>
+        <v>707.0833333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="C76" t="n">
-        <v>682</v>
+        <v>703</v>
       </c>
       <c r="D76" t="n">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="E76" t="n">
-        <v>682</v>
+        <v>703</v>
       </c>
       <c r="F76" t="n">
-        <v>3989.3746</v>
+        <v>166.5</v>
       </c>
       <c r="G76" t="n">
-        <v>706.6333333333333</v>
+        <v>707.1333333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="C77" t="n">
-        <v>705</v>
+        <v>682</v>
       </c>
       <c r="D77" t="n">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="E77" t="n">
-        <v>705</v>
+        <v>682</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>3989.3746</v>
       </c>
       <c r="G77" t="n">
-        <v>706.5333333333333</v>
+        <v>706.6333333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>685</v>
+        <v>705</v>
       </c>
       <c r="C78" t="n">
-        <v>684</v>
+        <v>705</v>
       </c>
       <c r="D78" t="n">
-        <v>685</v>
+        <v>705</v>
       </c>
       <c r="E78" t="n">
-        <v>684</v>
+        <v>705</v>
       </c>
       <c r="F78" t="n">
-        <v>140.1144</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>706.2</v>
+        <v>706.5333333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C79" t="n">
         <v>684</v>
       </c>
       <c r="D79" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E79" t="n">
         <v>684</v>
       </c>
       <c r="F79" t="n">
-        <v>1702.0292</v>
+        <v>140.1144</v>
       </c>
       <c r="G79" t="n">
-        <v>705.7166666666667</v>
+        <v>706.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C80" t="n">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D80" t="n">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E80" t="n">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F80" t="n">
-        <v>1004.1327</v>
+        <v>1702.0292</v>
       </c>
       <c r="G80" t="n">
-        <v>704.8833333333333</v>
+        <v>705.7166666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C81" t="n">
         <v>682</v>
       </c>
       <c r="D81" t="n">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="E81" t="n">
         <v>682</v>
       </c>
       <c r="F81" t="n">
-        <v>2607.3164</v>
+        <v>1004.1327</v>
       </c>
       <c r="G81" t="n">
-        <v>704.4166666666666</v>
+        <v>704.8833333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="C82" t="n">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="D82" t="n">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="E82" t="n">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="F82" t="n">
-        <v>1.0221</v>
+        <v>2607.3164</v>
       </c>
       <c r="G82" t="n">
-        <v>704.2833333333333</v>
+        <v>704.4166666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C83" t="n">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D83" t="n">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E83" t="n">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F83" t="n">
-        <v>379.00553977</v>
+        <v>1.0221</v>
       </c>
       <c r="G83" t="n">
-        <v>704.1833333333333</v>
+        <v>704.2833333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>686</v>
+        <v>703</v>
       </c>
       <c r="C84" t="n">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="D84" t="n">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="E84" t="n">
-        <v>686</v>
+        <v>703</v>
       </c>
       <c r="F84" t="n">
-        <v>28.3784</v>
+        <v>379.00553977</v>
       </c>
       <c r="G84" t="n">
-        <v>703.7666666666667</v>
+        <v>704.1833333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C85" t="n">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="D85" t="n">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="E85" t="n">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F85" t="n">
-        <v>272.975</v>
+        <v>28.3784</v>
       </c>
       <c r="G85" t="n">
-        <v>703.2833333333333</v>
+        <v>703.7666666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C86" t="n">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D86" t="n">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E86" t="n">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F86" t="n">
-        <v>326.4474</v>
+        <v>272.975</v>
       </c>
       <c r="G86" t="n">
-        <v>702.8</v>
+        <v>703.2833333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C87" t="n">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="D87" t="n">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="E87" t="n">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="F87" t="n">
-        <v>338.6267</v>
+        <v>326.4474</v>
       </c>
       <c r="G87" t="n">
-        <v>702.4666666666667</v>
+        <v>702.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="C88" t="n">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="D88" t="n">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="E88" t="n">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="F88" t="n">
-        <v>67.3614</v>
+        <v>338.6267</v>
       </c>
       <c r="G88" t="n">
-        <v>702</v>
+        <v>702.4666666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C89" t="n">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="D89" t="n">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="E89" t="n">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="F89" t="n">
-        <v>63.7021</v>
+        <v>67.3614</v>
       </c>
       <c r="G89" t="n">
-        <v>701.65</v>
+        <v>702</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C90" t="n">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D90" t="n">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E90" t="n">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F90" t="n">
-        <v>347.1762</v>
+        <v>63.7021</v>
       </c>
       <c r="G90" t="n">
-        <v>701.2666666666667</v>
+        <v>701.65</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3557,13 +3557,13 @@
         <v>687</v>
       </c>
       <c r="E91" t="n">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F91" t="n">
-        <v>1050.0807</v>
+        <v>347.1762</v>
       </c>
       <c r="G91" t="n">
-        <v>700.8833333333333</v>
+        <v>701.2666666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C92" t="n">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D92" t="n">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="E92" t="n">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F92" t="n">
-        <v>764.2707</v>
+        <v>1050.0807</v>
       </c>
       <c r="G92" t="n">
-        <v>700.5666666666667</v>
+        <v>700.8833333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C93" t="n">
         <v>691</v>
       </c>
       <c r="D93" t="n">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E93" t="n">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F93" t="n">
-        <v>16.2149</v>
+        <v>764.2707</v>
       </c>
       <c r="G93" t="n">
-        <v>700.6166666666667</v>
+        <v>700.5666666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3665,10 @@
         <v>691</v>
       </c>
       <c r="F94" t="n">
-        <v>2.2966</v>
+        <v>16.2149</v>
       </c>
       <c r="G94" t="n">
-        <v>700.2666666666667</v>
+        <v>700.6166666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,10 +3700,10 @@
         <v>691</v>
       </c>
       <c r="F95" t="n">
-        <v>39.2525</v>
+        <v>2.2966</v>
       </c>
       <c r="G95" t="n">
-        <v>699.9166666666666</v>
+        <v>700.2666666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="C96" t="n">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="D96" t="n">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="E96" t="n">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="F96" t="n">
-        <v>5409.3245</v>
+        <v>39.2525</v>
       </c>
       <c r="G96" t="n">
-        <v>699.45</v>
+        <v>699.9166666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>683</v>
+      </c>
+      <c r="C97" t="n">
         <v>685</v>
       </c>
-      <c r="C97" t="n">
-        <v>683</v>
-      </c>
       <c r="D97" t="n">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="E97" t="n">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="F97" t="n">
-        <v>700.3443</v>
+        <v>5409.3245</v>
       </c>
       <c r="G97" t="n">
-        <v>698.9666666666667</v>
+        <v>699.45</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>685</v>
+      </c>
+      <c r="C98" t="n">
         <v>683</v>
       </c>
-      <c r="C98" t="n">
-        <v>682</v>
-      </c>
       <c r="D98" t="n">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="E98" t="n">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F98" t="n">
-        <v>493.7757</v>
+        <v>700.3443</v>
       </c>
       <c r="G98" t="n">
-        <v>698.6666666666666</v>
+        <v>698.9666666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3831,19 +3831,19 @@
         <v>683</v>
       </c>
       <c r="C99" t="n">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D99" t="n">
         <v>683</v>
       </c>
       <c r="E99" t="n">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F99" t="n">
-        <v>913.796</v>
+        <v>493.7757</v>
       </c>
       <c r="G99" t="n">
-        <v>698.3333333333334</v>
+        <v>698.6666666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C100" t="n">
         <v>683</v>
       </c>
       <c r="D100" t="n">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E100" t="n">
         <v>683</v>
       </c>
       <c r="F100" t="n">
-        <v>657.9091</v>
+        <v>913.796</v>
       </c>
       <c r="G100" t="n">
-        <v>698.1</v>
+        <v>698.3333333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="C101" t="n">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="D101" t="n">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="E101" t="n">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="F101" t="n">
-        <v>157.9928</v>
+        <v>657.9091</v>
       </c>
       <c r="G101" t="n">
-        <v>697.6333333333333</v>
+        <v>698.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C102" t="n">
         <v>672</v>
       </c>
       <c r="D102" t="n">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E102" t="n">
         <v>672</v>
       </c>
       <c r="F102" t="n">
-        <v>2160.5665</v>
+        <v>157.9928</v>
       </c>
       <c r="G102" t="n">
-        <v>696.95</v>
+        <v>697.6333333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C103" t="n">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D103" t="n">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="E103" t="n">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="F103" t="n">
-        <v>50.1873</v>
+        <v>2160.5665</v>
       </c>
       <c r="G103" t="n">
-        <v>696.4</v>
+        <v>696.95</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="C104" t="n">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="D104" t="n">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="E104" t="n">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="F104" t="n">
-        <v>2293.7269</v>
+        <v>50.1873</v>
       </c>
       <c r="G104" t="n">
-        <v>695.6333333333333</v>
+        <v>696.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="C105" t="n">
         <v>665</v>
       </c>
       <c r="D105" t="n">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="E105" t="n">
         <v>665</v>
       </c>
       <c r="F105" t="n">
-        <v>303.1265</v>
+        <v>2293.7269</v>
       </c>
       <c r="G105" t="n">
-        <v>694.7333333333333</v>
+        <v>695.6333333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,35 +4073,31 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C106" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D106" t="n">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E106" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F106" t="n">
-        <v>1640.7828</v>
+        <v>303.1265</v>
       </c>
       <c r="G106" t="n">
-        <v>693.8166666666667</v>
+        <v>694.7333333333333</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>665</v>
-      </c>
-      <c r="K106" t="n">
-        <v>665</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
@@ -4112,40 +4108,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="C107" t="n">
-        <v>684</v>
+        <v>666</v>
       </c>
       <c r="D107" t="n">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="E107" t="n">
-        <v>684</v>
+        <v>666</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>1640.7828</v>
       </c>
       <c r="G107" t="n">
-        <v>693.3666666666667</v>
+        <v>693.8166666666667</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>666</v>
-      </c>
-      <c r="K107" t="n">
-        <v>665</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4155,40 +4143,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>669</v>
+        <v>684</v>
       </c>
       <c r="C108" t="n">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="D108" t="n">
-        <v>669</v>
+        <v>684</v>
       </c>
       <c r="E108" t="n">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="F108" t="n">
-        <v>49.458</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>692.8333333333334</v>
+        <v>693.3666666666667</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>684</v>
-      </c>
-      <c r="K108" t="n">
-        <v>665</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4198,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C109" t="n">
         <v>668</v>
       </c>
       <c r="D109" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E109" t="n">
         <v>668</v>
       </c>
       <c r="F109" t="n">
-        <v>2519.029</v>
+        <v>49.458</v>
       </c>
       <c r="G109" t="n">
-        <v>692.2666666666667</v>
+        <v>692.8333333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4245,10 +4225,10 @@
         <v>668</v>
       </c>
       <c r="F110" t="n">
-        <v>293.6</v>
+        <v>2519.029</v>
       </c>
       <c r="G110" t="n">
-        <v>691.7166666666667</v>
+        <v>692.2666666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4280,10 +4260,10 @@
         <v>668</v>
       </c>
       <c r="F111" t="n">
-        <v>146.8</v>
+        <v>293.6</v>
       </c>
       <c r="G111" t="n">
-        <v>691.15</v>
+        <v>691.7166666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4315,10 +4295,10 @@
         <v>668</v>
       </c>
       <c r="F112" t="n">
-        <v>146.9</v>
+        <v>146.8</v>
       </c>
       <c r="G112" t="n">
-        <v>690.4333333333333</v>
+        <v>691.15</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4341,19 +4321,19 @@
         <v>668</v>
       </c>
       <c r="C113" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D113" t="n">
         <v>668</v>
       </c>
       <c r="E113" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F113" t="n">
-        <v>377.5979</v>
+        <v>146.9</v>
       </c>
       <c r="G113" t="n">
-        <v>689.7</v>
+        <v>690.4333333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4373,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C114" t="n">
         <v>667</v>
       </c>
       <c r="D114" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E114" t="n">
         <v>667</v>
       </c>
       <c r="F114" t="n">
-        <v>1381.1914</v>
+        <v>377.5979</v>
       </c>
       <c r="G114" t="n">
-        <v>688.9666666666667</v>
+        <v>689.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4420,10 +4400,10 @@
         <v>667</v>
       </c>
       <c r="F115" t="n">
-        <v>360</v>
+        <v>1381.1914</v>
       </c>
       <c r="G115" t="n">
-        <v>688.1</v>
+        <v>688.9666666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4455,10 +4435,10 @@
         <v>667</v>
       </c>
       <c r="F116" t="n">
-        <v>463.7999</v>
+        <v>360</v>
       </c>
       <c r="G116" t="n">
-        <v>687.2333333333333</v>
+        <v>688.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4481,28 +4461,32 @@
         <v>667</v>
       </c>
       <c r="C117" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D117" t="n">
         <v>667</v>
       </c>
       <c r="E117" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="F117" t="n">
-        <v>1472.4449</v>
+        <v>463.7999</v>
       </c>
       <c r="G117" t="n">
-        <v>686.3166666666667</v>
+        <v>687.2333333333333</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>667</v>
+      </c>
+      <c r="K117" t="n">
+        <v>667</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
@@ -4513,36 +4497,38 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="C118" t="n">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="D118" t="n">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="E118" t="n">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>1472.4449</v>
       </c>
       <c r="G118" t="n">
-        <v>685.5833333333334</v>
+        <v>686.3166666666667</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>665</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>665</v>
-      </c>
-      <c r="L118" t="inlineStr"/>
+        <v>667</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4552,38 +4538,36 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C119" t="n">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D119" t="n">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="E119" t="n">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F119" t="n">
-        <v>1267.5367</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>684.9</v>
+        <v>685.5833333333334</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>676</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M119" t="n">
@@ -4595,38 +4579,36 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>675</v>
+      </c>
+      <c r="C120" t="n">
         <v>679</v>
       </c>
-      <c r="C120" t="n">
-        <v>670</v>
-      </c>
       <c r="D120" t="n">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="E120" t="n">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="F120" t="n">
-        <v>765.596</v>
+        <v>1267.5367</v>
       </c>
       <c r="G120" t="n">
-        <v>684.3833333333333</v>
+        <v>684.9</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>679</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M120" t="n">
@@ -4638,36 +4620,38 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="C121" t="n">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="D121" t="n">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="E121" t="n">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>765.596</v>
       </c>
       <c r="G121" t="n">
-        <v>684.3333333333334</v>
+        <v>684.3833333333333</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>670</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>670</v>
-      </c>
-      <c r="L121" t="inlineStr"/>
+        <v>667</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4677,22 +4661,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="C122" t="n">
-        <v>668</v>
+        <v>685</v>
       </c>
       <c r="D122" t="n">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="E122" t="n">
-        <v>668</v>
+        <v>685</v>
       </c>
       <c r="F122" t="n">
-        <v>77.583</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>684.0666666666667</v>
+        <v>684.3333333333334</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4702,11 +4686,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M122" t="n">
@@ -4718,22 +4702,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="C123" t="n">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="D123" t="n">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="E123" t="n">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>77.583</v>
       </c>
       <c r="G123" t="n">
-        <v>683.8</v>
+        <v>684.0666666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4743,7 +4727,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -4759,22 +4743,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C124" t="n">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D124" t="n">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E124" t="n">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F124" t="n">
         <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>683.75</v>
+        <v>683.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4784,7 +4768,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -4800,22 +4784,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="C125" t="n">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="D125" t="n">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="E125" t="n">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="F125" t="n">
-        <v>2977.0781</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>683.0666666666667</v>
+        <v>683.75</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4825,7 +4809,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -4841,22 +4825,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="C126" t="n">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="D126" t="n">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="E126" t="n">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>2977.0781</v>
       </c>
       <c r="G126" t="n">
-        <v>682.9166666666666</v>
+        <v>683.0666666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4866,7 +4850,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -4882,22 +4866,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="C127" t="n">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="D127" t="n">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="E127" t="n">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="F127" t="n">
-        <v>338.3587</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>682.6166666666667</v>
+        <v>682.9166666666666</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4907,7 +4891,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -4923,22 +4907,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C128" t="n">
         <v>664</v>
       </c>
       <c r="D128" t="n">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E128" t="n">
         <v>664</v>
       </c>
       <c r="F128" t="n">
-        <v>755.1876999999999</v>
+        <v>338.3587</v>
       </c>
       <c r="G128" t="n">
-        <v>681.9166666666666</v>
+        <v>682.6166666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4948,7 +4932,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -4964,22 +4948,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C129" t="n">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D129" t="n">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="E129" t="n">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="F129" t="n">
-        <v>483.2753</v>
+        <v>755.1876999999999</v>
       </c>
       <c r="G129" t="n">
-        <v>681.2166666666667</v>
+        <v>681.9166666666666</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4989,7 +4973,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5005,22 +4989,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C130" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D130" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E130" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F130" t="n">
-        <v>37.6899</v>
+        <v>483.2753</v>
       </c>
       <c r="G130" t="n">
-        <v>680.4833333333333</v>
+        <v>681.2166666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5030,7 +5014,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5046,22 +5030,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C131" t="n">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="D131" t="n">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E131" t="n">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="F131" t="n">
-        <v>2093.56160074</v>
+        <v>37.6899</v>
       </c>
       <c r="G131" t="n">
-        <v>679.8666666666667</v>
+        <v>680.4833333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5071,7 +5055,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5087,22 +5071,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="C132" t="n">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D132" t="n">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="E132" t="n">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="F132" t="n">
-        <v>10</v>
+        <v>2093.56160074</v>
       </c>
       <c r="G132" t="n">
-        <v>679.1666666666666</v>
+        <v>679.8666666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5112,7 +5096,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5140,10 +5124,10 @@
         <v>663</v>
       </c>
       <c r="F133" t="n">
-        <v>1390</v>
+        <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>678.6</v>
+        <v>679.1666666666666</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5153,7 +5137,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5181,10 +5165,10 @@
         <v>663</v>
       </c>
       <c r="F134" t="n">
-        <v>143.209</v>
+        <v>1390</v>
       </c>
       <c r="G134" t="n">
-        <v>677.8833333333333</v>
+        <v>678.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5194,7 +5178,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5210,32 +5194,34 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C135" t="n">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="D135" t="n">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="E135" t="n">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F135" t="n">
-        <v>1763.8153</v>
+        <v>143.209</v>
       </c>
       <c r="G135" t="n">
-        <v>677.35</v>
+        <v>677.8833333333333</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>663</v>
+      </c>
       <c r="K135" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5251,7 +5237,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C136" t="n">
         <v>671</v>
@@ -5260,13 +5246,13 @@
         <v>671</v>
       </c>
       <c r="E136" t="n">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F136" t="n">
-        <v>160.38</v>
+        <v>1763.8153</v>
       </c>
       <c r="G136" t="n">
-        <v>677.1666666666666</v>
+        <v>677.35</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5276,7 +5262,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5292,22 +5278,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="C137" t="n">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="D137" t="n">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="E137" t="n">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="F137" t="n">
-        <v>210.6522</v>
+        <v>160.38</v>
       </c>
       <c r="G137" t="n">
-        <v>676.45</v>
+        <v>677.1666666666666</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5317,7 +5303,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5333,22 +5319,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C138" t="n">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D138" t="n">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E138" t="n">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F138" t="n">
-        <v>688.0713</v>
+        <v>210.6522</v>
       </c>
       <c r="G138" t="n">
-        <v>676.1</v>
+        <v>676.45</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5358,7 +5344,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5374,22 +5360,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C139" t="n">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D139" t="n">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E139" t="n">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F139" t="n">
-        <v>816.7481</v>
+        <v>688.0713</v>
       </c>
       <c r="G139" t="n">
-        <v>675.8166666666667</v>
+        <v>676.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5399,7 +5385,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5415,7 +5401,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C140" t="n">
         <v>667</v>
@@ -5424,13 +5410,13 @@
         <v>667</v>
       </c>
       <c r="E140" t="n">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F140" t="n">
-        <v>333.5502</v>
+        <v>816.7481</v>
       </c>
       <c r="G140" t="n">
-        <v>675.5666666666667</v>
+        <v>675.8166666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5440,7 +5426,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5456,22 +5442,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C141" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D141" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E141" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="F141" t="n">
-        <v>18</v>
+        <v>333.5502</v>
       </c>
       <c r="G141" t="n">
-        <v>675.2833333333333</v>
+        <v>675.5666666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5481,7 +5467,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5497,22 +5483,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C142" t="n">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D142" t="n">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E142" t="n">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F142" t="n">
-        <v>196.4899</v>
+        <v>18</v>
       </c>
       <c r="G142" t="n">
-        <v>674.65</v>
+        <v>675.2833333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5522,7 +5508,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5538,22 +5524,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C143" t="n">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D143" t="n">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E143" t="n">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F143" t="n">
-        <v>107.3358</v>
+        <v>196.4899</v>
       </c>
       <c r="G143" t="n">
-        <v>674.0333333333333</v>
+        <v>674.65</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5563,7 +5549,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5591,10 +5577,10 @@
         <v>667</v>
       </c>
       <c r="F144" t="n">
-        <v>399.5142</v>
+        <v>107.3358</v>
       </c>
       <c r="G144" t="n">
-        <v>673.7166666666667</v>
+        <v>674.0333333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5604,7 +5590,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5620,22 +5606,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C145" t="n">
         <v>667</v>
       </c>
       <c r="D145" t="n">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E145" t="n">
         <v>667</v>
       </c>
       <c r="F145" t="n">
-        <v>1384.6756</v>
+        <v>399.5142</v>
       </c>
       <c r="G145" t="n">
-        <v>673.2666666666667</v>
+        <v>673.7166666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5645,7 +5631,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -5661,22 +5647,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C146" t="n">
         <v>667</v>
       </c>
       <c r="D146" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E146" t="n">
         <v>667</v>
       </c>
       <c r="F146" t="n">
-        <v>29.8911</v>
+        <v>1384.6756</v>
       </c>
       <c r="G146" t="n">
-        <v>672.8</v>
+        <v>673.2666666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5686,7 +5672,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -5702,22 +5688,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="C147" t="n">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="D147" t="n">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="E147" t="n">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="F147" t="n">
-        <v>2776.48339854</v>
+        <v>29.8911</v>
       </c>
       <c r="G147" t="n">
-        <v>672.75</v>
+        <v>672.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5727,7 +5713,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -5743,7 +5729,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="C148" t="n">
         <v>688</v>
@@ -5752,13 +5738,13 @@
         <v>688</v>
       </c>
       <c r="E148" t="n">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="F148" t="n">
-        <v>590.795</v>
+        <v>2776.48339854</v>
       </c>
       <c r="G148" t="n">
-        <v>672.85</v>
+        <v>672.75</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5768,7 +5754,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -5796,10 +5782,10 @@
         <v>688</v>
       </c>
       <c r="F149" t="n">
-        <v>341.15750146</v>
+        <v>590.795</v>
       </c>
       <c r="G149" t="n">
-        <v>672.8333333333334</v>
+        <v>672.85</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5809,7 +5795,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -5828,19 +5814,19 @@
         <v>688</v>
       </c>
       <c r="C150" t="n">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D150" t="n">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E150" t="n">
         <v>688</v>
       </c>
       <c r="F150" t="n">
-        <v>6125.5961</v>
+        <v>341.15750146</v>
       </c>
       <c r="G150" t="n">
-        <v>672.8833333333333</v>
+        <v>672.8333333333334</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5850,7 +5836,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -5866,7 +5852,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C151" t="n">
         <v>690</v>
@@ -5875,13 +5861,13 @@
         <v>690</v>
       </c>
       <c r="E151" t="n">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F151" t="n">
-        <v>828.1528</v>
+        <v>6125.5961</v>
       </c>
       <c r="G151" t="n">
-        <v>672.9333333333333</v>
+        <v>672.8833333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5891,7 +5877,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -5910,19 +5896,19 @@
         <v>690</v>
       </c>
       <c r="C152" t="n">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D152" t="n">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E152" t="n">
         <v>690</v>
       </c>
       <c r="F152" t="n">
-        <v>1371.7659</v>
+        <v>828.1528</v>
       </c>
       <c r="G152" t="n">
-        <v>672.9833333333333</v>
+        <v>672.9333333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5932,7 +5918,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -5948,7 +5934,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C153" t="n">
         <v>694</v>
@@ -5957,13 +5943,13 @@
         <v>694</v>
       </c>
       <c r="E153" t="n">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="F153" t="n">
-        <v>148</v>
+        <v>1371.7659</v>
       </c>
       <c r="G153" t="n">
-        <v>673.0333333333333</v>
+        <v>672.9833333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5973,7 +5959,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -5992,19 +5978,19 @@
         <v>694</v>
       </c>
       <c r="C154" t="n">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D154" t="n">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="E154" t="n">
         <v>694</v>
       </c>
       <c r="F154" t="n">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="G154" t="n">
-        <v>673.1833333333333</v>
+        <v>673.0333333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6014,7 +6000,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6030,7 +6016,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="C155" t="n">
         <v>700</v>
@@ -6039,13 +6025,13 @@
         <v>700</v>
       </c>
       <c r="E155" t="n">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="F155" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="G155" t="n">
-        <v>673.3333333333334</v>
+        <v>673.1833333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6055,7 +6041,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6074,19 +6060,19 @@
         <v>700</v>
       </c>
       <c r="C156" t="n">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="D156" t="n">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="E156" t="n">
         <v>700</v>
       </c>
       <c r="F156" t="n">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="G156" t="n">
-        <v>673.8</v>
+        <v>673.3333333333334</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6096,7 +6082,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6112,22 +6098,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="C157" t="n">
         <v>713</v>
       </c>
       <c r="D157" t="n">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E157" t="n">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="F157" t="n">
-        <v>589.1002999999999</v>
+        <v>150</v>
       </c>
       <c r="G157" t="n">
-        <v>674.3</v>
+        <v>673.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6137,7 +6123,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6153,7 +6139,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C158" t="n">
         <v>713</v>
@@ -6165,10 +6151,10 @@
         <v>713</v>
       </c>
       <c r="F158" t="n">
-        <v>191.0722</v>
+        <v>589.1002999999999</v>
       </c>
       <c r="G158" t="n">
-        <v>674.8166666666667</v>
+        <v>674.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6178,7 +6164,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6197,19 +6183,19 @@
         <v>714</v>
       </c>
       <c r="C159" t="n">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="D159" t="n">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="E159" t="n">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F159" t="n">
-        <v>80</v>
+        <v>191.0722</v>
       </c>
       <c r="G159" t="n">
-        <v>675.55</v>
+        <v>674.8166666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6219,7 +6205,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6235,7 +6221,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="C160" t="n">
         <v>727</v>
@@ -6244,13 +6230,13 @@
         <v>727</v>
       </c>
       <c r="E160" t="n">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="F160" t="n">
-        <v>3100.8679</v>
+        <v>80</v>
       </c>
       <c r="G160" t="n">
-        <v>676.2833333333333</v>
+        <v>675.55</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6260,7 +6246,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6276,22 +6262,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C161" t="n">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D161" t="n">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E161" t="n">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F161" t="n">
-        <v>923.5074</v>
+        <v>3100.8679</v>
       </c>
       <c r="G161" t="n">
-        <v>677.25</v>
+        <v>676.2833333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6301,7 +6287,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6317,7 +6303,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C162" t="n">
         <v>730</v>
@@ -6326,13 +6312,13 @@
         <v>730</v>
       </c>
       <c r="E162" t="n">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F162" t="n">
-        <v>92</v>
+        <v>923.5074</v>
       </c>
       <c r="G162" t="n">
-        <v>678.2166666666667</v>
+        <v>677.25</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6342,7 +6328,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6358,22 +6344,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="C163" t="n">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="D163" t="n">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="E163" t="n">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="F163" t="n">
-        <v>144.3059</v>
+        <v>92</v>
       </c>
       <c r="G163" t="n">
-        <v>678.9333333333333</v>
+        <v>678.2166666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6383,7 +6369,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6399,22 +6385,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="C164" t="n">
-        <v>701</v>
+        <v>721</v>
       </c>
       <c r="D164" t="n">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="E164" t="n">
-        <v>701</v>
+        <v>721</v>
       </c>
       <c r="F164" t="n">
-        <v>102.2947</v>
+        <v>144.3059</v>
       </c>
       <c r="G164" t="n">
-        <v>679.5333333333333</v>
+        <v>678.9333333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6424,7 +6410,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6440,22 +6426,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="C165" t="n">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="D165" t="n">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="E165" t="n">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="F165" t="n">
-        <v>372.9666</v>
+        <v>102.2947</v>
       </c>
       <c r="G165" t="n">
-        <v>680.0666666666667</v>
+        <v>679.5333333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6465,7 +6451,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6481,22 +6467,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="C166" t="n">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="D166" t="n">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="E166" t="n">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="F166" t="n">
-        <v>938.3057</v>
+        <v>372.9666</v>
       </c>
       <c r="G166" t="n">
-        <v>680.4666666666667</v>
+        <v>680.0666666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6506,7 +6492,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6522,22 +6508,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C167" t="n">
         <v>690</v>
       </c>
       <c r="D167" t="n">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="E167" t="n">
         <v>690</v>
       </c>
       <c r="F167" t="n">
-        <v>8.9238</v>
+        <v>938.3057</v>
       </c>
       <c r="G167" t="n">
-        <v>680.5666666666667</v>
+        <v>680.4666666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6547,7 +6533,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6563,22 +6549,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="C168" t="n">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="D168" t="n">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="E168" t="n">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="F168" t="n">
-        <v>14.881</v>
+        <v>8.9238</v>
       </c>
       <c r="G168" t="n">
-        <v>680.8333333333334</v>
+        <v>680.5666666666667</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6588,7 +6574,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6604,22 +6590,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C169" t="n">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D169" t="n">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E169" t="n">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F169" t="n">
-        <v>165.8923</v>
+        <v>14.881</v>
       </c>
       <c r="G169" t="n">
-        <v>681.0833333333334</v>
+        <v>680.8333333333334</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6629,7 +6615,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -6645,22 +6631,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C170" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D170" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E170" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F170" t="n">
-        <v>696.0972</v>
+        <v>165.8923</v>
       </c>
       <c r="G170" t="n">
-        <v>681.3166666666667</v>
+        <v>681.0833333333334</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6670,7 +6656,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -6686,22 +6672,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C171" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D171" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E171" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F171" t="n">
-        <v>624.5265000000001</v>
+        <v>696.0972</v>
       </c>
       <c r="G171" t="n">
-        <v>681.5333333333333</v>
+        <v>681.3166666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6711,7 +6697,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -6727,22 +6713,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C172" t="n">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D172" t="n">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="E172" t="n">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F172" t="n">
-        <v>150.9653</v>
+        <v>624.5265000000001</v>
       </c>
       <c r="G172" t="n">
-        <v>681.7166666666667</v>
+        <v>681.5333333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6752,7 +6738,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -6768,22 +6754,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="C173" t="n">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="D173" t="n">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="E173" t="n">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="F173" t="n">
-        <v>148.5478</v>
+        <v>150.9653</v>
       </c>
       <c r="G173" t="n">
-        <v>682.0666666666667</v>
+        <v>681.7166666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6793,7 +6779,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -6809,22 +6795,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C174" t="n">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D174" t="n">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E174" t="n">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F174" t="n">
-        <v>245.348</v>
+        <v>148.5478</v>
       </c>
       <c r="G174" t="n">
-        <v>682.4333333333333</v>
+        <v>682.0666666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6834,7 +6820,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -6850,22 +6836,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>711</v>
+        <v>689</v>
       </c>
       <c r="C175" t="n">
-        <v>711</v>
+        <v>689</v>
       </c>
       <c r="D175" t="n">
-        <v>711</v>
+        <v>689</v>
       </c>
       <c r="E175" t="n">
-        <v>711</v>
+        <v>689</v>
       </c>
       <c r="F175" t="n">
-        <v>1</v>
+        <v>245.348</v>
       </c>
       <c r="G175" t="n">
-        <v>683.1666666666666</v>
+        <v>682.4333333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6875,7 +6861,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -6891,22 +6877,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C176" t="n">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D176" t="n">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="E176" t="n">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F176" t="n">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="G176" t="n">
-        <v>683.8666666666667</v>
+        <v>683.1666666666666</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6916,7 +6902,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -6932,22 +6918,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C177" t="n">
         <v>709</v>
       </c>
       <c r="D177" t="n">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E177" t="n">
         <v>709</v>
       </c>
       <c r="F177" t="n">
-        <v>90.7764</v>
+        <v>190</v>
       </c>
       <c r="G177" t="n">
-        <v>684.6</v>
+        <v>683.8666666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6957,7 +6943,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -6973,22 +6959,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C178" t="n">
         <v>709</v>
       </c>
       <c r="D178" t="n">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E178" t="n">
         <v>709</v>
       </c>
       <c r="F178" t="n">
-        <v>3072.4884</v>
+        <v>90.7764</v>
       </c>
       <c r="G178" t="n">
-        <v>685.15</v>
+        <v>684.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6998,7 +6984,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -7014,22 +7000,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C179" t="n">
         <v>709</v>
       </c>
       <c r="D179" t="n">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E179" t="n">
         <v>709</v>
       </c>
       <c r="F179" t="n">
-        <v>112.4056</v>
+        <v>3072.4884</v>
       </c>
       <c r="G179" t="n">
-        <v>685.65</v>
+        <v>685.15</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7039,7 +7025,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -7055,22 +7041,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="C180" t="n">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="D180" t="n">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="E180" t="n">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="F180" t="n">
-        <v>154.2406</v>
+        <v>112.4056</v>
       </c>
       <c r="G180" t="n">
-        <v>686.1666666666666</v>
+        <v>685.65</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7080,7 +7066,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -7096,22 +7082,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
+        <v>702</v>
+      </c>
+      <c r="C181" t="n">
         <v>701</v>
       </c>
-      <c r="C181" t="n">
-        <v>700</v>
-      </c>
       <c r="D181" t="n">
+        <v>702</v>
+      </c>
+      <c r="E181" t="n">
         <v>701</v>
       </c>
-      <c r="E181" t="n">
-        <v>700</v>
-      </c>
       <c r="F181" t="n">
-        <v>135.327</v>
+        <v>154.2406</v>
       </c>
       <c r="G181" t="n">
-        <v>686.4166666666666</v>
+        <v>686.1666666666666</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7121,7 +7107,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -7137,22 +7123,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C182" t="n">
         <v>700</v>
       </c>
       <c r="D182" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E182" t="n">
         <v>700</v>
       </c>
       <c r="F182" t="n">
-        <v>216.9631</v>
+        <v>135.327</v>
       </c>
       <c r="G182" t="n">
-        <v>686.95</v>
+        <v>686.4166666666666</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7162,7 +7148,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -7178,22 +7164,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="C183" t="n">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="D183" t="n">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="E183" t="n">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="F183" t="n">
-        <v>351.4244</v>
+        <v>216.9631</v>
       </c>
       <c r="G183" t="n">
-        <v>687.1</v>
+        <v>686.95</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7203,7 +7189,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -7219,22 +7205,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="C184" t="n">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="D184" t="n">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="E184" t="n">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="F184" t="n">
-        <v>128.7186</v>
+        <v>351.4244</v>
       </c>
       <c r="G184" t="n">
-        <v>687.3333333333334</v>
+        <v>687.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7244,7 +7230,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -7260,22 +7246,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="C185" t="n">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="D185" t="n">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="E185" t="n">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="F185" t="n">
-        <v>10.7329</v>
+        <v>128.7186</v>
       </c>
       <c r="G185" t="n">
-        <v>688</v>
+        <v>687.3333333333334</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7285,7 +7271,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -7301,22 +7287,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="C186" t="n">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D186" t="n">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E186" t="n">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="F186" t="n">
-        <v>200</v>
+        <v>10.7329</v>
       </c>
       <c r="G186" t="n">
-        <v>688.5666666666667</v>
+        <v>688</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7326,7 +7312,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -7342,22 +7328,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="C187" t="n">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="D187" t="n">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="E187" t="n">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="F187" t="n">
-        <v>10.1794</v>
+        <v>200</v>
       </c>
       <c r="G187" t="n">
-        <v>689.4833333333333</v>
+        <v>688.5666666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7367,7 +7353,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -7386,19 +7372,19 @@
         <v>719</v>
       </c>
       <c r="C188" t="n">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D188" t="n">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E188" t="n">
         <v>719</v>
       </c>
       <c r="F188" t="n">
-        <v>716.2165</v>
+        <v>10.1794</v>
       </c>
       <c r="G188" t="n">
-        <v>690.4166666666666</v>
+        <v>689.4833333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7408,7 +7394,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -7424,22 +7410,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="C189" t="n">
-        <v>751</v>
+        <v>720</v>
       </c>
       <c r="D189" t="n">
-        <v>751</v>
+        <v>720</v>
       </c>
       <c r="E189" t="n">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="F189" t="n">
-        <v>6056.82681531</v>
+        <v>716.2165</v>
       </c>
       <c r="G189" t="n">
-        <v>691.9166666666666</v>
+        <v>690.4166666666666</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7449,7 +7435,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -7465,22 +7451,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
+        <v>730</v>
+      </c>
+      <c r="C190" t="n">
         <v>751</v>
       </c>
-      <c r="C190" t="n">
-        <v>759</v>
-      </c>
       <c r="D190" t="n">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="E190" t="n">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="F190" t="n">
-        <v>7487.27778469</v>
+        <v>6056.82681531</v>
       </c>
       <c r="G190" t="n">
-        <v>693.5833333333334</v>
+        <v>691.9166666666666</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7490,7 +7476,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -7506,22 +7492,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="C191" t="n">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="D191" t="n">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="E191" t="n">
-        <v>732</v>
+        <v>751</v>
       </c>
       <c r="F191" t="n">
-        <v>413.2883</v>
+        <v>7487.27778469</v>
       </c>
       <c r="G191" t="n">
-        <v>695.05</v>
+        <v>693.5833333333334</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7531,7 +7517,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -7547,22 +7533,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>743</v>
+        <v>756</v>
       </c>
       <c r="C192" t="n">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="D192" t="n">
-        <v>743</v>
+        <v>756</v>
       </c>
       <c r="E192" t="n">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="F192" t="n">
-        <v>426.2334</v>
+        <v>413.2883</v>
       </c>
       <c r="G192" t="n">
-        <v>696.3166666666667</v>
+        <v>695.05</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7572,7 +7558,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -7580,7 +7566,7 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>1.097985074626866</v>
+        <v>1.126934032983508</v>
       </c>
     </row>
     <row r="193">
@@ -7588,28 +7574,28 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="C193" t="n">
-        <v>756</v>
+        <v>739</v>
       </c>
       <c r="D193" t="n">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="E193" t="n">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="F193" t="n">
-        <v>4219.2243</v>
+        <v>426.2334</v>
       </c>
       <c r="G193" t="n">
-        <v>697.8666666666667</v>
+        <v>696.3166666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
@@ -7623,22 +7609,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>729</v>
+        <v>749</v>
       </c>
       <c r="C194" t="n">
-        <v>728</v>
+        <v>756</v>
       </c>
       <c r="D194" t="n">
-        <v>729</v>
+        <v>759</v>
       </c>
       <c r="E194" t="n">
-        <v>727</v>
+        <v>746</v>
       </c>
       <c r="F194" t="n">
-        <v>3185.1229</v>
+        <v>4219.2243</v>
       </c>
       <c r="G194" t="n">
-        <v>698.95</v>
+        <v>697.8666666666667</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7658,22 +7644,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="C195" t="n">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="D195" t="n">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="E195" t="n">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="F195" t="n">
-        <v>1088.5383</v>
+        <v>3185.1229</v>
       </c>
       <c r="G195" t="n">
-        <v>700.0166666666667</v>
+        <v>698.95</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7693,22 +7679,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>712</v>
+        <v>747</v>
       </c>
       <c r="C196" t="n">
-        <v>702</v>
+        <v>735</v>
       </c>
       <c r="D196" t="n">
-        <v>712</v>
+        <v>747</v>
       </c>
       <c r="E196" t="n">
-        <v>702</v>
+        <v>722</v>
       </c>
       <c r="F196" t="n">
-        <v>1693.1371</v>
+        <v>1088.5383</v>
       </c>
       <c r="G196" t="n">
-        <v>700.5333333333333</v>
+        <v>700.0166666666667</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7728,22 +7714,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="C197" t="n">
         <v>702</v>
       </c>
       <c r="D197" t="n">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="E197" t="n">
         <v>702</v>
       </c>
       <c r="F197" t="n">
-        <v>39.9112</v>
+        <v>1693.1371</v>
       </c>
       <c r="G197" t="n">
-        <v>701.2</v>
+        <v>700.5333333333333</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7763,22 +7749,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C198" t="n">
-        <v>688</v>
+        <v>702</v>
       </c>
       <c r="D198" t="n">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E198" t="n">
-        <v>688</v>
+        <v>702</v>
       </c>
       <c r="F198" t="n">
-        <v>8217.527099999999</v>
+        <v>39.9112</v>
       </c>
       <c r="G198" t="n">
-        <v>701.6166666666667</v>
+        <v>701.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7798,22 +7784,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="C199" t="n">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D199" t="n">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="E199" t="n">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="F199" t="n">
-        <v>140.8645</v>
+        <v>8217.527099999999</v>
       </c>
       <c r="G199" t="n">
-        <v>702.0333333333333</v>
+        <v>701.6166666666667</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7833,22 +7819,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="C200" t="n">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="D200" t="n">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="E200" t="n">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="F200" t="n">
-        <v>270.723</v>
+        <v>140.8645</v>
       </c>
       <c r="G200" t="n">
-        <v>702.65</v>
+        <v>702.0333333333333</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7868,22 +7854,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="C201" t="n">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="D201" t="n">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="E201" t="n">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="F201" t="n">
-        <v>3109.4225</v>
+        <v>270.723</v>
       </c>
       <c r="G201" t="n">
-        <v>703.4</v>
+        <v>702.65</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7903,22 +7889,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="C202" t="n">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="D202" t="n">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="E202" t="n">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="F202" t="n">
-        <v>26.3212</v>
+        <v>3109.4225</v>
       </c>
       <c r="G202" t="n">
-        <v>704</v>
+        <v>703.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7938,22 +7924,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>728</v>
+        <v>700</v>
       </c>
       <c r="C203" t="n">
-        <v>728</v>
+        <v>700</v>
       </c>
       <c r="D203" t="n">
-        <v>728</v>
+        <v>700</v>
       </c>
       <c r="E203" t="n">
-        <v>728</v>
+        <v>700</v>
       </c>
       <c r="F203" t="n">
-        <v>2</v>
+        <v>26.3212</v>
       </c>
       <c r="G203" t="n">
-        <v>705.0166666666667</v>
+        <v>704</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7973,22 +7959,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>705</v>
+        <v>728</v>
       </c>
       <c r="C204" t="n">
-        <v>705</v>
+        <v>728</v>
       </c>
       <c r="D204" t="n">
-        <v>705</v>
+        <v>728</v>
       </c>
       <c r="E204" t="n">
-        <v>705</v>
+        <v>728</v>
       </c>
       <c r="F204" t="n">
-        <v>197.8965</v>
+        <v>2</v>
       </c>
       <c r="G204" t="n">
-        <v>705.65</v>
+        <v>705.0166666666667</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8008,22 +7994,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="C205" t="n">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D205" t="n">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="E205" t="n">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="F205" t="n">
-        <v>4.3683</v>
+        <v>197.8965</v>
       </c>
       <c r="G205" t="n">
-        <v>706.4333333333333</v>
+        <v>705.65</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8043,22 +8029,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="C206" t="n">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="D206" t="n">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="E206" t="n">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="F206" t="n">
-        <v>270.0462</v>
+        <v>4.3683</v>
       </c>
       <c r="G206" t="n">
-        <v>707.0333333333333</v>
+        <v>706.4333333333333</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8078,22 +8064,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C207" t="n">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D207" t="n">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E207" t="n">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F207" t="n">
-        <v>1.0474</v>
+        <v>270.0462</v>
       </c>
       <c r="G207" t="n">
-        <v>707.3</v>
+        <v>707.0333333333333</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8116,19 +8102,19 @@
         <v>704</v>
       </c>
       <c r="C208" t="n">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D208" t="n">
         <v>704</v>
       </c>
       <c r="E208" t="n">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F208" t="n">
-        <v>60.1552</v>
+        <v>1.0474</v>
       </c>
       <c r="G208" t="n">
-        <v>707.55</v>
+        <v>707.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8148,22 +8134,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C209" t="n">
         <v>703</v>
       </c>
       <c r="D209" t="n">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E209" t="n">
         <v>703</v>
       </c>
       <c r="F209" t="n">
-        <v>1.995</v>
+        <v>60.1552</v>
       </c>
       <c r="G209" t="n">
-        <v>707.8</v>
+        <v>707.55</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8186,19 +8172,19 @@
         <v>703</v>
       </c>
       <c r="C210" t="n">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D210" t="n">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E210" t="n">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F210" t="n">
-        <v>3541.4059</v>
+        <v>1.995</v>
       </c>
       <c r="G210" t="n">
-        <v>708.05</v>
+        <v>707.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8218,10 +8204,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
+        <v>703</v>
+      </c>
+      <c r="C211" t="n">
         <v>705</v>
-      </c>
-      <c r="C211" t="n">
-        <v>702</v>
       </c>
       <c r="D211" t="n">
         <v>705</v>
@@ -8230,10 +8216,10 @@
         <v>702</v>
       </c>
       <c r="F211" t="n">
-        <v>870.9985</v>
+        <v>3541.4059</v>
       </c>
       <c r="G211" t="n">
-        <v>708.25</v>
+        <v>708.05</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8253,22 +8239,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
+        <v>705</v>
+      </c>
+      <c r="C212" t="n">
         <v>702</v>
       </c>
-      <c r="C212" t="n">
-        <v>688</v>
-      </c>
       <c r="D212" t="n">
+        <v>705</v>
+      </c>
+      <c r="E212" t="n">
         <v>702</v>
       </c>
-      <c r="E212" t="n">
-        <v>688</v>
-      </c>
       <c r="F212" t="n">
-        <v>2500.6088</v>
+        <v>870.9985</v>
       </c>
       <c r="G212" t="n">
-        <v>708.15</v>
+        <v>708.25</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8288,22 +8274,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
+        <v>702</v>
+      </c>
+      <c r="C213" t="n">
         <v>688</v>
       </c>
-      <c r="C213" t="n">
-        <v>682</v>
-      </c>
       <c r="D213" t="n">
+        <v>702</v>
+      </c>
+      <c r="E213" t="n">
         <v>688</v>
       </c>
-      <c r="E213" t="n">
-        <v>680</v>
-      </c>
       <c r="F213" t="n">
-        <v>2247.6958</v>
+        <v>2500.6088</v>
       </c>
       <c r="G213" t="n">
-        <v>707.95</v>
+        <v>708.15</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8323,22 +8309,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="C214" t="n">
         <v>682</v>
       </c>
       <c r="D214" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="E214" t="n">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F214" t="n">
-        <v>323.2295</v>
+        <v>2247.6958</v>
       </c>
       <c r="G214" t="n">
-        <v>707.65</v>
+        <v>707.95</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8358,22 +8344,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="C215" t="n">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="D215" t="n">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="E215" t="n">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="F215" t="n">
-        <v>187.6784</v>
+        <v>323.2295</v>
       </c>
       <c r="G215" t="n">
-        <v>707.5833333333334</v>
+        <v>707.65</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8393,31 +8379,35 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="C216" t="n">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D216" t="n">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="E216" t="n">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="F216" t="n">
-        <v>351.0743</v>
+        <v>187.6784</v>
       </c>
       <c r="G216" t="n">
-        <v>707.3666666666667</v>
+        <v>707.5833333333334</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>682</v>
+      </c>
+      <c r="K216" t="n">
+        <v>682</v>
+      </c>
       <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
@@ -8428,32 +8418,40 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C217" t="n">
         <v>700</v>
       </c>
       <c r="D217" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E217" t="n">
         <v>700</v>
       </c>
       <c r="F217" t="n">
-        <v>14.0883</v>
+        <v>351.0743</v>
       </c>
       <c r="G217" t="n">
-        <v>707.15</v>
+        <v>707.3666666666667</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>696</v>
+      </c>
+      <c r="K217" t="n">
+        <v>682</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8463,32 +8461,40 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C218" t="n">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="D218" t="n">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="E218" t="n">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="F218" t="n">
-        <v>386.1128</v>
+        <v>14.0883</v>
       </c>
       <c r="G218" t="n">
-        <v>706.8666666666667</v>
+        <v>707.15</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>700</v>
+      </c>
+      <c r="K218" t="n">
+        <v>682</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8498,22 +8504,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C219" t="n">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="D219" t="n">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E219" t="n">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="F219" t="n">
-        <v>907.5094</v>
+        <v>386.1128</v>
       </c>
       <c r="G219" t="n">
-        <v>706.1666666666666</v>
+        <v>706.8666666666667</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8533,22 +8539,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="C220" t="n">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="D220" t="n">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="E220" t="n">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="F220" t="n">
-        <v>417.1913</v>
+        <v>907.5094</v>
       </c>
       <c r="G220" t="n">
-        <v>705.4166666666666</v>
+        <v>706.1666666666666</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8568,22 +8574,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="C221" t="n">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="D221" t="n">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="E221" t="n">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="F221" t="n">
-        <v>1742.2694</v>
+        <v>417.1913</v>
       </c>
       <c r="G221" t="n">
-        <v>704.4666666666667</v>
+        <v>705.4166666666666</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8603,22 +8609,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="C222" t="n">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="D222" t="n">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="E222" t="n">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="F222" t="n">
-        <v>7.431</v>
+        <v>1742.2694</v>
       </c>
       <c r="G222" t="n">
-        <v>703.6666666666666</v>
+        <v>704.4666666666667</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8638,22 +8644,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C223" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D223" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E223" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="F223" t="n">
-        <v>69.1268</v>
+        <v>7.431</v>
       </c>
       <c r="G223" t="n">
-        <v>703.0833333333334</v>
+        <v>703.6666666666666</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8673,22 +8679,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="C224" t="n">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="D224" t="n">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="E224" t="n">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="F224" t="n">
-        <v>1126.3794</v>
+        <v>69.1268</v>
       </c>
       <c r="G224" t="n">
-        <v>702.6</v>
+        <v>703.0833333333334</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8708,22 +8714,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C225" t="n">
         <v>672</v>
       </c>
       <c r="D225" t="n">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E225" t="n">
         <v>672</v>
       </c>
       <c r="F225" t="n">
-        <v>2231.9843</v>
+        <v>1126.3794</v>
       </c>
       <c r="G225" t="n">
-        <v>702.1833333333333</v>
+        <v>702.6</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8743,19 +8749,19 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="C226" t="n">
-        <v>690</v>
+        <v>672</v>
       </c>
       <c r="D226" t="n">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="E226" t="n">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="F226" t="n">
-        <v>51</v>
+        <v>2231.9843</v>
       </c>
       <c r="G226" t="n">
         <v>702.1833333333333</v>
@@ -8778,22 +8784,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="C227" t="n">
-        <v>673</v>
+        <v>690</v>
       </c>
       <c r="D227" t="n">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="E227" t="n">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="F227" t="n">
-        <v>560.0152</v>
+        <v>51</v>
       </c>
       <c r="G227" t="n">
-        <v>701.9</v>
+        <v>702.1833333333333</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8813,22 +8819,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="C228" t="n">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="D228" t="n">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="E228" t="n">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="F228" t="n">
-        <v>29.5774</v>
+        <v>560.0152</v>
       </c>
       <c r="G228" t="n">
-        <v>701.8666666666667</v>
+        <v>701.9</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8848,22 +8854,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="C229" t="n">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="D229" t="n">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="E229" t="n">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="F229" t="n">
-        <v>621.9366</v>
+        <v>29.5774</v>
       </c>
       <c r="G229" t="n">
-        <v>701.6833333333333</v>
+        <v>701.8666666666667</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8883,22 +8889,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C230" t="n">
         <v>672</v>
       </c>
       <c r="D230" t="n">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E230" t="n">
         <v>672</v>
       </c>
       <c r="F230" t="n">
-        <v>285.332</v>
+        <v>621.9366</v>
       </c>
       <c r="G230" t="n">
-        <v>701.5166666666667</v>
+        <v>701.6833333333333</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8930,10 +8936,10 @@
         <v>672</v>
       </c>
       <c r="F231" t="n">
-        <v>153.6094</v>
+        <v>285.332</v>
       </c>
       <c r="G231" t="n">
-        <v>701.3666666666667</v>
+        <v>701.5166666666667</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8953,31 +8959,35 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C232" t="n">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="D232" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E232" t="n">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="F232" t="n">
-        <v>3297.8592</v>
+        <v>153.6094</v>
       </c>
       <c r="G232" t="n">
-        <v>700.9166666666666</v>
+        <v>701.3666666666667</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>672</v>
+      </c>
+      <c r="K232" t="n">
+        <v>672</v>
+      </c>
       <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
@@ -8988,32 +8998,38 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
+        <v>671</v>
+      </c>
+      <c r="C233" t="n">
+        <v>652</v>
+      </c>
+      <c r="D233" t="n">
+        <v>671</v>
+      </c>
+      <c r="E233" t="n">
+        <v>652</v>
+      </c>
+      <c r="F233" t="n">
+        <v>3297.8592</v>
+      </c>
+      <c r="G233" t="n">
+        <v>700.9166666666666</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
         <v>672</v>
       </c>
-      <c r="C233" t="n">
-        <v>672</v>
-      </c>
-      <c r="D233" t="n">
-        <v>672</v>
-      </c>
-      <c r="E233" t="n">
-        <v>672</v>
-      </c>
-      <c r="F233" t="n">
-        <v>98.06319999999999</v>
-      </c>
-      <c r="G233" t="n">
-        <v>700.65</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9023,22 +9039,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="C234" t="n">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="D234" t="n">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="E234" t="n">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="F234" t="n">
-        <v>408.2107</v>
+        <v>98.06319999999999</v>
       </c>
       <c r="G234" t="n">
-        <v>700.25</v>
+        <v>700.65</v>
       </c>
       <c r="H234" t="n">
         <v>1</v>
@@ -9047,12 +9063,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="n">
+        <v>652</v>
+      </c>
+      <c r="K234" t="n">
         <v>672</v>
       </c>
-      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M234" t="n">
@@ -9064,39 +9082,82 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
+        <v>666</v>
+      </c>
+      <c r="C235" t="n">
+        <v>665</v>
+      </c>
+      <c r="D235" t="n">
+        <v>666</v>
+      </c>
+      <c r="E235" t="n">
+        <v>665</v>
+      </c>
+      <c r="F235" t="n">
+        <v>408.2107</v>
+      </c>
+      <c r="G235" t="n">
+        <v>700.25</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>672</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
         <v>663</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C236" t="n">
         <v>660</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D236" t="n">
         <v>663</v>
       </c>
-      <c r="E235" t="n">
+      <c r="E236" t="n">
         <v>660</v>
       </c>
-      <c r="F235" t="n">
+      <c r="F236" t="n">
         <v>823.293</v>
       </c>
-      <c r="G235" t="n">
+      <c r="G236" t="n">
         <v>699.4</v>
       </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="n">
+      <c r="H236" t="n">
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
         <v>665</v>
       </c>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
+      <c r="K236" t="n">
+        <v>672</v>
+      </c>
+      <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M235" t="n">
+      <c r="M236" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-16 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-16 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M236"/>
+  <dimension ref="A1:N246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>201.1929</v>
       </c>
       <c r="G2" t="n">
+        <v>739.2666666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>760.5666666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>530.7121</v>
       </c>
       <c r="G3" t="n">
+        <v>739.1333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>760.0666666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>107.2553</v>
       </c>
       <c r="G4" t="n">
+        <v>736.8666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>759.55</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>88.9742</v>
       </c>
       <c r="G5" t="n">
+        <v>735</v>
+      </c>
+      <c r="H5" t="n">
         <v>759.3166666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>10497.4652</v>
       </c>
       <c r="G6" t="n">
+        <v>733.4</v>
+      </c>
+      <c r="H6" t="n">
         <v>758.55</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>1731.4911</v>
       </c>
       <c r="G7" t="n">
+        <v>731.3333333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>757.6</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>763.1187</v>
       </c>
       <c r="G8" t="n">
+        <v>728.0666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>756.65</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>759.615</v>
       </c>
       <c r="G9" t="n">
+        <v>726.1333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>755.7166666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>1442.5984</v>
       </c>
       <c r="G10" t="n">
+        <v>722.8</v>
+      </c>
+      <c r="H10" t="n">
         <v>754.6666666666666</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>7707.244</v>
       </c>
       <c r="G11" t="n">
+        <v>720.6</v>
+      </c>
+      <c r="H11" t="n">
         <v>753.6333333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>958.0863000000001</v>
       </c>
       <c r="G12" t="n">
+        <v>718.4</v>
+      </c>
+      <c r="H12" t="n">
         <v>752.5</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>6046.1439</v>
       </c>
       <c r="G13" t="n">
+        <v>718.5333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>751.6666666666666</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>1192.0575</v>
       </c>
       <c r="G14" t="n">
+        <v>717.8666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>750.5</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>3389.0143</v>
       </c>
       <c r="G15" t="n">
+        <v>717.6666666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>749.4833333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>846.846</v>
       </c>
       <c r="G16" t="n">
+        <v>715.4666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>748.2666666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
+        <v>714.2</v>
+      </c>
+      <c r="H17" t="n">
         <v>747.4333333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>413.7934</v>
       </c>
       <c r="G18" t="n">
+        <v>712.4</v>
+      </c>
+      <c r="H18" t="n">
         <v>746.55</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>648.3526000000001</v>
       </c>
       <c r="G19" t="n">
+        <v>710.1333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>745.5</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>561.6813</v>
       </c>
       <c r="G20" t="n">
+        <v>709.7333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>744.5833333333334</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>2848.0926</v>
       </c>
       <c r="G21" t="n">
+        <v>711</v>
+      </c>
+      <c r="H21" t="n">
         <v>743.9666666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>106.8549</v>
       </c>
       <c r="G22" t="n">
+        <v>711</v>
+      </c>
+      <c r="H22" t="n">
         <v>742.9833333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>3048.7594</v>
       </c>
       <c r="G23" t="n">
+        <v>711</v>
+      </c>
+      <c r="H23" t="n">
         <v>742</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>3087.7414</v>
       </c>
       <c r="G24" t="n">
+        <v>710.9333333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>741</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>77.9747</v>
       </c>
       <c r="G25" t="n">
+        <v>711.4</v>
+      </c>
+      <c r="H25" t="n">
         <v>740.0166666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>631.9930000000001</v>
       </c>
       <c r="G26" t="n">
+        <v>712.6</v>
+      </c>
+      <c r="H26" t="n">
         <v>739.2333333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>47.6183</v>
       </c>
       <c r="G27" t="n">
+        <v>713.8666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>738.45</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>2204.2916</v>
       </c>
       <c r="G28" t="n">
+        <v>713.0666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>737.3333333333334</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>2045.7984</v>
       </c>
       <c r="G29" t="n">
+        <v>712.9333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>736.15</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>321.3601</v>
       </c>
       <c r="G30" t="n">
+        <v>712.7333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>735.1666666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>1675.7407</v>
       </c>
       <c r="G31" t="n">
+        <v>713.4</v>
+      </c>
+      <c r="H31" t="n">
         <v>734.2333333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>11.7907</v>
       </c>
       <c r="G32" t="n">
+        <v>713.2666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>732.9166666666666</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>990.045</v>
       </c>
       <c r="G33" t="n">
+        <v>713.2</v>
+      </c>
+      <c r="H33" t="n">
         <v>731.6</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>3104.0539</v>
       </c>
       <c r="G34" t="n">
+        <v>712.1333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>730.1666666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
+        <v>712.0666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>729.2666666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>1191.1947</v>
       </c>
       <c r="G36" t="n">
+        <v>710.7333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>728.0166666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>497.4796</v>
       </c>
       <c r="G37" t="n">
+        <v>710.9333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>726.85</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>1524.5273</v>
       </c>
       <c r="G38" t="n">
+        <v>711.0666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>725.8</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>613.3971</v>
       </c>
       <c r="G39" t="n">
+        <v>710.4</v>
+      </c>
+      <c r="H39" t="n">
         <v>724.55</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>26.9959</v>
       </c>
       <c r="G40" t="n">
+        <v>709.8666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>723.6</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>2475.8788</v>
       </c>
       <c r="G41" t="n">
+        <v>708.1333333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>722.6833333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>115.1864</v>
       </c>
       <c r="G42" t="n">
+        <v>706.5333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>721.6833333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>1</v>
       </c>
       <c r="G43" t="n">
+        <v>706.6666666666666</v>
+      </c>
+      <c r="H43" t="n">
         <v>721.3166666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>81</v>
       </c>
       <c r="G44" t="n">
+        <v>706.7333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>720.4166666666666</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>0.462</v>
       </c>
       <c r="G45" t="n">
+        <v>706.8</v>
+      </c>
+      <c r="H45" t="n">
         <v>719.4166666666666</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>1.0268</v>
       </c>
       <c r="G46" t="n">
+        <v>707.4</v>
+      </c>
+      <c r="H46" t="n">
         <v>719.0333333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>573.2474999999999</v>
       </c>
       <c r="G47" t="n">
+        <v>708.1333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>718.7166666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>1.262</v>
       </c>
       <c r="G48" t="n">
+        <v>708.2</v>
+      </c>
+      <c r="H48" t="n">
         <v>718.2333333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>751.3378</v>
       </c>
       <c r="G49" t="n">
+        <v>709</v>
+      </c>
+      <c r="H49" t="n">
         <v>717.0333333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>97.4529</v>
       </c>
       <c r="G50" t="n">
+        <v>708.3333333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>716.2833333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>476.0128</v>
       </c>
       <c r="G51" t="n">
+        <v>707.6</v>
+      </c>
+      <c r="H51" t="n">
         <v>715.6833333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>783.6581</v>
       </c>
       <c r="G52" t="n">
+        <v>706.8666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>715.0333333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>15</v>
       </c>
       <c r="G53" t="n">
+        <v>706.8</v>
+      </c>
+      <c r="H53" t="n">
         <v>714.2333333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>214.9857</v>
       </c>
       <c r="G54" t="n">
+        <v>707.5333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>713.75</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>9.975</v>
       </c>
       <c r="G55" t="n">
+        <v>708.0666666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>713.0333333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>1</v>
       </c>
       <c r="G56" t="n">
+        <v>709.5333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>712.7166666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>200.6588</v>
       </c>
       <c r="G57" t="n">
+        <v>710.8</v>
+      </c>
+      <c r="H57" t="n">
         <v>712.4</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>752.6999</v>
       </c>
       <c r="G58" t="n">
+        <v>711.2666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>712.3833333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>186.0364</v>
       </c>
       <c r="G59" t="n">
+        <v>711.8666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>712.35</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>3</v>
       </c>
       <c r="G60" t="n">
+        <v>712.4666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>712.4166666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>4784.0507</v>
       </c>
       <c r="G61" t="n">
+        <v>711.2666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>711.8833333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>3872.4002</v>
       </c>
       <c r="G62" t="n">
+        <v>709.0666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>711.1666666666666</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>321.3158</v>
       </c>
       <c r="G63" t="n">
+        <v>707.2666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>710.2666666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>2010.0561</v>
       </c>
       <c r="G64" t="n">
+        <v>706.9333333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>709.55</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>5373.4826</v>
       </c>
       <c r="G65" t="n">
+        <v>705.7333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>708.9666666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>1</v>
       </c>
       <c r="G66" t="n">
+        <v>706</v>
+      </c>
+      <c r="H66" t="n">
         <v>708.8333333333334</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>9694.890799999999</v>
       </c>
       <c r="G67" t="n">
+        <v>704.6666666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>708.3666666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>408.7266</v>
       </c>
       <c r="G68" t="n">
+        <v>702.7333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>707.9</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>138.2394</v>
       </c>
       <c r="G69" t="n">
+        <v>702.4</v>
+      </c>
+      <c r="H69" t="n">
         <v>707.8166666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>216.9985</v>
       </c>
       <c r="G70" t="n">
+        <v>701.8666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>707.8</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>367.8</v>
       </c>
       <c r="G71" t="n">
+        <v>700.8</v>
+      </c>
+      <c r="H71" t="n">
         <v>707.7666666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>98.6769</v>
       </c>
       <c r="G72" t="n">
+        <v>699.8</v>
+      </c>
+      <c r="H72" t="n">
         <v>707.75</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>19.2704</v>
       </c>
       <c r="G73" t="n">
+        <v>698.8</v>
+      </c>
+      <c r="H73" t="n">
         <v>707.45</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>216.456</v>
       </c>
       <c r="G74" t="n">
+        <v>697.2666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>707.2</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>1</v>
       </c>
       <c r="G75" t="n">
+        <v>696.3333333333334</v>
+      </c>
+      <c r="H75" t="n">
         <v>707.0833333333334</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>166.5</v>
       </c>
       <c r="G76" t="n">
+        <v>696.4666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>707.1333333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>3989.3746</v>
       </c>
       <c r="G77" t="n">
+        <v>696.0666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>706.6333333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>1</v>
       </c>
       <c r="G78" t="n">
+        <v>697.4666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>706.5333333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>140.1144</v>
       </c>
       <c r="G79" t="n">
+        <v>696.7333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>706.2</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>1702.0292</v>
       </c>
       <c r="G80" t="n">
+        <v>696.7333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>705.7166666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>1004.1327</v>
       </c>
       <c r="G81" t="n">
+        <v>695.2</v>
+      </c>
+      <c r="H81" t="n">
         <v>704.8833333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>2607.3164</v>
       </c>
       <c r="G82" t="n">
+        <v>695.2</v>
+      </c>
+      <c r="H82" t="n">
         <v>704.4166666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>1.0221</v>
       </c>
       <c r="G83" t="n">
+        <v>696.5333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>704.2833333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>379.00553977</v>
       </c>
       <c r="G84" t="n">
+        <v>696.4</v>
+      </c>
+      <c r="H84" t="n">
         <v>704.1833333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>28.3784</v>
       </c>
       <c r="G85" t="n">
+        <v>695.2666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>703.7666666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>272.975</v>
       </c>
       <c r="G86" t="n">
+        <v>694.6666666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>703.2833333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>326.4474</v>
       </c>
       <c r="G87" t="n">
+        <v>694.0666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>702.8</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>338.6267</v>
       </c>
       <c r="G88" t="n">
+        <v>693.1333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>702.4666666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>67.3614</v>
       </c>
       <c r="G89" t="n">
+        <v>692.1333333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>702</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>63.7021</v>
       </c>
       <c r="G90" t="n">
+        <v>691</v>
+      </c>
+      <c r="H90" t="n">
         <v>701.65</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>347.1762</v>
       </c>
       <c r="G91" t="n">
+        <v>689.9333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>701.2666666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>1050.0807</v>
       </c>
       <c r="G92" t="n">
+        <v>690.2666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>700.8833333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>764.2707</v>
       </c>
       <c r="G93" t="n">
+        <v>689.3333333333334</v>
+      </c>
+      <c r="H93" t="n">
         <v>700.5666666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>16.2149</v>
       </c>
       <c r="G94" t="n">
+        <v>689.8</v>
+      </c>
+      <c r="H94" t="n">
         <v>700.6166666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>2.2966</v>
       </c>
       <c r="G95" t="n">
+        <v>690.2666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>700.2666666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>39.2525</v>
       </c>
       <c r="G96" t="n">
+        <v>690.8666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>699.9166666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>5409.3245</v>
       </c>
       <c r="G97" t="n">
+        <v>691.0666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>699.45</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>700.3443</v>
       </c>
       <c r="G98" t="n">
+        <v>689.8</v>
+      </c>
+      <c r="H98" t="n">
         <v>698.9666666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>493.7757</v>
       </c>
       <c r="G99" t="n">
+        <v>688.3333333333334</v>
+      </c>
+      <c r="H99" t="n">
         <v>698.6666666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>913.796</v>
       </c>
       <c r="G100" t="n">
+        <v>688.1333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>698.3333333333334</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>657.9091</v>
       </c>
       <c r="G101" t="n">
+        <v>687.4</v>
+      </c>
+      <c r="H101" t="n">
         <v>698.1</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>157.9928</v>
       </c>
       <c r="G102" t="n">
+        <v>685.8666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>697.6333333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>2160.5665</v>
       </c>
       <c r="G103" t="n">
+        <v>684.6</v>
+      </c>
+      <c r="H103" t="n">
         <v>696.95</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>50.1873</v>
       </c>
       <c r="G104" t="n">
+        <v>684.3333333333334</v>
+      </c>
+      <c r="H104" t="n">
         <v>696.4</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>2293.7269</v>
       </c>
       <c r="G105" t="n">
+        <v>682.7333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>695.6333333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>303.1265</v>
       </c>
       <c r="G106" t="n">
+        <v>681.2666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>694.7333333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>1640.7828</v>
       </c>
       <c r="G107" t="n">
+        <v>679.8666666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>693.8166666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>1</v>
       </c>
       <c r="G108" t="n">
+        <v>679.4</v>
+      </c>
+      <c r="H108" t="n">
         <v>693.3666666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>49.458</v>
       </c>
       <c r="G109" t="n">
+        <v>677.8666666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>692.8333333333334</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>2519.029</v>
       </c>
       <c r="G110" t="n">
+        <v>676.3333333333334</v>
+      </c>
+      <c r="H110" t="n">
         <v>692.2666666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>293.6</v>
       </c>
       <c r="G111" t="n">
+        <v>674.8</v>
+      </c>
+      <c r="H111" t="n">
         <v>691.7166666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>146.8</v>
       </c>
       <c r="G112" t="n">
+        <v>673.6666666666666</v>
+      </c>
+      <c r="H112" t="n">
         <v>691.15</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>146.9</v>
       </c>
       <c r="G113" t="n">
+        <v>672.6666666666666</v>
+      </c>
+      <c r="H113" t="n">
         <v>690.4333333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>377.5979</v>
       </c>
       <c r="G114" t="n">
+        <v>671.6666666666666</v>
+      </c>
+      <c r="H114" t="n">
         <v>689.7</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>1381.1914</v>
       </c>
       <c r="G115" t="n">
+        <v>670.6</v>
+      </c>
+      <c r="H115" t="n">
         <v>688.9666666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>360</v>
       </c>
       <c r="G116" t="n">
+        <v>669.5333333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>688.1</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,22 +4823,21 @@
         <v>463.7999</v>
       </c>
       <c r="G117" t="n">
+        <v>669.2</v>
+      </c>
+      <c r="H117" t="n">
         <v>687.2333333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>667</v>
-      </c>
-      <c r="K117" t="n">
-        <v>667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4512,24 +4861,21 @@
         <v>1472.4449</v>
       </c>
       <c r="G118" t="n">
+        <v>668.7333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>686.3166666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>667</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4553,24 +4899,21 @@
         <v>1</v>
       </c>
       <c r="G119" t="n">
+        <v>668.6</v>
+      </c>
+      <c r="H119" t="n">
         <v>685.5833333333334</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>667</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4594,24 +4937,21 @@
         <v>1267.5367</v>
       </c>
       <c r="G120" t="n">
+        <v>669.5333333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>684.9</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>667</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4635,24 +4975,21 @@
         <v>765.596</v>
       </c>
       <c r="G121" t="n">
+        <v>669.8666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>684.3833333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>667</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4676,24 +5013,21 @@
         <v>1</v>
       </c>
       <c r="G122" t="n">
+        <v>671.1333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>684.3333333333334</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>667</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4717,24 +5051,21 @@
         <v>77.583</v>
       </c>
       <c r="G123" t="n">
+        <v>670.0666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>684.0666666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>667</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4758,24 +5089,21 @@
         <v>1</v>
       </c>
       <c r="G124" t="n">
+        <v>670.8</v>
+      </c>
+      <c r="H124" t="n">
         <v>683.8</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>667</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4799,24 +5127,21 @@
         <v>1</v>
       </c>
       <c r="G125" t="n">
+        <v>671.6666666666666</v>
+      </c>
+      <c r="H125" t="n">
         <v>683.75</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>667</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4840,24 +5165,21 @@
         <v>2977.0781</v>
       </c>
       <c r="G126" t="n">
+        <v>671.4</v>
+      </c>
+      <c r="H126" t="n">
         <v>683.0666666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>667</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4881,24 +5203,21 @@
         <v>1</v>
       </c>
       <c r="G127" t="n">
+        <v>671.7333333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>682.9166666666666</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>667</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4922,24 +5241,21 @@
         <v>338.3587</v>
       </c>
       <c r="G128" t="n">
+        <v>671.4666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>682.6166666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>667</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,24 +5279,21 @@
         <v>755.1876999999999</v>
       </c>
       <c r="G129" t="n">
+        <v>671.2666666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>681.9166666666666</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>667</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5004,24 +5317,21 @@
         <v>483.2753</v>
       </c>
       <c r="G130" t="n">
+        <v>670.8666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>681.2166666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>667</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5045,24 +5355,21 @@
         <v>37.6899</v>
       </c>
       <c r="G131" t="n">
+        <v>670.3333333333334</v>
+      </c>
+      <c r="H131" t="n">
         <v>680.4833333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>667</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,24 +5393,21 @@
         <v>2093.56160074</v>
       </c>
       <c r="G132" t="n">
+        <v>670.3333333333334</v>
+      </c>
+      <c r="H132" t="n">
         <v>679.8666666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>667</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5127,24 +5431,21 @@
         <v>10</v>
       </c>
       <c r="G133" t="n">
+        <v>670.2</v>
+      </c>
+      <c r="H133" t="n">
         <v>679.1666666666666</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>667</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5168,24 +5469,21 @@
         <v>1390</v>
       </c>
       <c r="G134" t="n">
+        <v>669.3333333333334</v>
+      </c>
+      <c r="H134" t="n">
         <v>678.6</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>667</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5209,26 +5507,25 @@
         <v>143.209</v>
       </c>
       <c r="G135" t="n">
+        <v>668.2666666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>677.8833333333333</v>
       </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
         <v>663</v>
       </c>
-      <c r="K135" t="n">
-        <v>667</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>663</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5252,24 +5549,29 @@
         <v>1763.8153</v>
       </c>
       <c r="G136" t="n">
+        <v>668.3333333333334</v>
+      </c>
+      <c r="H136" t="n">
         <v>677.35</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="n">
-        <v>667</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+        <v>663</v>
+      </c>
+      <c r="L136" t="n">
+        <v>663</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,24 +5595,29 @@
         <v>160.38</v>
       </c>
       <c r="G137" t="n">
+        <v>667.4</v>
+      </c>
+      <c r="H137" t="n">
         <v>677.1666666666666</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="n">
-        <v>667</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+        <v>671</v>
+      </c>
+      <c r="L137" t="n">
+        <v>663</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5334,24 +5641,25 @@
         <v>210.6522</v>
       </c>
       <c r="G138" t="n">
+        <v>667</v>
+      </c>
+      <c r="H138" t="n">
         <v>676.45</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="n">
-        <v>667</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+        <v>671</v>
+      </c>
+      <c r="L138" t="n">
+        <v>671</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5375,24 +5683,29 @@
         <v>688.0713</v>
       </c>
       <c r="G139" t="n">
+        <v>665.9333333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>676.1</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="n">
-        <v>667</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+        <v>662</v>
+      </c>
+      <c r="L139" t="n">
+        <v>671</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5416,24 +5729,29 @@
         <v>816.7481</v>
       </c>
       <c r="G140" t="n">
+        <v>665</v>
+      </c>
+      <c r="H140" t="n">
         <v>675.8166666666667</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="n">
-        <v>667</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+        <v>663</v>
+      </c>
+      <c r="L140" t="n">
+        <v>671</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5457,24 +5775,29 @@
         <v>333.5502</v>
       </c>
       <c r="G141" t="n">
+        <v>665.2</v>
+      </c>
+      <c r="H141" t="n">
         <v>675.5666666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="n">
         <v>667</v>
       </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>671</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5498,24 +5821,29 @@
         <v>18</v>
       </c>
       <c r="G142" t="n">
+        <v>664.6666666666666</v>
+      </c>
+      <c r="H142" t="n">
         <v>675.2833333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="n">
         <v>667</v>
       </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>671</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5539,24 +5867,29 @@
         <v>196.4899</v>
       </c>
       <c r="G143" t="n">
+        <v>664.6666666666666</v>
+      </c>
+      <c r="H143" t="n">
         <v>674.65</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="n">
-        <v>667</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+        <v>665</v>
+      </c>
+      <c r="L143" t="n">
+        <v>671</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5580,24 +5913,29 @@
         <v>107.3358</v>
       </c>
       <c r="G144" t="n">
+        <v>664.8666666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>674.0333333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="n">
-        <v>667</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+        <v>664</v>
+      </c>
+      <c r="L144" t="n">
+        <v>671</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5621,24 +5959,29 @@
         <v>399.5142</v>
       </c>
       <c r="G145" t="n">
+        <v>665.2666666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>673.7166666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="n">
         <v>667</v>
       </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>671</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5662,24 +6005,29 @@
         <v>1384.6756</v>
       </c>
       <c r="G146" t="n">
+        <v>665.8</v>
+      </c>
+      <c r="H146" t="n">
         <v>673.2666666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="n">
         <v>667</v>
       </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>671</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5703,24 +6051,29 @@
         <v>29.8911</v>
       </c>
       <c r="G147" t="n">
+        <v>665.8</v>
+      </c>
+      <c r="H147" t="n">
         <v>672.8</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="n">
         <v>667</v>
       </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>671</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5744,24 +6097,29 @@
         <v>2776.48339854</v>
       </c>
       <c r="G148" t="n">
+        <v>667.4666666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>672.75</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="n">
         <v>667</v>
       </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>671</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5785,24 +6143,29 @@
         <v>590.795</v>
       </c>
       <c r="G149" t="n">
+        <v>669.1333333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>672.85</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="n">
-        <v>667</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+        <v>688</v>
+      </c>
+      <c r="L149" t="n">
+        <v>671</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5826,24 +6189,27 @@
         <v>341.15750146</v>
       </c>
       <c r="G150" t="n">
+        <v>670.8</v>
+      </c>
+      <c r="H150" t="n">
         <v>672.8333333333334</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>667</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>671</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5867,24 +6233,27 @@
         <v>6125.5961</v>
       </c>
       <c r="G151" t="n">
+        <v>672.0666666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>672.8833333333333</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>667</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>671</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,24 +6277,27 @@
         <v>828.1528</v>
       </c>
       <c r="G152" t="n">
+        <v>673.3333333333334</v>
+      </c>
+      <c r="H152" t="n">
         <v>672.9333333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>667</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>671</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5949,24 +6321,27 @@
         <v>1371.7659</v>
       </c>
       <c r="G153" t="n">
+        <v>675.4666666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>672.9833333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>667</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>671</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5990,24 +6365,27 @@
         <v>148</v>
       </c>
       <c r="G154" t="n">
+        <v>677.5333333333333</v>
+      </c>
+      <c r="H154" t="n">
         <v>673.0333333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>667</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>671</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6031,24 +6409,27 @@
         <v>100</v>
       </c>
       <c r="G155" t="n">
+        <v>679.7333333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>673.1833333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>667</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>671</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6072,24 +6453,27 @@
         <v>19</v>
       </c>
       <c r="G156" t="n">
+        <v>681.9333333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>673.3333333333334</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>667</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>671</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6113,24 +6497,27 @@
         <v>150</v>
       </c>
       <c r="G157" t="n">
+        <v>685.1333333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>673.8</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>667</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>671</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6154,24 +6541,27 @@
         <v>589.1002999999999</v>
       </c>
       <c r="G158" t="n">
+        <v>688.4</v>
+      </c>
+      <c r="H158" t="n">
         <v>674.3</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>667</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>671</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6195,24 +6585,27 @@
         <v>191.0722</v>
       </c>
       <c r="G159" t="n">
+        <v>691.4666666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>674.8166666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>667</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>671</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6236,24 +6629,27 @@
         <v>80</v>
       </c>
       <c r="G160" t="n">
+        <v>695.4666666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>675.55</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>667</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>671</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6277,24 +6673,27 @@
         <v>3100.8679</v>
       </c>
       <c r="G161" t="n">
+        <v>699.4666666666667</v>
+      </c>
+      <c r="H161" t="n">
         <v>676.2833333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>667</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>671</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6318,24 +6717,27 @@
         <v>923.5074</v>
       </c>
       <c r="G162" t="n">
+        <v>703.6666666666666</v>
+      </c>
+      <c r="H162" t="n">
         <v>677.25</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>667</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>671</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6359,24 +6761,27 @@
         <v>92</v>
       </c>
       <c r="G163" t="n">
+        <v>706.4666666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>678.2166666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>667</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>671</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6400,24 +6805,27 @@
         <v>144.3059</v>
       </c>
       <c r="G164" t="n">
+        <v>708.6666666666666</v>
+      </c>
+      <c r="H164" t="n">
         <v>678.9333333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>667</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>671</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6441,24 +6849,27 @@
         <v>102.2947</v>
       </c>
       <c r="G165" t="n">
+        <v>709.5333333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>679.5333333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>667</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>671</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6482,24 +6893,27 @@
         <v>372.9666</v>
       </c>
       <c r="G166" t="n">
+        <v>710</v>
+      </c>
+      <c r="H166" t="n">
         <v>680.0666666666667</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>667</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>671</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6523,24 +6937,27 @@
         <v>938.3057</v>
       </c>
       <c r="G167" t="n">
+        <v>710</v>
+      </c>
+      <c r="H167" t="n">
         <v>680.4666666666667</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>667</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>671</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6564,24 +6981,27 @@
         <v>8.9238</v>
       </c>
       <c r="G168" t="n">
+        <v>709.7333333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>680.5666666666667</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>667</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>671</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6605,24 +7025,27 @@
         <v>14.881</v>
       </c>
       <c r="G169" t="n">
+        <v>709.0666666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>680.8333333333334</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>667</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>671</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6646,24 +7069,29 @@
         <v>165.8923</v>
       </c>
       <c r="G170" t="n">
+        <v>707.9333333333333</v>
+      </c>
+      <c r="H170" t="n">
         <v>681.0833333333334</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="n">
-        <v>667</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+        <v>684</v>
+      </c>
+      <c r="L170" t="n">
+        <v>671</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6687,24 +7115,29 @@
         <v>696.0972</v>
       </c>
       <c r="G171" t="n">
+        <v>706.7333333333333</v>
+      </c>
+      <c r="H171" t="n">
         <v>681.3166666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="n">
-        <v>667</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+        <v>683</v>
+      </c>
+      <c r="L171" t="n">
+        <v>671</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6728,24 +7161,29 @@
         <v>624.5265000000001</v>
       </c>
       <c r="G172" t="n">
+        <v>704.6</v>
+      </c>
+      <c r="H172" t="n">
         <v>681.5333333333333</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="n">
-        <v>667</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+        <v>682</v>
+      </c>
+      <c r="L172" t="n">
+        <v>671</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6769,24 +7207,29 @@
         <v>150.9653</v>
       </c>
       <c r="G173" t="n">
+        <v>702.3333333333334</v>
+      </c>
+      <c r="H173" t="n">
         <v>681.7166666666667</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="n">
-        <v>667</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+        <v>681</v>
+      </c>
+      <c r="L173" t="n">
+        <v>671</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6810,24 +7253,29 @@
         <v>148.5478</v>
       </c>
       <c r="G174" t="n">
+        <v>700.6666666666666</v>
+      </c>
+      <c r="H174" t="n">
         <v>682.0666666666667</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="n">
-        <v>667</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+        <v>679</v>
+      </c>
+      <c r="L174" t="n">
+        <v>671</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6851,24 +7299,29 @@
         <v>245.348</v>
       </c>
       <c r="G175" t="n">
+        <v>698.1333333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>682.4333333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="n">
-        <v>667</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+        <v>688</v>
+      </c>
+      <c r="L175" t="n">
+        <v>671</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6892,24 +7345,27 @@
         <v>1</v>
       </c>
       <c r="G176" t="n">
+        <v>697.0666666666667</v>
+      </c>
+      <c r="H176" t="n">
         <v>683.1666666666666</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>667</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>671</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6933,24 +7389,27 @@
         <v>190</v>
       </c>
       <c r="G177" t="n">
+        <v>695.6666666666666</v>
+      </c>
+      <c r="H177" t="n">
         <v>683.8666666666667</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>667</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>671</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6974,24 +7433,27 @@
         <v>90.7764</v>
       </c>
       <c r="G178" t="n">
+        <v>694.2666666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>684.6</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>667</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>671</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7015,24 +7477,27 @@
         <v>3072.4884</v>
       </c>
       <c r="G179" t="n">
+        <v>693.4666666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>685.15</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>667</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>671</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7056,24 +7521,27 @@
         <v>112.4056</v>
       </c>
       <c r="G180" t="n">
+        <v>694</v>
+      </c>
+      <c r="H180" t="n">
         <v>685.65</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>667</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>671</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7097,24 +7565,27 @@
         <v>154.2406</v>
       </c>
       <c r="G181" t="n">
+        <v>694.2666666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>686.1666666666666</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>667</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>671</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7138,24 +7609,27 @@
         <v>135.327</v>
       </c>
       <c r="G182" t="n">
+        <v>694.9333333333333</v>
+      </c>
+      <c r="H182" t="n">
         <v>686.4166666666666</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>667</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>671</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7179,24 +7653,27 @@
         <v>216.9631</v>
       </c>
       <c r="G183" t="n">
+        <v>695.6</v>
+      </c>
+      <c r="H183" t="n">
         <v>686.95</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>667</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>671</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7220,24 +7697,27 @@
         <v>351.4244</v>
       </c>
       <c r="G184" t="n">
+        <v>695.8666666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>687.1</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>667</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>671</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7261,24 +7741,27 @@
         <v>128.7186</v>
       </c>
       <c r="G185" t="n">
+        <v>696.6666666666666</v>
+      </c>
+      <c r="H185" t="n">
         <v>687.3333333333334</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>667</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>671</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7302,24 +7785,27 @@
         <v>10.7329</v>
       </c>
       <c r="G186" t="n">
+        <v>698.1333333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>688</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>667</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>671</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7343,24 +7829,27 @@
         <v>200</v>
       </c>
       <c r="G187" t="n">
+        <v>699.8666666666667</v>
+      </c>
+      <c r="H187" t="n">
         <v>688.5666666666667</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>667</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>671</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7384,24 +7873,27 @@
         <v>10.1794</v>
       </c>
       <c r="G188" t="n">
+        <v>702.5333333333333</v>
+      </c>
+      <c r="H188" t="n">
         <v>689.4833333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>667</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>671</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7425,24 +7917,27 @@
         <v>716.2165</v>
       </c>
       <c r="G189" t="n">
+        <v>704.6666666666666</v>
+      </c>
+      <c r="H189" t="n">
         <v>690.4166666666666</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>667</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>671</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7466,24 +7961,27 @@
         <v>6056.82681531</v>
       </c>
       <c r="G190" t="n">
+        <v>708.8</v>
+      </c>
+      <c r="H190" t="n">
         <v>691.9166666666666</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>667</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>671</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7507,24 +8005,27 @@
         <v>7487.27778469</v>
       </c>
       <c r="G191" t="n">
+        <v>712</v>
+      </c>
+      <c r="H191" t="n">
         <v>693.5833333333334</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>667</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>671</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7548,25 +8049,28 @@
         <v>413.2883</v>
       </c>
       <c r="G192" t="n">
+        <v>715.0666666666667</v>
+      </c>
+      <c r="H192" t="n">
         <v>695.05</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
-        <v>1</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>667</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1.126934032983508</v>
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>671</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -7589,18 +8093,27 @@
         <v>426.2334</v>
       </c>
       <c r="G193" t="n">
+        <v>717.0666666666667</v>
+      </c>
+      <c r="H193" t="n">
         <v>696.3166666666667</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
-        <v>1</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="L193" t="n">
+        <v>671</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7624,18 +8137,27 @@
         <v>4219.2243</v>
       </c>
       <c r="G194" t="n">
+        <v>720.2</v>
+      </c>
+      <c r="H194" t="n">
         <v>697.8666666666667</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="L194" t="n">
+        <v>671</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7659,18 +8181,27 @@
         <v>3185.1229</v>
       </c>
       <c r="G195" t="n">
+        <v>721.4666666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>698.95</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="L195" t="n">
+        <v>671</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7694,18 +8225,27 @@
         <v>1088.5383</v>
       </c>
       <c r="G196" t="n">
+        <v>723.7333333333333</v>
+      </c>
+      <c r="H196" t="n">
         <v>700.0166666666667</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="L196" t="n">
+        <v>671</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7729,18 +8269,27 @@
         <v>1693.1371</v>
       </c>
       <c r="G197" t="n">
+        <v>723.8666666666667</v>
+      </c>
+      <c r="H197" t="n">
         <v>700.5333333333333</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="L197" t="n">
+        <v>671</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7764,18 +8313,27 @@
         <v>39.9112</v>
       </c>
       <c r="G198" t="n">
+        <v>724</v>
+      </c>
+      <c r="H198" t="n">
         <v>701.2</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="L198" t="n">
+        <v>671</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7799,18 +8357,27 @@
         <v>8217.527099999999</v>
       </c>
       <c r="G199" t="n">
+        <v>724</v>
+      </c>
+      <c r="H199" t="n">
         <v>701.6166666666667</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="L199" t="n">
+        <v>671</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7834,18 +8401,27 @@
         <v>140.8645</v>
       </c>
       <c r="G200" t="n">
+        <v>723.8</v>
+      </c>
+      <c r="H200" t="n">
         <v>702.0333333333333</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="L200" t="n">
+        <v>671</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7869,18 +8445,27 @@
         <v>270.723</v>
       </c>
       <c r="G201" t="n">
+        <v>723.8</v>
+      </c>
+      <c r="H201" t="n">
         <v>702.65</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="L201" t="n">
+        <v>671</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7904,18 +8489,27 @@
         <v>3109.4225</v>
       </c>
       <c r="G202" t="n">
+        <v>724</v>
+      </c>
+      <c r="H202" t="n">
         <v>703.4</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="L202" t="n">
+        <v>671</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7939,18 +8533,27 @@
         <v>26.3212</v>
       </c>
       <c r="G203" t="n">
+        <v>722.7333333333333</v>
+      </c>
+      <c r="H203" t="n">
         <v>704</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="L203" t="n">
+        <v>671</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7974,18 +8577,27 @@
         <v>2</v>
       </c>
       <c r="G204" t="n">
+        <v>723.2666666666667</v>
+      </c>
+      <c r="H204" t="n">
         <v>705.0166666666667</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="L204" t="n">
+        <v>671</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8009,18 +8621,27 @@
         <v>197.8965</v>
       </c>
       <c r="G205" t="n">
+        <v>720.2</v>
+      </c>
+      <c r="H205" t="n">
         <v>705.65</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="L205" t="n">
+        <v>671</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8044,18 +8665,27 @@
         <v>4.3683</v>
       </c>
       <c r="G206" t="n">
+        <v>717.2</v>
+      </c>
+      <c r="H206" t="n">
         <v>706.4333333333333</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="L206" t="n">
+        <v>671</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8079,18 +8709,27 @@
         <v>270.0462</v>
       </c>
       <c r="G207" t="n">
+        <v>713.7333333333333</v>
+      </c>
+      <c r="H207" t="n">
         <v>707.0333333333333</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="L207" t="n">
+        <v>671</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8114,18 +8753,27 @@
         <v>1.0474</v>
       </c>
       <c r="G208" t="n">
+        <v>711.4</v>
+      </c>
+      <c r="H208" t="n">
         <v>707.3</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="L208" t="n">
+        <v>671</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8149,18 +8797,27 @@
         <v>60.1552</v>
       </c>
       <c r="G209" t="n">
+        <v>707.8666666666667</v>
+      </c>
+      <c r="H209" t="n">
         <v>707.55</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="L209" t="n">
+        <v>671</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8184,18 +8841,27 @@
         <v>1.995</v>
       </c>
       <c r="G210" t="n">
+        <v>706.2</v>
+      </c>
+      <c r="H210" t="n">
         <v>707.8</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="L210" t="n">
+        <v>671</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8219,18 +8885,27 @@
         <v>3541.4059</v>
       </c>
       <c r="G211" t="n">
+        <v>704.2</v>
+      </c>
+      <c r="H211" t="n">
         <v>708.05</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="L211" t="n">
+        <v>671</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8254,18 +8929,27 @@
         <v>870.9985</v>
       </c>
       <c r="G212" t="n">
+        <v>704.2</v>
+      </c>
+      <c r="H212" t="n">
         <v>708.25</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="L212" t="n">
+        <v>671</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8289,18 +8973,27 @@
         <v>2500.6088</v>
       </c>
       <c r="G213" t="n">
+        <v>703.2666666666667</v>
+      </c>
+      <c r="H213" t="n">
         <v>708.15</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="L213" t="n">
+        <v>671</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8324,18 +9017,27 @@
         <v>2247.6958</v>
       </c>
       <c r="G214" t="n">
+        <v>702.8666666666667</v>
+      </c>
+      <c r="H214" t="n">
         <v>707.95</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="L214" t="n">
+        <v>671</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8359,18 +9061,27 @@
         <v>323.2295</v>
       </c>
       <c r="G215" t="n">
+        <v>702.2</v>
+      </c>
+      <c r="H215" t="n">
         <v>707.65</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="L215" t="n">
+        <v>671</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8394,22 +9105,27 @@
         <v>187.6784</v>
       </c>
       <c r="G216" t="n">
+        <v>701.6666666666666</v>
+      </c>
+      <c r="H216" t="n">
         <v>707.5833333333334</v>
       </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
       <c r="J216" t="n">
-        <v>682</v>
-      </c>
-      <c r="K216" t="n">
-        <v>682</v>
-      </c>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>671</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8433,26 +9149,27 @@
         <v>351.0743</v>
       </c>
       <c r="G217" t="n">
+        <v>701</v>
+      </c>
+      <c r="H217" t="n">
         <v>707.3666666666667</v>
       </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
       <c r="J217" t="n">
-        <v>696</v>
-      </c>
-      <c r="K217" t="n">
-        <v>682</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>671</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8476,26 +9193,27 @@
         <v>14.0883</v>
       </c>
       <c r="G218" t="n">
+        <v>701</v>
+      </c>
+      <c r="H218" t="n">
         <v>707.15</v>
       </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>700</v>
-      </c>
-      <c r="K218" t="n">
-        <v>682</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>671</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8519,18 +9237,27 @@
         <v>386.1128</v>
       </c>
       <c r="G219" t="n">
+        <v>698.8666666666667</v>
+      </c>
+      <c r="H219" t="n">
         <v>706.8666666666667</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="L219" t="n">
+        <v>671</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8554,18 +9281,27 @@
         <v>907.5094</v>
       </c>
       <c r="G220" t="n">
+        <v>697.5333333333333</v>
+      </c>
+      <c r="H220" t="n">
         <v>706.1666666666666</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="L220" t="n">
+        <v>671</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8589,18 +9325,27 @@
         <v>417.1913</v>
       </c>
       <c r="G221" t="n">
+        <v>695.4</v>
+      </c>
+      <c r="H221" t="n">
         <v>705.4166666666666</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="L221" t="n">
+        <v>671</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8624,18 +9369,27 @@
         <v>1742.2694</v>
       </c>
       <c r="G222" t="n">
+        <v>693.4</v>
+      </c>
+      <c r="H222" t="n">
         <v>704.4666666666667</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="L222" t="n">
+        <v>671</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8659,18 +9413,27 @@
         <v>7.431</v>
       </c>
       <c r="G223" t="n">
+        <v>691.9333333333333</v>
+      </c>
+      <c r="H223" t="n">
         <v>703.6666666666666</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="L223" t="n">
+        <v>671</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8694,18 +9457,27 @@
         <v>69.1268</v>
       </c>
       <c r="G224" t="n">
+        <v>690.8</v>
+      </c>
+      <c r="H224" t="n">
         <v>703.0833333333334</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="L224" t="n">
+        <v>671</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8729,18 +9501,27 @@
         <v>1126.3794</v>
       </c>
       <c r="G225" t="n">
+        <v>688.7333333333333</v>
+      </c>
+      <c r="H225" t="n">
         <v>702.6</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="L225" t="n">
+        <v>671</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8764,18 +9545,27 @@
         <v>2231.9843</v>
       </c>
       <c r="G226" t="n">
+        <v>686.5333333333333</v>
+      </c>
+      <c r="H226" t="n">
         <v>702.1833333333333</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="L226" t="n">
+        <v>671</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8799,18 +9589,27 @@
         <v>51</v>
       </c>
       <c r="G227" t="n">
+        <v>685.7333333333333</v>
+      </c>
+      <c r="H227" t="n">
         <v>702.1833333333333</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="L227" t="n">
+        <v>671</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8834,18 +9633,27 @@
         <v>560.0152</v>
       </c>
       <c r="G228" t="n">
+        <v>684.7333333333333</v>
+      </c>
+      <c r="H228" t="n">
         <v>701.9</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="L228" t="n">
+        <v>671</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8869,18 +9677,27 @@
         <v>29.5774</v>
       </c>
       <c r="G229" t="n">
+        <v>684.7333333333333</v>
+      </c>
+      <c r="H229" t="n">
         <v>701.8666666666667</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="L229" t="n">
+        <v>671</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8904,18 +9721,27 @@
         <v>621.9366</v>
       </c>
       <c r="G230" t="n">
+        <v>684.0666666666667</v>
+      </c>
+      <c r="H230" t="n">
         <v>701.6833333333333</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="L230" t="n">
+        <v>671</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8939,18 +9765,27 @@
         <v>285.332</v>
       </c>
       <c r="G231" t="n">
+        <v>682.4666666666667</v>
+      </c>
+      <c r="H231" t="n">
         <v>701.5166666666667</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="L231" t="n">
+        <v>671</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8974,22 +9809,27 @@
         <v>153.6094</v>
       </c>
       <c r="G232" t="n">
+        <v>680.6</v>
+      </c>
+      <c r="H232" t="n">
         <v>701.3666666666667</v>
       </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
       <c r="J232" t="n">
-        <v>672</v>
-      </c>
-      <c r="K232" t="n">
-        <v>672</v>
-      </c>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>671</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9013,24 +9853,27 @@
         <v>3297.8592</v>
       </c>
       <c r="G233" t="n">
+        <v>677.4</v>
+      </c>
+      <c r="H233" t="n">
         <v>700.9166666666666</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>672</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>671</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9054,26 +9897,27 @@
         <v>98.06319999999999</v>
       </c>
       <c r="G234" t="n">
+        <v>675.8</v>
+      </c>
+      <c r="H234" t="n">
         <v>700.65</v>
       </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>652</v>
-      </c>
-      <c r="K234" t="n">
-        <v>672</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>671</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9097,24 +9941,27 @@
         <v>408.2107</v>
       </c>
       <c r="G235" t="n">
+        <v>674.4666666666667</v>
+      </c>
+      <c r="H235" t="n">
         <v>700.25</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>672</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>671</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9138,26 +9985,467 @@
         <v>823.293</v>
       </c>
       <c r="G236" t="n">
+        <v>673</v>
+      </c>
+      <c r="H236" t="n">
         <v>699.4</v>
       </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
       <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>671</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>659</v>
+      </c>
+      <c r="C237" t="n">
+        <v>657</v>
+      </c>
+      <c r="D237" t="n">
+        <v>659</v>
+      </c>
+      <c r="E237" t="n">
+        <v>657</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1449.6316</v>
+      </c>
+      <c r="G237" t="n">
+        <v>671.9333333333333</v>
+      </c>
+      <c r="H237" t="n">
+        <v>698.5333333333333</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>671</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>659</v>
+      </c>
+      <c r="C238" t="n">
+        <v>659</v>
+      </c>
+      <c r="D238" t="n">
+        <v>659</v>
+      </c>
+      <c r="E238" t="n">
+        <v>659</v>
+      </c>
+      <c r="F238" t="n">
+        <v>241.718</v>
+      </c>
+      <c r="G238" t="n">
+        <v>670.4</v>
+      </c>
+      <c r="H238" t="n">
+        <v>697.7</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>671</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>660</v>
+      </c>
+      <c r="C239" t="n">
+        <v>661</v>
+      </c>
+      <c r="D239" t="n">
+        <v>661</v>
+      </c>
+      <c r="E239" t="n">
+        <v>660</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1881.5075</v>
+      </c>
+      <c r="G239" t="n">
+        <v>668.7333333333333</v>
+      </c>
+      <c r="H239" t="n">
+        <v>696.9</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>671</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>661</v>
+      </c>
+      <c r="C240" t="n">
+        <v>661</v>
+      </c>
+      <c r="D240" t="n">
+        <v>661</v>
+      </c>
+      <c r="E240" t="n">
+        <v>661</v>
+      </c>
+      <c r="F240" t="n">
+        <v>59.4911</v>
+      </c>
+      <c r="G240" t="n">
+        <v>668</v>
+      </c>
+      <c r="H240" t="n">
+        <v>696.1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>671</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
         <v>665</v>
       </c>
-      <c r="K236" t="n">
+      <c r="C241" t="n">
+        <v>665</v>
+      </c>
+      <c r="D241" t="n">
+        <v>665</v>
+      </c>
+      <c r="E241" t="n">
+        <v>665</v>
+      </c>
+      <c r="F241" t="n">
+        <v>4.0433</v>
+      </c>
+      <c r="G241" t="n">
+        <v>667.5333333333333</v>
+      </c>
+      <c r="H241" t="n">
+        <v>695.5</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>671</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>668</v>
+      </c>
+      <c r="C242" t="n">
+        <v>669</v>
+      </c>
+      <c r="D242" t="n">
+        <v>669</v>
+      </c>
+      <c r="E242" t="n">
+        <v>668</v>
+      </c>
+      <c r="F242" t="n">
+        <v>588.914</v>
+      </c>
+      <c r="G242" t="n">
+        <v>666.1333333333333</v>
+      </c>
+      <c r="H242" t="n">
+        <v>694.9833333333333</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>671</v>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
         <v>672</v>
       </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
+      <c r="C243" t="n">
+        <v>683</v>
+      </c>
+      <c r="D243" t="n">
+        <v>683</v>
+      </c>
+      <c r="E243" t="n">
+        <v>672</v>
+      </c>
+      <c r="F243" t="n">
+        <v>338.7724</v>
+      </c>
+      <c r="G243" t="n">
+        <v>666.8</v>
+      </c>
+      <c r="H243" t="n">
+        <v>694.7</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>671</v>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>684</v>
+      </c>
+      <c r="C244" t="n">
+        <v>708</v>
+      </c>
+      <c r="D244" t="n">
+        <v>708</v>
+      </c>
+      <c r="E244" t="n">
+        <v>684</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1016.0998</v>
+      </c>
+      <c r="G244" t="n">
+        <v>668.5333333333333</v>
+      </c>
+      <c r="H244" t="n">
+        <v>695.0333333333333</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>671</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>707</v>
+      </c>
+      <c r="C245" t="n">
+        <v>708</v>
+      </c>
+      <c r="D245" t="n">
+        <v>708</v>
+      </c>
+      <c r="E245" t="n">
+        <v>707</v>
+      </c>
+      <c r="F245" t="n">
+        <v>465.1578</v>
+      </c>
+      <c r="G245" t="n">
+        <v>670.9333333333333</v>
+      </c>
+      <c r="H245" t="n">
+        <v>695.25</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>671</v>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>707</v>
+      </c>
+      <c r="C246" t="n">
+        <v>708</v>
+      </c>
+      <c r="D246" t="n">
+        <v>709</v>
+      </c>
+      <c r="E246" t="n">
+        <v>707</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1290.8347</v>
+      </c>
+      <c r="G246" t="n">
+        <v>673.3333333333334</v>
+      </c>
+      <c r="H246" t="n">
+        <v>695.3166666666667</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>671</v>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-16 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-16 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N304"/>
+  <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>57924.88311303003</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>57924.88311303003</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>58942.94221303003</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>58942.94221303003</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>59616.61196563004</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>61695.38579186003</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>61695.38579186003</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>61670.38579186003</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>60981.67429186004</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>60991.67429186004</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>56717.74919186004</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>44519.39186010003</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>42618.93560901003</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>43986.54371171004</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7152,18 +6589,19 @@
         <v>-8766.203248519954</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
+        <v>664</v>
+      </c>
+      <c r="J188" t="n">
+        <v>664</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7188,18 +6626,23 @@
         <v>-8803.893148519954</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+        <v>661</v>
+      </c>
+      <c r="J189" t="n">
+        <v>664</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7224,24 +6667,23 @@
         <v>-6710.331547779953</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="J190" t="n">
-        <v>659</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
+        <v>664</v>
+      </c>
+      <c r="K190" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7266,24 +6708,23 @@
         <v>-6720.331547779953</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="J191" t="n">
-        <v>667</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
+        <v>664</v>
+      </c>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7308,24 +6749,23 @@
         <v>-6720.331547779953</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>663</v>
       </c>
       <c r="J192" t="n">
-        <v>663</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
+        <v>664</v>
+      </c>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7350,24 +6790,23 @@
         <v>-6720.331547779953</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>663</v>
       </c>
       <c r="J193" t="n">
-        <v>663</v>
-      </c>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
+        <v>664</v>
+      </c>
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7392,24 +6831,23 @@
         <v>-4956.516247779953</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>663</v>
       </c>
       <c r="J194" t="n">
-        <v>663</v>
-      </c>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
+        <v>664</v>
+      </c>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7434,24 +6872,23 @@
         <v>-4956.516247779953</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>671</v>
       </c>
       <c r="J195" t="n">
-        <v>671</v>
-      </c>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
+        <v>664</v>
+      </c>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7476,24 +6913,23 @@
         <v>-5167.168447779954</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>671</v>
       </c>
       <c r="J196" t="n">
-        <v>671</v>
-      </c>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
+        <v>664</v>
+      </c>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7518,24 +6954,23 @@
         <v>-4479.097147779954</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>662</v>
       </c>
       <c r="J197" t="n">
-        <v>662</v>
-      </c>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
+        <v>664</v>
+      </c>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7560,24 +6995,23 @@
         <v>-3662.349047779954</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>663</v>
       </c>
       <c r="J198" t="n">
-        <v>663</v>
-      </c>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
+        <v>664</v>
+      </c>
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7602,24 +7036,23 @@
         <v>-3662.349047779954</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="J199" t="n">
-        <v>667</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
+        <v>664</v>
+      </c>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7644,24 +7077,23 @@
         <v>-3680.349047779954</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="J200" t="n">
-        <v>667</v>
-      </c>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
+        <v>664</v>
+      </c>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7686,24 +7118,23 @@
         <v>-3876.838947779954</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>665</v>
       </c>
       <c r="J201" t="n">
-        <v>665</v>
-      </c>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
+        <v>664</v>
+      </c>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7728,24 +7159,23 @@
         <v>-3769.503147779954</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>664</v>
       </c>
       <c r="J202" t="n">
         <v>664</v>
       </c>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7770,24 +7200,23 @@
         <v>-3769.503147779954</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="J203" t="n">
-        <v>667</v>
-      </c>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
+        <v>664</v>
+      </c>
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7812,24 +7241,23 @@
         <v>-3769.503147779954</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="J204" t="n">
-        <v>667</v>
-      </c>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
+        <v>664</v>
+      </c>
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7854,24 +7282,23 @@
         <v>-3769.503147779954</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="J205" t="n">
-        <v>667</v>
-      </c>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
+        <v>664</v>
+      </c>
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7896,24 +7323,23 @@
         <v>-993.0197492399543</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="J206" t="n">
-        <v>667</v>
-      </c>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
+        <v>664</v>
+      </c>
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7938,24 +7364,23 @@
         <v>-993.0197492399543</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>688</v>
       </c>
       <c r="J207" t="n">
-        <v>688</v>
-      </c>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
+        <v>664</v>
+      </c>
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7980,24 +7405,23 @@
         <v>-993.0197492399543</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>688</v>
       </c>
       <c r="J208" t="n">
-        <v>688</v>
-      </c>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
+        <v>664</v>
+      </c>
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8022,22 +7446,23 @@
         <v>5132.576350760046</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
+        <v>688</v>
+      </c>
+      <c r="J209" t="n">
+        <v>664</v>
+      </c>
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8064,20 +7489,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>664</v>
+      </c>
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8104,20 +7528,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>664</v>
+      </c>
+      <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8144,20 +7567,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>664</v>
+      </c>
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8184,20 +7606,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>664</v>
+      </c>
+      <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8224,20 +7645,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>664</v>
+      </c>
+      <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8264,20 +7684,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>664</v>
+      </c>
+      <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8304,20 +7723,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>664</v>
+      </c>
+      <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8344,20 +7762,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>664</v>
+      </c>
+      <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8384,20 +7801,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>664</v>
+      </c>
+      <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8424,20 +7840,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>664</v>
+      </c>
+      <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8464,20 +7879,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>664</v>
+      </c>
+      <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8504,20 +7918,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>664</v>
+      </c>
+      <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8544,20 +7957,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>664</v>
+      </c>
+      <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8584,20 +7996,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>664</v>
+      </c>
+      <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8624,20 +8035,19 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>664</v>
+      </c>
+      <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8664,20 +8074,19 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>664</v>
+      </c>
+      <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8704,20 +8113,19 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>664</v>
+      </c>
+      <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8744,20 +8152,19 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>664</v>
+      </c>
+      <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8784,20 +8191,19 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>664</v>
+      </c>
+      <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8824,20 +8230,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>664</v>
+      </c>
+      <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8864,20 +8269,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>664</v>
+      </c>
+      <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8904,20 +8308,19 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>664</v>
+      </c>
+      <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8942,24 +8345,21 @@
         <v>4696.162250760046</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>679</v>
-      </c>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
+        <v>664</v>
+      </c>
+      <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8986,20 +8386,19 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>664</v>
+      </c>
+      <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9026,20 +8425,19 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>664</v>
+      </c>
+      <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9066,20 +8464,19 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>664</v>
+      </c>
+      <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9106,20 +8503,19 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>664</v>
+      </c>
+      <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9146,20 +8542,19 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>664</v>
+      </c>
+      <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9186,20 +8581,19 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>664</v>
+      </c>
+      <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9226,20 +8620,19 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>664</v>
+      </c>
+      <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9266,20 +8659,19 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>664</v>
+      </c>
+      <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9306,20 +8698,19 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>664</v>
+      </c>
+      <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9346,20 +8737,19 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>664</v>
+      </c>
+      <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9384,24 +8774,21 @@
         <v>4240.236850760046</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>688</v>
-      </c>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
+        <v>664</v>
+      </c>
+      <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9426,24 +8813,21 @@
         <v>4250.969750760046</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>695</v>
-      </c>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
+        <v>664</v>
+      </c>
+      <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9470,20 +8854,19 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>664</v>
+      </c>
+      <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9510,20 +8893,19 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>664</v>
+      </c>
+      <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9550,20 +8932,19 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>664</v>
+      </c>
+      <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9590,20 +8971,19 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>664</v>
+      </c>
+      <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9630,20 +9010,19 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>664</v>
+      </c>
+      <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9670,20 +9049,19 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>664</v>
+      </c>
+      <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9708,22 +9086,23 @@
         <v>17881.94855076004</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>664</v>
+      </c>
+      <c r="K251" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
+      <c r="L251" t="n">
+        <v>1.107951807228916</v>
+      </c>
       <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+        <v>1.193645990922844</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9748,22 +9127,15 @@
         <v>22101.17285076004</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9788,22 +9160,15 @@
         <v>18916.04995076004</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9830,20 +9195,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9870,20 +9228,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9908,22 +9259,15 @@
         <v>18311.45115076004</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9948,22 +9292,15 @@
         <v>10093.92405076004</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9990,20 +9327,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10030,20 +9360,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10070,20 +9393,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10110,20 +9426,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10150,20 +9459,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10190,20 +9492,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10230,20 +9525,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10270,20 +9558,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10310,20 +9591,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10350,20 +9624,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10390,20 +9657,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10430,20 +9690,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10470,20 +9723,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10510,20 +9756,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10550,20 +9789,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10590,20 +9822,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10630,20 +9855,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10670,20 +9888,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10710,20 +9921,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10750,20 +9954,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10790,20 +9987,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10830,20 +10020,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10870,20 +10053,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10910,20 +10086,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10950,20 +10119,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10990,20 +10152,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11030,20 +10185,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11070,20 +10218,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11110,20 +10251,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11150,20 +10284,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11190,20 +10317,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11230,20 +10350,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11270,20 +10383,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11310,20 +10416,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11350,20 +10449,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11390,20 +10482,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11430,20 +10515,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11470,20 +10548,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11510,20 +10581,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11550,20 +10614,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11590,20 +10647,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11630,20 +10680,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11670,20 +10713,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11710,20 +10746,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11750,20 +10779,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11790,20 +10812,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11830,22 +10845,15 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-16 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>54025.73127102002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>53059.21897102002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>56318.86980678002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>59075.03620678002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>59075.03620678002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>59075.03620678002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>59075.03620678002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>59075.03620678002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>59838.93307935003</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>57924.88311303003</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>57924.88311303003</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>58942.94221303003</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>58942.94221303003</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>58942.94221303003</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>59295.56166563003</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>59616.61196563004</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>61695.38579186003</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>61695.38579186003</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>61670.38579186003</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>60981.67429186004</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>60991.67429186004</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>56717.74919186004</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>44519.39186010003</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>42434.23789708003</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>42630.09630901003</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>42618.93560901003</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>42540.76540901003</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>42540.76540901003</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>44512.90796289004</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>44383.03956289004</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>44354.03956289004</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>45459.49356132004</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>45469.49356132004</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>45376.66176132004</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>45386.71481171004</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>43986.54371171004</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>42248.41561171004</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>46242.31351171003</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>34415.99301171003</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>34416.99301171003</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>34215.80011171003</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -5797,11 +5797,17 @@
         <v>-5139.130848519956</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>665</v>
+      </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5834,7 +5840,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +5873,17 @@
         <v>-3497.348048519956</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>666</v>
+      </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5900,7 +5916,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5933,7 +5953,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5966,7 +5990,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5999,7 +6027,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6032,7 +6064,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6097,17 @@
         <v>-3924.403948519956</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>668</v>
+      </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6136,17 @@
         <v>-3924.403948519956</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>667</v>
+      </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +6175,17 @@
         <v>-3924.403948519956</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>667</v>
+      </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6214,17 @@
         <v>-3924.403948519956</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>667</v>
+      </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6253,17 @@
         <v>-5396.848848519956</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>667</v>
+      </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6292,17 @@
         <v>-5395.848848519956</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>665</v>
+      </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +6331,17 @@
         <v>-4128.312148519955</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>676</v>
+      </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +6370,17 @@
         <v>-4893.908148519955</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>679</v>
+      </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +6409,17 @@
         <v>-4892.908148519955</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>670</v>
+      </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +6448,17 @@
         <v>-4970.491148519955</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>685</v>
+      </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +6487,17 @@
         <v>-4969.491148519955</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>668</v>
+      </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +6526,17 @@
         <v>-4968.491148519955</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>679</v>
+      </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +6565,17 @@
         <v>-7945.569248519954</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>681</v>
+      </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +6604,17 @@
         <v>-7944.569248519954</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>664</v>
+      </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +6643,17 @@
         <v>-8282.927948519955</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>673</v>
+      </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6556,11 +6682,17 @@
         <v>-8282.927948519955</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>664</v>
+      </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6589,15 +6721,17 @@
         <v>-8766.203248519954</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>664</v>
       </c>
-      <c r="J188" t="n">
-        <v>664</v>
-      </c>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6626,17 +6760,15 @@
         <v>-8803.893148519954</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>661</v>
       </c>
-      <c r="J189" t="n">
-        <v>664</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L189" t="n">
@@ -6667,14 +6799,12 @@
         <v>-6710.331547779953</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>659</v>
       </c>
-      <c r="J190" t="n">
-        <v>664</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6708,14 +6838,12 @@
         <v>-6720.331547779953</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>667</v>
       </c>
-      <c r="J191" t="n">
-        <v>664</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6749,14 +6877,12 @@
         <v>-6720.331547779953</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>663</v>
       </c>
-      <c r="J192" t="n">
-        <v>664</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6790,14 +6916,12 @@
         <v>-6720.331547779953</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>663</v>
       </c>
-      <c r="J193" t="n">
-        <v>664</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6831,14 +6955,12 @@
         <v>-4956.516247779953</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>663</v>
       </c>
-      <c r="J194" t="n">
-        <v>664</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6872,14 +6994,12 @@
         <v>-4956.516247779953</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>671</v>
       </c>
-      <c r="J195" t="n">
-        <v>664</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6913,14 +7033,12 @@
         <v>-5167.168447779954</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>671</v>
       </c>
-      <c r="J196" t="n">
-        <v>664</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6954,14 +7072,12 @@
         <v>-4479.097147779954</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>662</v>
       </c>
-      <c r="J197" t="n">
-        <v>664</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6995,14 +7111,12 @@
         <v>-3662.349047779954</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>663</v>
       </c>
-      <c r="J198" t="n">
-        <v>664</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7036,14 +7150,12 @@
         <v>-3662.349047779954</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>667</v>
       </c>
-      <c r="J199" t="n">
-        <v>664</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7077,14 +7189,12 @@
         <v>-3680.349047779954</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>667</v>
       </c>
-      <c r="J200" t="n">
-        <v>664</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7118,14 +7228,12 @@
         <v>-3876.838947779954</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>665</v>
       </c>
-      <c r="J201" t="n">
-        <v>664</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7159,14 +7267,12 @@
         <v>-3769.503147779954</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>664</v>
       </c>
-      <c r="J202" t="n">
-        <v>664</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7200,14 +7306,12 @@
         <v>-3769.503147779954</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>667</v>
       </c>
-      <c r="J203" t="n">
-        <v>664</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7241,14 +7345,12 @@
         <v>-3769.503147779954</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>667</v>
       </c>
-      <c r="J204" t="n">
-        <v>664</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7282,14 +7384,12 @@
         <v>-3769.503147779954</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>667</v>
       </c>
-      <c r="J205" t="n">
-        <v>664</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7323,14 +7423,12 @@
         <v>-993.0197492399543</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>667</v>
       </c>
-      <c r="J206" t="n">
-        <v>664</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7364,14 +7462,12 @@
         <v>-993.0197492399543</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>688</v>
       </c>
-      <c r="J207" t="n">
-        <v>664</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7405,14 +7501,12 @@
         <v>-993.0197492399543</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>688</v>
       </c>
-      <c r="J208" t="n">
-        <v>664</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7446,14 +7540,10 @@
         <v>5132.576350760046</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>688</v>
-      </c>
-      <c r="J209" t="n">
-        <v>664</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7490,9 +7580,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>664</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7529,9 +7617,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>664</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7568,9 +7654,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>664</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7607,9 +7691,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>664</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7646,9 +7728,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>664</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7685,9 +7765,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>664</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7724,9 +7802,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>664</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7763,9 +7839,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>664</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7802,9 +7876,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>664</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7841,9 +7913,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>664</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7880,9 +7950,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>664</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7919,9 +7987,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>664</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7958,9 +8024,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>664</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7997,9 +8061,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>664</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8036,9 +8098,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>664</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8075,9 +8135,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>664</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8114,9 +8172,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>664</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8153,9 +8209,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>664</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8192,9 +8246,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>664</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8228,12 +8280,12 @@
         <v>5323.106250760045</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>664</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>683</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8267,12 +8319,12 @@
         <v>4698.579750760045</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>664</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>682</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8306,12 +8358,12 @@
         <v>4547.614450760046</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>664</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>681</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8345,12 +8397,12 @@
         <v>4696.162250760046</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>664</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>679</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8387,9 +8439,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>664</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8423,12 +8473,12 @@
         <v>4942.510250760046</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>664</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>689</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8465,9 +8515,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>664</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8504,9 +8552,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>664</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8543,9 +8589,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>664</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8582,9 +8626,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>664</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8621,9 +8663,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>664</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8660,9 +8700,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>664</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8699,9 +8737,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>664</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8735,12 +8771,12 @@
         <v>4111.518250760046</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>664</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>700</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8774,12 +8810,12 @@
         <v>4240.236850760046</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>664</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>688</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8813,12 +8849,12 @@
         <v>4250.969750760046</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>664</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>695</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8852,12 +8888,12 @@
         <v>4450.969750760046</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>664</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>704</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8891,12 +8927,12 @@
         <v>4461.149150760046</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>664</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>707</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8930,12 +8966,12 @@
         <v>5177.365650760046</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>664</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>719</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8972,9 +9008,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>664</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9011,9 +9045,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>664</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9050,9 +9082,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>664</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9086,23 +9116,19 @@
         <v>17881.94855076004</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>664</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L251" t="n">
-        <v>1.107951807228916</v>
-      </c>
-      <c r="M251" t="n">
-        <v>1.193645990922844</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9127,11 +9153,15 @@
         <v>22101.17285076004</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9160,11 +9190,15 @@
         <v>18916.04995076004</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9197,7 +9231,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9230,7 +9268,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9259,11 +9301,15 @@
         <v>18311.45115076004</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9292,11 +9338,15 @@
         <v>10093.92405076004</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9329,7 +9379,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9362,7 +9416,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9395,7 +9453,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9428,7 +9490,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9461,7 +9527,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9494,7 +9564,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9527,7 +9601,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9560,7 +9638,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9593,7 +9675,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9626,7 +9712,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9659,7 +9749,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9692,7 +9786,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9725,7 +9823,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9758,7 +9860,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9791,7 +9897,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9824,7 +9934,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9857,7 +9971,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9890,7 +10008,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9923,7 +10045,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9956,7 +10082,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9989,7 +10119,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10022,7 +10156,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10055,7 +10193,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10088,7 +10230,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10121,7 +10267,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10154,7 +10304,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10187,7 +10341,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10220,7 +10378,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10253,7 +10415,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10286,7 +10452,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10319,7 +10489,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10352,7 +10526,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10385,7 +10563,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10418,7 +10600,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10451,7 +10637,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10484,7 +10674,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10517,7 +10711,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10550,7 +10748,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10579,11 +10781,17 @@
         <v>285.2939507600425</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>657</v>
+      </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10612,11 +10820,17 @@
         <v>2166.801450760042</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>659</v>
+      </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10645,11 +10859,17 @@
         <v>2166.801450760042</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>661</v>
+      </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10678,11 +10898,17 @@
         <v>2170.844750760042</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>661</v>
+      </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10711,11 +10937,17 @@
         <v>2759.758750760042</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>665</v>
+      </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10744,11 +10976,17 @@
         <v>3098.531150760042</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>669</v>
+      </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10781,7 +11019,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10814,7 +11056,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10847,13 +11093,17 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
       <c r="M304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-16 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>54025.73127102002</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>53059.21897102002</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>56318.86980678002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>59075.03620678002</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>59075.03620678002</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>59838.93307935003</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>59838.93307935003</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>58942.94221303003</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>58942.94221303003</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>58942.94221303003</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>59295.56166563003</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>60981.67429186004</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>42434.23789708003</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>42630.09630901003</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>42618.93560901003</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>42540.76540901003</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>42540.76540901003</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>44512.90796289004</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>44383.03956289004</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>44354.03956289004</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>45459.49356132004</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>45469.49356132004</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>45376.66176132004</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>45386.71481171004</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>42248.41561171004</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>46242.31351171003</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>34415.99301171003</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>34416.99301171003</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>34215.80011171003</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -5797,17 +5797,11 @@
         <v>-5139.130848519956</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>665</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5840,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5873,17 +5863,11 @@
         <v>-3497.348048519956</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>666</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5916,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5953,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5990,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6027,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6064,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6097,17 +6061,11 @@
         <v>-3924.403948519956</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>668</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6136,17 +6094,11 @@
         <v>-3924.403948519956</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6175,17 +6127,11 @@
         <v>-3924.403948519956</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6214,17 +6160,11 @@
         <v>-3924.403948519956</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6253,17 +6193,11 @@
         <v>-5396.848848519956</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6292,17 +6226,11 @@
         <v>-5395.848848519956</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>665</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6331,17 +6259,11 @@
         <v>-4128.312148519955</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>676</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6370,17 +6292,11 @@
         <v>-4893.908148519955</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>679</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6409,17 +6325,11 @@
         <v>-4892.908148519955</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6448,17 +6358,11 @@
         <v>-4970.491148519955</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6487,17 +6391,11 @@
         <v>-4969.491148519955</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>668</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6526,17 +6424,11 @@
         <v>-4968.491148519955</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>679</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6565,17 +6457,11 @@
         <v>-7945.569248519954</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>681</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6604,17 +6490,11 @@
         <v>-7944.569248519954</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>664</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6643,17 +6523,11 @@
         <v>-8282.927948519955</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>673</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6682,17 +6556,11 @@
         <v>-8282.927948519955</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>664</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6721,17 +6589,11 @@
         <v>-8766.203248519954</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>664</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6768,7 +6630,7 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L189" t="n">
@@ -7462,11 +7324,9 @@
         <v>-993.0197492399543</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>688</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
@@ -7501,11 +7361,9 @@
         <v>-993.0197492399543</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>688</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
@@ -8280,11 +8138,9 @@
         <v>5323.106250760045</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>683</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
@@ -8319,11 +8175,9 @@
         <v>4698.579750760045</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>682</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
@@ -8358,11 +8212,9 @@
         <v>4547.614450760046</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>681</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -8397,11 +8249,9 @@
         <v>4696.162250760046</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>679</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -8473,11 +8323,9 @@
         <v>4942.510250760046</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>689</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -8771,11 +8619,9 @@
         <v>4111.518250760046</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -8810,11 +8656,9 @@
         <v>4240.236850760046</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>688</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -8849,11 +8693,9 @@
         <v>4250.969750760046</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>695</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -8888,11 +8730,9 @@
         <v>4450.969750760046</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>704</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -8927,11 +8767,9 @@
         <v>4461.149150760046</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>707</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -8966,11 +8804,9 @@
         <v>5177.365650760046</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>719</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -9116,18 +8952,16 @@
         <v>17881.94855076004</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
@@ -9157,11 +8991,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9194,11 +9024,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9231,11 +9057,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9268,11 +9090,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9305,11 +9123,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9342,11 +9156,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9379,11 +9189,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9416,11 +9222,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9453,11 +9255,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9490,11 +9288,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9527,11 +9321,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9564,11 +9354,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9601,11 +9387,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9638,11 +9420,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9675,11 +9453,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9712,11 +9486,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9749,11 +9519,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9786,11 +9552,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9823,11 +9585,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9860,11 +9618,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9897,11 +9651,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9934,11 +9684,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9971,11 +9717,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10008,11 +9750,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10045,11 +9783,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10082,11 +9816,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10119,11 +9849,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10156,11 +9882,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10193,11 +9915,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10230,11 +9948,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10267,11 +9981,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10304,11 +10014,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10341,11 +10047,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10378,11 +10080,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10415,11 +10113,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10452,11 +10146,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10489,11 +10179,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10526,11 +10212,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10563,11 +10245,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10600,11 +10278,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10637,11 +10311,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10674,11 +10344,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10711,11 +10377,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10748,11 +10410,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10781,17 +10439,11 @@
         <v>285.2939507600425</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>657</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10820,17 +10472,11 @@
         <v>2166.801450760042</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>659</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10859,17 +10505,11 @@
         <v>2166.801450760042</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>661</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10898,17 +10538,11 @@
         <v>2170.844750760042</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>661</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10937,17 +10571,11 @@
         <v>2759.758750760042</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>665</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10976,17 +10604,11 @@
         <v>3098.531150760042</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>669</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11019,11 +10641,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11056,11 +10674,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11093,17 +10707,13 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
       <c r="M304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-16 BackTest STRAT.xlsx
@@ -616,7 +616,7 @@
         <v>59075.03620678002</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>59075.03620678002</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>59075.03620678002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>59838.93307935003</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>61918.60426563003</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>61229.94206563004</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>61695.38579186003</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>61670.38579186003</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>60981.67429186004</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>60991.67429186004</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>56717.74919186004</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>53026.72006010004</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -6622,17 +6622,11 @@
         <v>-8803.893148519954</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>661</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6669,7 +6663,7 @@
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L190" t="n">
@@ -7324,9 +7318,11 @@
         <v>-993.0197492399543</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>688</v>
+      </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
@@ -8952,16 +8948,18 @@
         <v>17881.94855076004</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L251" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
       <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
@@ -8991,7 +8989,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9024,7 +9026,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9057,7 +9063,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9090,7 +9100,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9123,7 +9137,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9156,7 +9174,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9189,7 +9211,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9222,7 +9248,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9255,7 +9285,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9288,7 +9322,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9321,7 +9359,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9354,7 +9396,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9387,7 +9433,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9420,7 +9470,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9453,7 +9507,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9486,7 +9544,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9519,7 +9581,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9552,7 +9618,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9585,7 +9655,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9618,7 +9692,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9651,7 +9729,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9684,7 +9766,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9717,7 +9803,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9750,7 +9840,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9783,7 +9877,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9816,7 +9914,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9849,7 +9951,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9882,7 +9988,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9915,7 +10025,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9948,7 +10062,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9981,7 +10099,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10014,7 +10136,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10047,7 +10173,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10080,7 +10210,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10113,7 +10247,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10146,7 +10284,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10179,7 +10321,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10212,7 +10358,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10245,7 +10395,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10278,7 +10432,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10311,7 +10469,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10344,7 +10506,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10377,7 +10543,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10410,7 +10580,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10443,7 +10617,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10476,7 +10654,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10509,7 +10691,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10542,7 +10728,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10575,7 +10765,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10608,7 +10802,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10641,7 +10839,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10674,7 +10876,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10707,7 +10913,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-16 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-16 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M304"/>
+  <dimension ref="A1:L304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>294.5036</v>
       </c>
       <c r="G2" t="n">
-        <v>54025.73127102002</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>966.5123</v>
       </c>
       <c r="G3" t="n">
-        <v>53059.21897102002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>3259.65083576</v>
       </c>
       <c r="G4" t="n">
-        <v>56318.86980678002</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>2756.1664</v>
       </c>
       <c r="G5" t="n">
-        <v>59075.03620678002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>3282.3667</v>
       </c>
       <c r="G6" t="n">
-        <v>59075.03620678002</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>487.95106424</v>
       </c>
       <c r="G7" t="n">
-        <v>59075.03620678002</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>51.63913576</v>
       </c>
       <c r="G8" t="n">
-        <v>59075.03620678002</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>73.60466424000001</v>
       </c>
       <c r="G9" t="n">
-        <v>59075.03620678002</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>763.89687257</v>
       </c>
       <c r="G10" t="n">
-        <v>59838.93307935003</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>626.93069598</v>
       </c>
       <c r="G11" t="n">
-        <v>59838.93307935003</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>81.5368</v>
       </c>
       <c r="G12" t="n">
-        <v>59920.46987935003</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1587.91906632</v>
       </c>
       <c r="G13" t="n">
-        <v>58332.55081303003</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>1352.7347</v>
       </c>
       <c r="G14" t="n">
-        <v>56979.81611303003</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>11.1692</v>
       </c>
       <c r="G15" t="n">
-        <v>56968.64691303003</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>222.938</v>
       </c>
       <c r="G16" t="n">
-        <v>57191.58491303003</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>573.9406</v>
       </c>
       <c r="G17" t="n">
-        <v>57765.52551303004</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>101.6576</v>
       </c>
       <c r="G18" t="n">
-        <v>57867.18311303003</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>57.7</v>
       </c>
       <c r="G19" t="n">
-        <v>57924.88311303003</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>142.3</v>
       </c>
       <c r="G20" t="n">
-        <v>57924.88311303003</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>200</v>
       </c>
       <c r="G21" t="n">
-        <v>57924.88311303003</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1018.0591</v>
       </c>
       <c r="G22" t="n">
-        <v>58942.94221303003</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>600.0368</v>
       </c>
       <c r="G23" t="n">
-        <v>58942.94221303003</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>7001.6921</v>
       </c>
       <c r="G24" t="n">
-        <v>58942.94221303003</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>352.6194526</v>
       </c>
       <c r="G25" t="n">
-        <v>59295.56166563003</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>588.405</v>
       </c>
       <c r="G26" t="n">
-        <v>59883.96666563003</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>2034.6376</v>
       </c>
       <c r="G27" t="n">
-        <v>61918.60426563003</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>688.6622</v>
       </c>
       <c r="G28" t="n">
-        <v>61229.94206563004</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>1613.3301</v>
       </c>
       <c r="G29" t="n">
-        <v>59616.61196563004</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>2078.77382623</v>
       </c>
       <c r="G30" t="n">
-        <v>61695.38579186003</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>218.60291508</v>
       </c>
       <c r="G31" t="n">
-        <v>61695.38579186003</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>25</v>
       </c>
       <c r="G32" t="n">
-        <v>61670.38579186003</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>688.7115</v>
       </c>
       <c r="G33" t="n">
-        <v>60981.67429186004</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>60991.67429186004</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>4273.9251</v>
       </c>
       <c r="G35" t="n">
-        <v>56717.74919186004</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>3691.02913176</v>
       </c>
       <c r="G36" t="n">
-        <v>53026.72006010004</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>483.04308387</v>
       </c>
       <c r="G37" t="n">
-        <v>53026.72006010004</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1497.3282</v>
       </c>
       <c r="G38" t="n">
-        <v>51529.39186010003</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>7010</v>
       </c>
       <c r="G39" t="n">
-        <v>44519.39186010003</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>320.7258</v>
       </c>
       <c r="G40" t="n">
-        <v>44840.11766010003</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>2667.56006302</v>
       </c>
       <c r="G41" t="n">
-        <v>42172.55759708003</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>261.6803</v>
       </c>
       <c r="G42" t="n">
-        <v>42434.23789708003</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>195.85841193</v>
       </c>
       <c r="G43" t="n">
-        <v>42630.09630901003</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>11.1607</v>
       </c>
       <c r="G44" t="n">
-        <v>42618.93560901003</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>78.17019999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>42540.76540901003</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>500</v>
       </c>
       <c r="G46" t="n">
-        <v>42540.76540901003</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1972.14255388</v>
       </c>
       <c r="G47" t="n">
-        <v>44512.90796289004</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>129.8684</v>
       </c>
       <c r="G48" t="n">
-        <v>44383.03956289004</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>29</v>
       </c>
       <c r="G49" t="n">
-        <v>44354.03956289004</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1105.45399843</v>
       </c>
       <c r="G50" t="n">
-        <v>45459.49356132004</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>45469.49356132004</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>92.8318</v>
       </c>
       <c r="G52" t="n">
-        <v>45376.66176132004</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>10.05305039</v>
       </c>
       <c r="G53" t="n">
-        <v>45386.71481171004</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>1400.1711</v>
       </c>
       <c r="G54" t="n">
-        <v>43986.54371171004</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>3626.13950691</v>
       </c>
       <c r="G55" t="n">
-        <v>43986.54371171004</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>1738.1281</v>
       </c>
       <c r="G56" t="n">
-        <v>42248.41561171004</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>3993.8979</v>
       </c>
       <c r="G57" t="n">
-        <v>46242.31351171003</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>11826.3205</v>
       </c>
       <c r="G58" t="n">
-        <v>34415.99301171003</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>34416.99301171003</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>201.1929</v>
       </c>
       <c r="G60" t="n">
-        <v>34215.80011171003</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>530.7121</v>
       </c>
       <c r="G61" t="n">
-        <v>34746.51221171003</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>107.2553</v>
       </c>
       <c r="G62" t="n">
-        <v>34746.51221171003</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>88.9742</v>
       </c>
       <c r="G63" t="n">
-        <v>34657.53801171003</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>10497.4652</v>
       </c>
       <c r="G64" t="n">
-        <v>24160.07281171003</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>1731.4911</v>
       </c>
       <c r="G65" t="n">
-        <v>22428.58171171003</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>763.1187</v>
       </c>
       <c r="G66" t="n">
-        <v>22428.58171171003</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>759.615</v>
       </c>
       <c r="G67" t="n">
-        <v>23188.19671171003</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>1442.5984</v>
       </c>
       <c r="G68" t="n">
-        <v>21745.59831171003</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>7707.244</v>
       </c>
       <c r="G69" t="n">
-        <v>29452.84231171003</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>958.0863000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>29452.84231171003</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>6046.1439</v>
       </c>
       <c r="G71" t="n">
-        <v>35498.98621171003</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>1192.0575</v>
       </c>
       <c r="G72" t="n">
-        <v>34306.92871171003</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>3389.0143</v>
       </c>
       <c r="G73" t="n">
-        <v>37695.94301171003</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>846.846</v>
       </c>
       <c r="G74" t="n">
-        <v>36849.09701171004</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>36850.09701171004</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>413.7934</v>
       </c>
       <c r="G76" t="n">
-        <v>36436.30361171003</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>648.3526000000001</v>
       </c>
       <c r="G77" t="n">
-        <v>35787.95101171004</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>561.6813</v>
       </c>
       <c r="G78" t="n">
-        <v>36349.63231171003</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>2848.0926</v>
       </c>
       <c r="G79" t="n">
-        <v>39197.72491171003</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>106.8549</v>
       </c>
       <c r="G80" t="n">
-        <v>39090.87001171003</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>3048.7594</v>
       </c>
       <c r="G81" t="n">
-        <v>39090.87001171003</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>3087.7414</v>
       </c>
       <c r="G82" t="n">
-        <v>39090.87001171003</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>77.9747</v>
       </c>
       <c r="G83" t="n">
-        <v>39168.84471171003</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>631.9930000000001</v>
       </c>
       <c r="G84" t="n">
-        <v>39800.83771171003</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>47.6183</v>
       </c>
       <c r="G85" t="n">
-        <v>39848.45601171003</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>2204.2916</v>
       </c>
       <c r="G86" t="n">
-        <v>37644.16441171004</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>2045.7984</v>
       </c>
       <c r="G87" t="n">
-        <v>35598.36601171004</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>321.3601</v>
       </c>
       <c r="G88" t="n">
-        <v>35598.36601171004</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>1675.7407</v>
       </c>
       <c r="G89" t="n">
-        <v>35598.36601171004</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>11.7907</v>
       </c>
       <c r="G90" t="n">
-        <v>35598.36601171004</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>990.045</v>
       </c>
       <c r="G91" t="n">
-        <v>35598.36601171004</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>3104.0539</v>
       </c>
       <c r="G92" t="n">
-        <v>32494.31211171004</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>32495.31211171004</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>1191.1947</v>
       </c>
       <c r="G94" t="n">
-        <v>32495.31211171004</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>497.4796</v>
       </c>
       <c r="G95" t="n">
-        <v>32992.79171171004</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>1524.5273</v>
       </c>
       <c r="G96" t="n">
-        <v>31468.26441171004</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>613.3971</v>
       </c>
       <c r="G97" t="n">
-        <v>30854.86731171004</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>26.9959</v>
       </c>
       <c r="G98" t="n">
-        <v>30881.86321171004</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>2475.8788</v>
       </c>
       <c r="G99" t="n">
-        <v>28405.98441171004</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>115.1864</v>
       </c>
       <c r="G100" t="n">
-        <v>28521.17081171004</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>28522.17081171004</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>81</v>
       </c>
       <c r="G102" t="n">
-        <v>28441.17081171004</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>0.462</v>
       </c>
       <c r="G103" t="n">
-        <v>28441.17081171004</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>1.0268</v>
       </c>
       <c r="G104" t="n">
-        <v>28442.19761171004</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>573.2474999999999</v>
       </c>
       <c r="G105" t="n">
-        <v>29015.44511171004</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>1.262</v>
       </c>
       <c r="G106" t="n">
-        <v>29014.18311171004</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>751.3378</v>
       </c>
       <c r="G107" t="n">
-        <v>28262.84531171004</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>97.4529</v>
       </c>
       <c r="G108" t="n">
-        <v>28360.29821171004</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>476.0128</v>
       </c>
       <c r="G109" t="n">
-        <v>27884.28541171004</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>783.6581</v>
       </c>
       <c r="G110" t="n">
-        <v>28667.94351171004</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>15</v>
       </c>
       <c r="G111" t="n">
-        <v>28682.94351171004</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>214.9857</v>
       </c>
       <c r="G112" t="n">
-        <v>28682.94351171004</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>9.975</v>
       </c>
       <c r="G113" t="n">
-        <v>28682.94351171004</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>28683.94351171004</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>200.6588</v>
       </c>
       <c r="G115" t="n">
-        <v>28683.94351171004</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>752.6999</v>
       </c>
       <c r="G116" t="n">
-        <v>29436.64341171004</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>186.0364</v>
       </c>
       <c r="G117" t="n">
-        <v>29436.64341171004</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>3</v>
       </c>
       <c r="G118" t="n">
-        <v>29436.64341171004</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>4784.0507</v>
       </c>
       <c r="G119" t="n">
-        <v>24652.59271171004</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>3872.4002</v>
       </c>
       <c r="G120" t="n">
-        <v>20780.19251171004</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>321.3158</v>
       </c>
       <c r="G121" t="n">
-        <v>20458.87671171004</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>2010.0561</v>
       </c>
       <c r="G122" t="n">
-        <v>22468.93281171004</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>5373.4826</v>
       </c>
       <c r="G123" t="n">
-        <v>17095.45021171004</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>17096.45021171004</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>9694.890799999999</v>
       </c>
       <c r="G125" t="n">
-        <v>7401.559411710043</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>408.7266</v>
       </c>
       <c r="G126" t="n">
-        <v>7401.559411710043</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>138.2394</v>
       </c>
       <c r="G127" t="n">
-        <v>7539.798811710043</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>216.9985</v>
       </c>
       <c r="G128" t="n">
-        <v>7322.800311710043</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>367.8</v>
       </c>
       <c r="G129" t="n">
-        <v>7322.800311710043</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>98.6769</v>
       </c>
       <c r="G130" t="n">
-        <v>7421.477211710044</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>19.2704</v>
       </c>
       <c r="G131" t="n">
-        <v>7440.747611710044</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>216.456</v>
       </c>
       <c r="G132" t="n">
-        <v>7224.291611710044</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>7225.291611710044</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>166.5</v>
       </c>
       <c r="G134" t="n">
-        <v>7058.791611710044</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>3989.3746</v>
       </c>
       <c r="G135" t="n">
-        <v>3069.417011710044</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>3070.417011710044</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>140.1144</v>
       </c>
       <c r="G137" t="n">
-        <v>2930.302611710044</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>1702.0292</v>
       </c>
       <c r="G138" t="n">
-        <v>2930.302611710044</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>1004.1327</v>
       </c>
       <c r="G139" t="n">
-        <v>1926.169911710044</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>2607.3164</v>
       </c>
       <c r="G140" t="n">
-        <v>1926.169911710044</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>1.0221</v>
       </c>
       <c r="G141" t="n">
-        <v>1927.192011710044</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>379.00553977</v>
       </c>
       <c r="G142" t="n">
-        <v>2306.197551480044</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>28.3784</v>
       </c>
       <c r="G143" t="n">
-        <v>2277.819151480044</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>272.975</v>
       </c>
       <c r="G144" t="n">
-        <v>2550.794151480044</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>326.4474</v>
       </c>
       <c r="G145" t="n">
-        <v>2877.241551480044</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>338.6267</v>
       </c>
       <c r="G146" t="n">
-        <v>2538.614851480043</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>67.3614</v>
       </c>
       <c r="G147" t="n">
-        <v>2471.253451480044</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>63.7021</v>
       </c>
       <c r="G148" t="n">
-        <v>2534.955551480044</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>347.1762</v>
       </c>
       <c r="G149" t="n">
-        <v>2187.779351480044</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>1050.0807</v>
       </c>
       <c r="G150" t="n">
-        <v>2187.779351480044</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>764.2707</v>
       </c>
       <c r="G151" t="n">
-        <v>2952.050051480044</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>16.2149</v>
       </c>
       <c r="G152" t="n">
-        <v>2952.050051480044</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>2.2966</v>
       </c>
       <c r="G153" t="n">
-        <v>2952.050051480044</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>39.2525</v>
       </c>
       <c r="G154" t="n">
-        <v>2952.050051480044</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>5409.3245</v>
       </c>
       <c r="G155" t="n">
-        <v>-2457.274448519956</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>700.3443</v>
       </c>
       <c r="G156" t="n">
-        <v>-3157.618748519956</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>493.7757</v>
       </c>
       <c r="G157" t="n">
-        <v>-3651.394448519956</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>913.796</v>
       </c>
       <c r="G158" t="n">
-        <v>-2737.598448519956</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>657.9091</v>
       </c>
       <c r="G159" t="n">
-        <v>-2737.598448519956</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>157.9928</v>
       </c>
       <c r="G160" t="n">
-        <v>-2895.591248519956</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>2160.5665</v>
       </c>
       <c r="G161" t="n">
-        <v>-2895.591248519956</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>50.1873</v>
       </c>
       <c r="G162" t="n">
-        <v>-2845.403948519956</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>2293.7269</v>
       </c>
       <c r="G163" t="n">
-        <v>-5139.130848519956</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>303.1265</v>
       </c>
       <c r="G164" t="n">
-        <v>-5139.130848519956</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>1640.7828</v>
       </c>
       <c r="G165" t="n">
-        <v>-3498.348048519956</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>1</v>
       </c>
       <c r="G166" t="n">
-        <v>-3497.348048519956</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>49.458</v>
       </c>
       <c r="G167" t="n">
-        <v>-3546.806048519956</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>2519.029</v>
       </c>
       <c r="G168" t="n">
-        <v>-3546.806048519956</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>293.6</v>
       </c>
       <c r="G169" t="n">
-        <v>-3546.806048519956</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>146.8</v>
       </c>
       <c r="G170" t="n">
-        <v>-3546.806048519956</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>146.9</v>
       </c>
       <c r="G171" t="n">
-        <v>-3546.806048519956</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>377.5979</v>
       </c>
       <c r="G172" t="n">
-        <v>-3924.403948519956</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>1381.1914</v>
       </c>
       <c r="G173" t="n">
-        <v>-3924.403948519956</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>360</v>
       </c>
       <c r="G174" t="n">
-        <v>-3924.403948519956</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>463.7999</v>
       </c>
       <c r="G175" t="n">
-        <v>-3924.403948519956</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>1472.4449</v>
       </c>
       <c r="G176" t="n">
-        <v>-5396.848848519956</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>1</v>
       </c>
       <c r="G177" t="n">
-        <v>-5395.848848519956</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>1267.5367</v>
       </c>
       <c r="G178" t="n">
-        <v>-4128.312148519955</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>765.596</v>
       </c>
       <c r="G179" t="n">
-        <v>-4893.908148519955</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>1</v>
       </c>
       <c r="G180" t="n">
-        <v>-4892.908148519955</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>77.583</v>
       </c>
       <c r="G181" t="n">
-        <v>-4970.491148519955</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>1</v>
       </c>
       <c r="G182" t="n">
-        <v>-4969.491148519955</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>1</v>
       </c>
       <c r="G183" t="n">
-        <v>-4968.491148519955</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>2977.0781</v>
       </c>
       <c r="G184" t="n">
-        <v>-7945.569248519954</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>1</v>
       </c>
       <c r="G185" t="n">
-        <v>-7944.569248519954</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>338.3587</v>
       </c>
       <c r="G186" t="n">
-        <v>-8282.927948519955</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>755.1876999999999</v>
       </c>
       <c r="G187" t="n">
-        <v>-8282.927948519955</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>483.2753</v>
       </c>
       <c r="G188" t="n">
-        <v>-8766.203248519954</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>37.6899</v>
       </c>
       <c r="G189" t="n">
-        <v>-8803.893148519954</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,24 +6083,15 @@
         <v>2093.56160074</v>
       </c>
       <c r="G190" t="n">
-        <v>-6710.331547779953</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>659</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6691,24 +6113,15 @@
         <v>10</v>
       </c>
       <c r="G191" t="n">
-        <v>-6720.331547779953</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6730,24 +6143,15 @@
         <v>1390</v>
       </c>
       <c r="G192" t="n">
-        <v>-6720.331547779953</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>663</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6769,24 +6173,15 @@
         <v>143.209</v>
       </c>
       <c r="G193" t="n">
-        <v>-6720.331547779953</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>663</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6808,24 +6203,19 @@
         <v>1763.8153</v>
       </c>
       <c r="G194" t="n">
-        <v>-4956.516247779953</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>663</v>
       </c>
       <c r="I194" t="n">
         <v>663</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6847,24 +6237,23 @@
         <v>160.38</v>
       </c>
       <c r="G195" t="n">
-        <v>-4956.516247779953</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>671</v>
       </c>
       <c r="I195" t="n">
-        <v>671</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>663</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6886,24 +6275,21 @@
         <v>210.6522</v>
       </c>
       <c r="G196" t="n">
-        <v>-5167.168447779954</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="n">
-        <v>671</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>663</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6925,24 +6311,19 @@
         <v>688.0713</v>
       </c>
       <c r="G197" t="n">
-        <v>-4479.097147779954</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>662</v>
       </c>
       <c r="I197" t="n">
         <v>662</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6964,24 +6345,23 @@
         <v>816.7481</v>
       </c>
       <c r="G198" t="n">
-        <v>-3662.349047779954</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>663</v>
       </c>
       <c r="I198" t="n">
-        <v>663</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>662</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7003,24 +6383,23 @@
         <v>333.5502</v>
       </c>
       <c r="G199" t="n">
-        <v>-3662.349047779954</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>667</v>
       </c>
       <c r="I199" t="n">
-        <v>667</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>662</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7042,24 +6421,19 @@
         <v>18</v>
       </c>
       <c r="G200" t="n">
-        <v>-3680.349047779954</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>667</v>
       </c>
       <c r="I200" t="n">
         <v>667</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7081,24 +6455,23 @@
         <v>196.4899</v>
       </c>
       <c r="G201" t="n">
-        <v>-3876.838947779954</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>665</v>
       </c>
       <c r="I201" t="n">
-        <v>665</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>667</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7120,24 +6493,23 @@
         <v>107.3358</v>
       </c>
       <c r="G202" t="n">
-        <v>-3769.503147779954</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>664</v>
       </c>
       <c r="I202" t="n">
-        <v>664</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>667</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7159,24 +6531,19 @@
         <v>399.5142</v>
       </c>
       <c r="G203" t="n">
-        <v>-3769.503147779954</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>667</v>
       </c>
       <c r="I203" t="n">
         <v>667</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7198,24 +6565,21 @@
         <v>1384.6756</v>
       </c>
       <c r="G204" t="n">
-        <v>-3769.503147779954</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="n">
         <v>667</v>
       </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7237,24 +6601,21 @@
         <v>29.8911</v>
       </c>
       <c r="G205" t="n">
-        <v>-3769.503147779954</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="n">
         <v>667</v>
       </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
+      <c r="J205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7276,24 +6637,21 @@
         <v>2776.48339854</v>
       </c>
       <c r="G206" t="n">
-        <v>-993.0197492399543</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="n">
         <v>667</v>
       </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
+      <c r="J206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7315,24 +6673,21 @@
         <v>590.795</v>
       </c>
       <c r="G207" t="n">
-        <v>-993.0197492399543</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="n">
-        <v>688</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
+        <v>667</v>
+      </c>
+      <c r="J207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7354,22 +6709,21 @@
         <v>341.15750146</v>
       </c>
       <c r="G208" t="n">
-        <v>-993.0197492399543</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>667</v>
+      </c>
+      <c r="J208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7391,22 +6745,21 @@
         <v>6125.5961</v>
       </c>
       <c r="G209" t="n">
-        <v>5132.576350760046</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>667</v>
+      </c>
+      <c r="J209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7428,22 +6781,21 @@
         <v>828.1528</v>
       </c>
       <c r="G210" t="n">
-        <v>5132.576350760046</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>667</v>
+      </c>
+      <c r="J210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7465,22 +6817,21 @@
         <v>1371.7659</v>
       </c>
       <c r="G211" t="n">
-        <v>6504.342250760046</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="n">
+        <v>667</v>
+      </c>
+      <c r="J211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7502,22 +6853,21 @@
         <v>148</v>
       </c>
       <c r="G212" t="n">
-        <v>6504.342250760046</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="n">
+        <v>667</v>
+      </c>
+      <c r="J212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7539,22 +6889,21 @@
         <v>100</v>
       </c>
       <c r="G213" t="n">
-        <v>6604.342250760046</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="n">
+        <v>667</v>
+      </c>
+      <c r="J213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7576,22 +6925,21 @@
         <v>19</v>
       </c>
       <c r="G214" t="n">
-        <v>6604.342250760046</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="n">
+        <v>667</v>
+      </c>
+      <c r="J214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7613,22 +6961,21 @@
         <v>150</v>
       </c>
       <c r="G215" t="n">
-        <v>6754.342250760046</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="n">
+        <v>667</v>
+      </c>
+      <c r="J215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7650,22 +6997,21 @@
         <v>589.1002999999999</v>
       </c>
       <c r="G216" t="n">
-        <v>6754.342250760046</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="n">
+        <v>667</v>
+      </c>
+      <c r="J216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7687,22 +7033,21 @@
         <v>191.0722</v>
       </c>
       <c r="G217" t="n">
-        <v>6754.342250760046</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="n">
+        <v>667</v>
+      </c>
+      <c r="J217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7724,22 +7069,21 @@
         <v>80</v>
       </c>
       <c r="G218" t="n">
-        <v>6834.342250760046</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="n">
+        <v>667</v>
+      </c>
+      <c r="J218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7761,22 +7105,21 @@
         <v>3100.8679</v>
       </c>
       <c r="G219" t="n">
-        <v>6834.342250760046</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="n">
+        <v>667</v>
+      </c>
+      <c r="J219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7798,22 +7141,21 @@
         <v>923.5074</v>
       </c>
       <c r="G220" t="n">
-        <v>7757.849650760047</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="n">
+        <v>667</v>
+      </c>
+      <c r="J220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7835,22 +7177,21 @@
         <v>92</v>
       </c>
       <c r="G221" t="n">
-        <v>7757.849650760047</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="n">
+        <v>667</v>
+      </c>
+      <c r="J221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7872,22 +7213,21 @@
         <v>144.3059</v>
       </c>
       <c r="G222" t="n">
-        <v>7613.543750760046</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="n">
+        <v>667</v>
+      </c>
+      <c r="J222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7909,22 +7249,21 @@
         <v>102.2947</v>
       </c>
       <c r="G223" t="n">
-        <v>7511.249050760046</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="n">
+        <v>667</v>
+      </c>
+      <c r="J223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7946,22 +7285,21 @@
         <v>372.9666</v>
       </c>
       <c r="G224" t="n">
-        <v>7138.282450760046</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="n">
+        <v>667</v>
+      </c>
+      <c r="J224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7983,22 +7321,21 @@
         <v>938.3057</v>
       </c>
       <c r="G225" t="n">
-        <v>6199.976750760046</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="n">
+        <v>667</v>
+      </c>
+      <c r="J225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8020,22 +7357,21 @@
         <v>8.9238</v>
       </c>
       <c r="G226" t="n">
-        <v>6199.976750760046</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="n">
+        <v>667</v>
+      </c>
+      <c r="J226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8057,22 +7393,21 @@
         <v>14.881</v>
       </c>
       <c r="G227" t="n">
-        <v>6185.095750760046</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="n">
+        <v>667</v>
+      </c>
+      <c r="J227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8094,22 +7429,21 @@
         <v>165.8923</v>
       </c>
       <c r="G228" t="n">
-        <v>6019.203450760046</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="n">
+        <v>667</v>
+      </c>
+      <c r="J228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8131,22 +7465,21 @@
         <v>696.0972</v>
       </c>
       <c r="G229" t="n">
-        <v>5323.106250760045</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="n">
+        <v>667</v>
+      </c>
+      <c r="J229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8168,22 +7501,21 @@
         <v>624.5265000000001</v>
       </c>
       <c r="G230" t="n">
-        <v>4698.579750760045</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="n">
+        <v>667</v>
+      </c>
+      <c r="J230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8205,22 +7537,21 @@
         <v>150.9653</v>
       </c>
       <c r="G231" t="n">
-        <v>4547.614450760046</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="n">
+        <v>667</v>
+      </c>
+      <c r="J231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8242,22 +7573,21 @@
         <v>148.5478</v>
       </c>
       <c r="G232" t="n">
-        <v>4696.162250760046</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="n">
+        <v>667</v>
+      </c>
+      <c r="J232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8279,22 +7609,21 @@
         <v>245.348</v>
       </c>
       <c r="G233" t="n">
-        <v>4941.510250760046</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="n">
+        <v>667</v>
+      </c>
+      <c r="J233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8316,22 +7645,21 @@
         <v>1</v>
       </c>
       <c r="G234" t="n">
-        <v>4942.510250760046</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="n">
+        <v>667</v>
+      </c>
+      <c r="J234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8353,22 +7681,21 @@
         <v>190</v>
       </c>
       <c r="G235" t="n">
-        <v>4752.510250760046</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="n">
+        <v>667</v>
+      </c>
+      <c r="J235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8390,22 +7717,21 @@
         <v>90.7764</v>
       </c>
       <c r="G236" t="n">
-        <v>4752.510250760046</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="n">
+        <v>667</v>
+      </c>
+      <c r="J236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8427,22 +7753,21 @@
         <v>3072.4884</v>
       </c>
       <c r="G237" t="n">
-        <v>4752.510250760046</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="n">
+        <v>667</v>
+      </c>
+      <c r="J237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8464,22 +7789,21 @@
         <v>112.4056</v>
       </c>
       <c r="G238" t="n">
-        <v>4752.510250760046</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="n">
+        <v>667</v>
+      </c>
+      <c r="J238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8501,22 +7825,21 @@
         <v>154.2406</v>
       </c>
       <c r="G239" t="n">
-        <v>4598.269650760046</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="n">
+        <v>667</v>
+      </c>
+      <c r="J239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8538,22 +7861,21 @@
         <v>135.327</v>
       </c>
       <c r="G240" t="n">
-        <v>4462.942650760046</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="n">
+        <v>667</v>
+      </c>
+      <c r="J240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8575,22 +7897,21 @@
         <v>216.9631</v>
       </c>
       <c r="G241" t="n">
-        <v>4462.942650760046</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="n">
+        <v>667</v>
+      </c>
+      <c r="J241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8612,22 +7933,21 @@
         <v>351.4244</v>
       </c>
       <c r="G242" t="n">
-        <v>4111.518250760046</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="n">
+        <v>667</v>
+      </c>
+      <c r="J242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8649,22 +7969,21 @@
         <v>128.7186</v>
       </c>
       <c r="G243" t="n">
-        <v>4240.236850760046</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="n">
+        <v>667</v>
+      </c>
+      <c r="J243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8686,22 +8005,21 @@
         <v>10.7329</v>
       </c>
       <c r="G244" t="n">
-        <v>4250.969750760046</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="n">
+        <v>667</v>
+      </c>
+      <c r="J244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8723,22 +8041,21 @@
         <v>200</v>
       </c>
       <c r="G245" t="n">
-        <v>4450.969750760046</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="n">
+        <v>667</v>
+      </c>
+      <c r="J245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8760,22 +8077,21 @@
         <v>10.1794</v>
       </c>
       <c r="G246" t="n">
-        <v>4461.149150760046</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="n">
+        <v>667</v>
+      </c>
+      <c r="J246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8797,22 +8113,21 @@
         <v>716.2165</v>
       </c>
       <c r="G247" t="n">
-        <v>5177.365650760046</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="n">
+        <v>667</v>
+      </c>
+      <c r="J247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8834,22 +8149,21 @@
         <v>6056.82681531</v>
       </c>
       <c r="G248" t="n">
-        <v>11234.19246607005</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="n">
+        <v>667</v>
+      </c>
+      <c r="J248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8871,22 +8185,21 @@
         <v>7487.27778469</v>
       </c>
       <c r="G249" t="n">
-        <v>18721.47025076005</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="n">
+        <v>667</v>
+      </c>
+      <c r="J249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8908,22 +8221,21 @@
         <v>413.2883</v>
       </c>
       <c r="G250" t="n">
-        <v>18308.18195076004</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="n">
+        <v>667</v>
+      </c>
+      <c r="J250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8945,22 +8257,21 @@
         <v>426.2334</v>
       </c>
       <c r="G251" t="n">
-        <v>17881.94855076004</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="n">
+        <v>667</v>
+      </c>
+      <c r="J251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8982,22 +8293,21 @@
         <v>4219.2243</v>
       </c>
       <c r="G252" t="n">
-        <v>22101.17285076004</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="n">
+        <v>667</v>
+      </c>
+      <c r="J252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9019,22 +8329,21 @@
         <v>3185.1229</v>
       </c>
       <c r="G253" t="n">
-        <v>18916.04995076004</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="n">
+        <v>667</v>
+      </c>
+      <c r="J253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9056,22 +8365,21 @@
         <v>1088.5383</v>
       </c>
       <c r="G254" t="n">
-        <v>20004.58825076004</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="n">
+        <v>667</v>
+      </c>
+      <c r="J254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9093,22 +8401,21 @@
         <v>1693.1371</v>
       </c>
       <c r="G255" t="n">
-        <v>18311.45115076004</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="n">
+        <v>667</v>
+      </c>
+      <c r="J255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9130,22 +8437,21 @@
         <v>39.9112</v>
       </c>
       <c r="G256" t="n">
-        <v>18311.45115076004</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="n">
+        <v>667</v>
+      </c>
+      <c r="J256" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9167,22 +8473,21 @@
         <v>8217.527099999999</v>
       </c>
       <c r="G257" t="n">
-        <v>10093.92405076004</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="n">
+        <v>667</v>
+      </c>
+      <c r="J257" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9204,22 +8509,21 @@
         <v>140.8645</v>
       </c>
       <c r="G258" t="n">
-        <v>10234.78855076004</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="n">
+        <v>667</v>
+      </c>
+      <c r="J258" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9241,22 +8545,21 @@
         <v>270.723</v>
       </c>
       <c r="G259" t="n">
-        <v>10505.51155076004</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="n">
+        <v>667</v>
+      </c>
+      <c r="J259" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9278,22 +8581,21 @@
         <v>3109.4225</v>
       </c>
       <c r="G260" t="n">
-        <v>13614.93405076004</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="n">
+        <v>667</v>
+      </c>
+      <c r="J260" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9315,22 +8617,21 @@
         <v>26.3212</v>
       </c>
       <c r="G261" t="n">
-        <v>13588.61285076004</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="n">
+        <v>667</v>
+      </c>
+      <c r="J261" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9352,22 +8653,21 @@
         <v>2</v>
       </c>
       <c r="G262" t="n">
-        <v>13590.61285076004</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="n">
+        <v>667</v>
+      </c>
+      <c r="J262" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9389,22 +8689,21 @@
         <v>197.8965</v>
       </c>
       <c r="G263" t="n">
-        <v>13392.71635076004</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="n">
+        <v>667</v>
+      </c>
+      <c r="J263" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9426,22 +8725,21 @@
         <v>4.3683</v>
       </c>
       <c r="G264" t="n">
-        <v>13397.08465076004</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="n">
+        <v>667</v>
+      </c>
+      <c r="J264" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9463,22 +8761,21 @@
         <v>270.0462</v>
       </c>
       <c r="G265" t="n">
-        <v>13127.03845076004</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="n">
+        <v>667</v>
+      </c>
+      <c r="J265" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9500,22 +8797,21 @@
         <v>1.0474</v>
       </c>
       <c r="G266" t="n">
-        <v>13128.08585076004</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="n">
+        <v>667</v>
+      </c>
+      <c r="J266" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9537,22 +8833,21 @@
         <v>60.1552</v>
       </c>
       <c r="G267" t="n">
-        <v>13067.93065076004</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="n">
+        <v>667</v>
+      </c>
+      <c r="J267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9574,22 +8869,21 @@
         <v>1.995</v>
       </c>
       <c r="G268" t="n">
-        <v>13067.93065076004</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="n">
+        <v>667</v>
+      </c>
+      <c r="J268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9611,22 +8905,21 @@
         <v>3541.4059</v>
       </c>
       <c r="G269" t="n">
-        <v>16609.33655076004</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="n">
+        <v>667</v>
+      </c>
+      <c r="J269" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9648,22 +8941,21 @@
         <v>870.9985</v>
       </c>
       <c r="G270" t="n">
-        <v>15738.33805076004</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="n">
+        <v>667</v>
+      </c>
+      <c r="J270" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9685,22 +8977,21 @@
         <v>2500.6088</v>
       </c>
       <c r="G271" t="n">
-        <v>13237.72925076004</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="n">
+        <v>667</v>
+      </c>
+      <c r="J271" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9722,22 +9013,21 @@
         <v>2247.6958</v>
       </c>
       <c r="G272" t="n">
-        <v>10990.03345076004</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="n">
+        <v>667</v>
+      </c>
+      <c r="J272" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9759,22 +9049,21 @@
         <v>323.2295</v>
       </c>
       <c r="G273" t="n">
-        <v>10990.03345076004</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="n">
+        <v>667</v>
+      </c>
+      <c r="J273" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9796,22 +9085,21 @@
         <v>187.6784</v>
       </c>
       <c r="G274" t="n">
-        <v>11177.71185076004</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="n">
+        <v>667</v>
+      </c>
+      <c r="J274" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9833,22 +9121,21 @@
         <v>351.0743</v>
       </c>
       <c r="G275" t="n">
-        <v>11528.78615076004</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="n">
+        <v>667</v>
+      </c>
+      <c r="J275" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9870,22 +9157,21 @@
         <v>14.0883</v>
       </c>
       <c r="G276" t="n">
-        <v>11528.78615076004</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="n">
+        <v>667</v>
+      </c>
+      <c r="J276" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9907,22 +9193,21 @@
         <v>386.1128</v>
       </c>
       <c r="G277" t="n">
-        <v>11142.67335076004</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="n">
+        <v>667</v>
+      </c>
+      <c r="J277" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9944,22 +9229,21 @@
         <v>907.5094</v>
       </c>
       <c r="G278" t="n">
-        <v>10235.16395076004</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="n">
+        <v>667</v>
+      </c>
+      <c r="J278" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9981,22 +9265,21 @@
         <v>417.1913</v>
       </c>
       <c r="G279" t="n">
-        <v>9817.972650760043</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="n">
+        <v>667</v>
+      </c>
+      <c r="J279" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10018,22 +9301,21 @@
         <v>1742.2694</v>
       </c>
       <c r="G280" t="n">
-        <v>8075.703250760042</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="n">
+        <v>667</v>
+      </c>
+      <c r="J280" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10055,22 +9337,21 @@
         <v>7.431</v>
       </c>
       <c r="G281" t="n">
-        <v>8083.134250760042</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="n">
+        <v>667</v>
+      </c>
+      <c r="J281" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10092,22 +9373,21 @@
         <v>69.1268</v>
       </c>
       <c r="G282" t="n">
-        <v>8152.261050760042</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="n">
+        <v>667</v>
+      </c>
+      <c r="J282" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10129,22 +9409,21 @@
         <v>1126.3794</v>
       </c>
       <c r="G283" t="n">
-        <v>7025.881650760042</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="n">
+        <v>667</v>
+      </c>
+      <c r="J283" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10166,22 +9445,21 @@
         <v>2231.9843</v>
       </c>
       <c r="G284" t="n">
-        <v>7025.881650760042</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="n">
+        <v>667</v>
+      </c>
+      <c r="J284" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10203,22 +9481,21 @@
         <v>51</v>
       </c>
       <c r="G285" t="n">
-        <v>7076.881650760042</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="n">
+        <v>667</v>
+      </c>
+      <c r="J285" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10240,22 +9517,21 @@
         <v>560.0152</v>
       </c>
       <c r="G286" t="n">
-        <v>6516.866450760042</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="n">
+        <v>667</v>
+      </c>
+      <c r="J286" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10277,22 +9553,21 @@
         <v>29.5774</v>
       </c>
       <c r="G287" t="n">
-        <v>6546.443850760043</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="n">
+        <v>667</v>
+      </c>
+      <c r="J287" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10314,22 +9589,21 @@
         <v>621.9366</v>
       </c>
       <c r="G288" t="n">
-        <v>5924.507250760043</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="n">
+        <v>667</v>
+      </c>
+      <c r="J288" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10351,22 +9625,21 @@
         <v>285.332</v>
       </c>
       <c r="G289" t="n">
-        <v>5924.507250760043</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="n">
+        <v>667</v>
+      </c>
+      <c r="J289" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10388,22 +9661,21 @@
         <v>153.6094</v>
       </c>
       <c r="G290" t="n">
-        <v>5924.507250760043</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="n">
+        <v>667</v>
+      </c>
+      <c r="J290" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10425,22 +9697,21 @@
         <v>3297.8592</v>
       </c>
       <c r="G291" t="n">
-        <v>2626.648050760043</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="n">
+        <v>667</v>
+      </c>
+      <c r="J291" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10462,22 +9733,21 @@
         <v>98.06319999999999</v>
       </c>
       <c r="G292" t="n">
-        <v>2724.711250760043</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="n">
+        <v>667</v>
+      </c>
+      <c r="J292" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10499,22 +9769,21 @@
         <v>408.2107</v>
       </c>
       <c r="G293" t="n">
-        <v>2316.500550760043</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="n">
+        <v>667</v>
+      </c>
+      <c r="J293" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10536,22 +9805,21 @@
         <v>823.293</v>
       </c>
       <c r="G294" t="n">
-        <v>1493.207550760043</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="n">
+        <v>667</v>
+      </c>
+      <c r="J294" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10573,22 +9841,21 @@
         <v>1449.6316</v>
       </c>
       <c r="G295" t="n">
-        <v>43.57595076004259</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="n">
+        <v>667</v>
+      </c>
+      <c r="J295" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10610,22 +9877,21 @@
         <v>241.718</v>
       </c>
       <c r="G296" t="n">
-        <v>285.2939507600425</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="n">
+        <v>667</v>
+      </c>
+      <c r="J296" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10647,22 +9913,21 @@
         <v>1881.5075</v>
       </c>
       <c r="G297" t="n">
-        <v>2166.801450760042</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="n">
+        <v>667</v>
+      </c>
+      <c r="J297" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10684,22 +9949,23 @@
         <v>59.4911</v>
       </c>
       <c r="G298" t="n">
-        <v>2166.801450760042</v>
+        <v>1</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
+        <v>661</v>
+      </c>
+      <c r="I298" t="n">
+        <v>667</v>
+      </c>
+      <c r="J298" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10721,22 +9987,23 @@
         <v>4.0433</v>
       </c>
       <c r="G299" t="n">
-        <v>2170.844750760042</v>
+        <v>1</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
+        <v>661</v>
+      </c>
+      <c r="I299" t="n">
+        <v>667</v>
+      </c>
+      <c r="J299" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10758,22 +10025,23 @@
         <v>588.914</v>
       </c>
       <c r="G300" t="n">
-        <v>2759.758750760042</v>
+        <v>1</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
+        <v>665</v>
+      </c>
+      <c r="I300" t="n">
+        <v>667</v>
+      </c>
+      <c r="J300" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10795,22 +10063,23 @@
         <v>338.7724</v>
       </c>
       <c r="G301" t="n">
-        <v>3098.531150760042</v>
+        <v>1</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
+        <v>669</v>
+      </c>
+      <c r="I301" t="n">
+        <v>667</v>
+      </c>
+      <c r="J301" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10832,22 +10101,23 @@
         <v>1016.0998</v>
       </c>
       <c r="G302" t="n">
-        <v>4114.630950760042</v>
+        <v>1</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
+        <v>683</v>
+      </c>
+      <c r="I302" t="n">
+        <v>667</v>
+      </c>
+      <c r="J302" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10869,22 +10139,21 @@
         <v>465.1578</v>
       </c>
       <c r="G303" t="n">
-        <v>4114.630950760042</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="n">
+        <v>667</v>
+      </c>
+      <c r="J303" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10906,22 +10175,21 @@
         <v>1290.8347</v>
       </c>
       <c r="G304" t="n">
-        <v>4114.630950760042</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="n">
+        <v>667</v>
+      </c>
+      <c r="J304" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
